--- a/QuantLibXL/Data2/XLS/EUR/EUR_YCBondItaly.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_YCBondItaly.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="9870" windowWidth="30690" windowHeight="9930"/>
+    <workbookView xWindow="2310" yWindow="285" windowWidth="30690" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -261,37 +261,37 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>42037</c:v>
+                  <c:v>42310</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42219</c:v>
+                  <c:v>42475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42310</c:v>
+                  <c:v>42583</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42475</c:v>
+                  <c:v>42628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42583</c:v>
+                  <c:v>42767</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42628</c:v>
+                  <c:v>42857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42767</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42857</c:v>
+                  <c:v>42887</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42887</c:v>
+                  <c:v>42948</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42948</c:v>
+                  <c:v>43040</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43040</c:v>
+                  <c:v>43115</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43132</c:v>
@@ -348,82 +348,82 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.99923585759140032</c:v>
+                  <c:v>1.0000286999357464</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99656285031373515</c:v>
+                  <c:v>1.0000588957055216</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99511449973550314</c:v>
+                  <c:v>0.99986926397063758</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99156175457618856</c:v>
+                  <c:v>0.99974463602507069</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98833003339552994</c:v>
+                  <c:v>0.99925380545949016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98655828256801892</c:v>
+                  <c:v>0.99879300834483475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98211637479271108</c:v>
+                  <c:v>0.99879070510652057</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97837933697774138</c:v>
+                  <c:v>0.99844937734617001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9772290670780458</c:v>
+                  <c:v>0.99841321039277053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97527063767642652</c:v>
+                  <c:v>0.99760259236144722</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97221056343920176</c:v>
+                  <c:v>0.99614816781328119</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96755484820936999</c:v>
+                  <c:v>0.99581966641377961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96210022161303033</c:v>
+                  <c:v>0.99331084671006187</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95936904470354012</c:v>
+                  <c:v>0.99258647082032225</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95498793278921867</c:v>
+                  <c:v>0.98983866998531855</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.95152584033511123</c:v>
+                  <c:v>0.98737766919328029</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.95085103496257117</c:v>
+                  <c:v>0.98645053866115884</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93944880154297339</c:v>
+                  <c:v>0.97993793865033008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92775350619872299</c:v>
+                  <c:v>0.97344410042484286</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92602085830401304</c:v>
+                  <c:v>0.97281560700154734</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.91123896960001172</c:v>
+                  <c:v>0.963105519724611</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.89484261006135979</c:v>
+                  <c:v>0.95161857643369085</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.88614679846042443</c:v>
+                  <c:v>0.94703330009394371</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.87843573644016359</c:v>
+                  <c:v>0.94039963394739279</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.87471613129285231</c:v>
+                  <c:v>0.9377649460148243</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.85524121313771773</c:v>
+                  <c:v>0.92736323082395344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -438,11 +438,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="658004992"/>
-        <c:axId val="658510976"/>
+        <c:axId val="777595136"/>
+        <c:axId val="777601408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="658004992"/>
+        <c:axId val="777595136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40921"/>
@@ -478,14 +478,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658510976"/>
+        <c:crossAx val="777601408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1826.25"/>
         <c:minorUnit val="365.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="658510976"/>
+        <c:axId val="777601408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -532,7 +532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658004992"/>
+        <c:crossAx val="777595136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.05"/>
@@ -933,14 +933,16 @@
       </c>
       <c r="B1" s="18">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41929</v>
+        <v>42290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="16">
+        <v>42290.459317129629</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -978,9 +980,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="H1" s="3" t="str">
         <f>_xll.qlBondEngine(,L2)</f>
-        <v>obj_00dbe#0001</v>
+        <v>obj_00a7f#0002</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -1039,31 +1039,31 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="str">
         <f t="array" ref="A2:A70">_xll.qlBondAlive("BTPs",EvaluationDate+365)</f>
-        <v>IT0004656275</v>
+        <v>IT0004960826</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>_xll.qlBondDescription(A2)</f>
-        <v>BTP 2015-11-01 3%</v>
+        <v>BTP 2016-11-15 2.75%</v>
       </c>
       <c r="C2" s="11">
         <f>_xll.qlBondMaturityDate(A2)</f>
-        <v>42309</v>
+        <v>42689</v>
       </c>
       <c r="D2" s="8" t="b">
-        <f t="shared" ref="D2:D65" si="0">NOT(ISERROR(F2))</f>
+        <f>NOT(ISERROR(A2))</f>
         <v>1</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>A2&amp;$E$1</f>
-        <v>IT0004656275_Quote</v>
+        <v>IT0004960826_Quote</v>
       </c>
       <c r="F2" s="10">
         <f>_xll.qlQuoteValue(E2,Trigger)</f>
-        <v>102.59049999999999</v>
+        <v>102.5125</v>
       </c>
       <c r="G2" s="7" t="str">
         <f>_xll.qlBondHelper(,E2,A2,,,Trigger)</f>
-        <v>obj_00db1#0001</v>
+        <v>obj_00a77#0000</v>
       </c>
       <c r="H2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A2,$H$1)</f>
@@ -1071,45 +1071,45 @@
       </c>
       <c r="I2" s="10">
         <f>_xll.qlBondCleanPrice(A2,H2)</f>
-        <v>102.59049608695651</v>
+        <v>102.93900239130438</v>
       </c>
       <c r="J2" s="10">
         <f>I2-F2</f>
-        <v>-3.9130434856815555E-6</v>
+        <v>0.42650239130438194</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="3" t="str">
         <f>_xll.qlPiecewiseYieldCurve(L1,_xll.qlBondSettlementDays(A26),"TARGET",_xll.ohFilter(G2:G70,D2:D70),,,,,TraitsID,InterpolatorID)</f>
-        <v>Btp#0001</v>
+        <v>Btp#0002</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="str">
-        <v>IT0004880990</v>
+        <v>IT0004987191</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>_xll.qlBondDescription(A3)</f>
-        <v>BTP 2015-12-01 2.75%</v>
+        <v>BTP 2016-12-15 1.5%</v>
       </c>
       <c r="C3" s="11">
         <f>_xll.qlBondMaturityDate(A3)</f>
-        <v>42339</v>
+        <v>42719</v>
       </c>
       <c r="D3" s="8" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D66" si="0">NOT(ISERROR(A3))</f>
         <v>1</v>
       </c>
       <c r="E3" s="8" t="str">
         <f t="shared" ref="E3:E49" si="1">A3&amp;$E$1</f>
-        <v>IT0004880990_Quote</v>
+        <v>IT0004987191_Quote</v>
       </c>
       <c r="F3" s="10">
         <f>_xll.qlQuoteValue(E3,Trigger)</f>
-        <v>102.50450000000001</v>
+        <v>102.52449999999999</v>
       </c>
       <c r="G3" s="7" t="str">
         <f>_xll.qlBondHelper(,E3,A3,,,Trigger)</f>
-        <v>obj_00d8f#0001</v>
+        <v>obj_00a61#0000</v>
       </c>
       <c r="H3" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A3,$H$1)</f>
@@ -1117,26 +1117,26 @@
       </c>
       <c r="I3" s="10">
         <f>_xll.qlBondCleanPrice(A3,H3)</f>
-        <v>102.50449989071039</v>
+        <v>101.71199999999997</v>
       </c>
       <c r="J3" s="10">
         <f t="shared" ref="J3:J66" si="2">I3-F3</f>
-        <v>-1.0928961557965522E-7</v>
+        <v>-0.81250000000001421</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="str">
-        <v>IT0004712748</v>
+        <v>IT0004164775</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>_xll.qlBondDescription(A4)</f>
-        <v>BTP 2016-04-15 3.75%</v>
+        <v>BTP 2017-02-01 4%</v>
       </c>
       <c r="C4" s="11">
         <f>_xll.qlBondMaturityDate(A4)</f>
-        <v>42475</v>
+        <v>42767</v>
       </c>
       <c r="D4" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1144,15 +1144,15 @@
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004712748_Quote</v>
+        <v>IT0004164775_Quote</v>
       </c>
       <c r="F4" s="10">
         <f>_xll.qlQuoteValue(E4,Trigger)</f>
-        <v>104.6905</v>
+        <v>102.4135</v>
       </c>
       <c r="G4" s="7" t="str">
         <f>_xll.qlBondHelper(,E4,A4,,,Trigger)</f>
-        <v>obj_00d9f#0001</v>
+        <v>obj_00a73#0000</v>
       </c>
       <c r="H4" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A4,$H$1)</f>
@@ -1160,26 +1160,26 @@
       </c>
       <c r="I4" s="10">
         <f>_xll.qlBondCleanPrice(A4,H4)</f>
-        <v>104.69050318681319</v>
+        <v>105.10849739130435</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" si="2"/>
-        <v>3.1868131884493778E-6</v>
+        <v>2.694997391304355</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="str">
-        <v>IT0004917792</v>
+        <v>IT0004793474</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>_xll.qlBondDescription(A5)</f>
-        <v>BTP 2016-05-15 2.25%</v>
+        <v>BTP 2017-05-01 4.75%</v>
       </c>
       <c r="C5" s="11">
         <f>_xll.qlBondMaturityDate(A5)</f>
-        <v>42505</v>
+        <v>42856</v>
       </c>
       <c r="D5" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1187,15 +1187,15 @@
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004917792_Quote</v>
+        <v>IT0004793474_Quote</v>
       </c>
       <c r="F5" s="10">
         <f>_xll.qlQuoteValue(E5,Trigger)</f>
-        <v>102.535</v>
+        <v>104.404</v>
       </c>
       <c r="G5" s="7" t="str">
         <f>_xll.qlBondHelper(,E5,A5,,,Trigger)</f>
-        <v>obj_00db8#0001</v>
+        <v>obj_00a6f#0000</v>
       </c>
       <c r="H5" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A5,$H$1)</f>
@@ -1203,26 +1203,26 @@
       </c>
       <c r="I5" s="10">
         <f>_xll.qlBondCleanPrice(A5,H5)</f>
-        <v>102.53499673913043</v>
+        <v>107.22000065217391</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="2"/>
-        <v>-3.2608695619273931E-6</v>
+        <v>2.816000652173912</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="str">
-        <v>IT0004019581</v>
+        <v>IT0005023459</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>_xll.qlBondDescription(A6)</f>
-        <v>BTP 2016-08-01 3.75%</v>
+        <v>BTP 2017-05-15 1.15%</v>
       </c>
       <c r="C6" s="11">
         <f>_xll.qlBondMaturityDate(A6)</f>
-        <v>42583</v>
+        <v>42870</v>
       </c>
       <c r="D6" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1230,15 +1230,15 @@
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004019581_Quote</v>
+        <v>IT0005023459_Quote</v>
       </c>
       <c r="F6" s="10">
         <f>_xll.qlQuoteValue(E6,Trigger)</f>
-        <v>105.47</v>
+        <v>102.27500000000001</v>
       </c>
       <c r="G6" s="7" t="str">
         <f>_xll.qlBondHelper(,E6,A6,,,Trigger)</f>
-        <v>obj_00db2#0001</v>
+        <v>obj_00a63#0000</v>
       </c>
       <c r="H6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A6,$H$1)</f>
@@ -1246,26 +1246,26 @@
       </c>
       <c r="I6" s="10">
         <f>_xll.qlBondCleanPrice(A6,H6)</f>
-        <v>105.46999760869565</v>
+        <v>101.70000499999998</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="2"/>
-        <v>-2.3913043492029828E-6</v>
+        <v>-0.57499500000002968</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="str">
-        <v>IT0004761950</v>
+        <v>IT0004820426</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>_xll.qlBondDescription(A7)</f>
-        <v>BTP 2016-09-15 4.75%</v>
+        <v>BTP 2017-06-01 4.75%</v>
       </c>
       <c r="C7" s="11">
         <f>_xll.qlBondMaturityDate(A7)</f>
-        <v>42628</v>
+        <v>42887</v>
       </c>
       <c r="D7" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1273,15 +1273,15 @@
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004761950_Quote</v>
+        <v>IT0004820426_Quote</v>
       </c>
       <c r="F7" s="10">
         <f>_xll.qlQuoteValue(E7,Trigger)</f>
-        <v>107.62</v>
+        <v>105.19</v>
       </c>
       <c r="G7" s="7" t="str">
         <f>_xll.qlBondHelper(,E7,A7,,,Trigger)</f>
-        <v>obj_00d9d#0001</v>
+        <v>obj_00a4c#0000</v>
       </c>
       <c r="H7" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A7,$H$1)</f>
@@ -1289,26 +1289,26 @@
       </c>
       <c r="I7" s="10">
         <f>_xll.qlBondCleanPrice(A7,H7)</f>
-        <v>107.61999569060774</v>
+        <v>107.57499732240439</v>
       </c>
       <c r="J7" s="10">
         <f t="shared" si="2"/>
-        <v>-4.3093922670323082E-6</v>
+        <v>2.3849973224043879</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="str">
-        <v>IT0004960826</v>
+        <v>IT0003242747</v>
       </c>
       <c r="B8" s="8" t="str">
         <f>_xll.qlBondDescription(A8)</f>
-        <v>BTP 2016-11-15 2.75%</v>
+        <v>BTP 2017-08-01 5.25%</v>
       </c>
       <c r="C8" s="11">
         <f>_xll.qlBondMaturityDate(A8)</f>
-        <v>42689</v>
+        <v>42948</v>
       </c>
       <c r="D8" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1316,15 +1316,15 @@
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004960826_Quote</v>
+        <v>IT0003242747_Quote</v>
       </c>
       <c r="F8" s="10">
         <f>_xll.qlQuoteValue(E8,Trigger)</f>
-        <v>104.095</v>
+        <v>107.31</v>
       </c>
       <c r="G8" s="7" t="str">
         <f>_xll.qlBondHelper(,E8,A8,,,Trigger)</f>
-        <v>obj_00d8d#0001</v>
+        <v>obj_00a6e#0000</v>
       </c>
       <c r="H8" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A8,$H$1)</f>
@@ -1332,26 +1332,26 @@
       </c>
       <c r="I8" s="10">
         <f>_xll.qlBondCleanPrice(A8,H8)</f>
-        <v>104.09499934782609</v>
+        <v>109.26500282608696</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>-6.5217390954330767E-7</v>
+        <v>1.9550028260869539</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="str">
-        <v>IT0004987191</v>
+        <v>IT0004867070</v>
       </c>
       <c r="B9" s="8" t="str">
         <f>_xll.qlBondDescription(A9)</f>
-        <v>BTP 2016-12-15 1.5%</v>
+        <v>BTP 2017-11-01 3.5%</v>
       </c>
       <c r="C9" s="11">
         <f>_xll.qlBondMaturityDate(A9)</f>
-        <v>42719</v>
+        <v>43040</v>
       </c>
       <c r="D9" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1359,15 +1359,15 @@
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004987191_Quote</v>
+        <v>IT0004867070_Quote</v>
       </c>
       <c r="F9" s="10">
         <f>_xll.qlQuoteValue(E9,Trigger)</f>
-        <v>101.54499999999999</v>
+        <v>103.72499999999999</v>
       </c>
       <c r="G9" s="7" t="str">
         <f>_xll.qlBondHelper(,E9,A9,,,Trigger)</f>
-        <v>obj_00da7#0001</v>
+        <v>obj_00a59#0000</v>
       </c>
       <c r="H9" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A9,$H$1)</f>
@@ -1375,26 +1375,26 @@
       </c>
       <c r="I9" s="10">
         <f>_xll.qlBondCleanPrice(A9,H9)</f>
-        <v>101.54500016393442</v>
+        <v>106.91499521739131</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="2"/>
-        <v>1.6393443047491019E-7</v>
+        <v>3.1899952173913135</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="str">
-        <v>IT0004164775</v>
+        <v>IT0005058463</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>_xll.qlBondDescription(A10)</f>
-        <v>BTP 2017-02-01 4%</v>
+        <v>BTP 2018-01-15 0.75%</v>
       </c>
       <c r="C10" s="11">
         <f>_xll.qlBondMaturityDate(A10)</f>
-        <v>42767</v>
+        <v>43115</v>
       </c>
       <c r="D10" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1402,15 +1402,15 @@
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004164775_Quote</v>
+        <v>IT0005058463_Quote</v>
       </c>
       <c r="F10" s="10">
         <f>_xll.qlQuoteValue(E10,Trigger)</f>
-        <v>107.25</v>
+        <v>101.19</v>
       </c>
       <c r="G10" s="7" t="str">
         <f>_xll.qlBondHelper(,E10,A10,,,Trigger)</f>
-        <v>obj_00d97#0001</v>
+        <v>obj_00a70#0000</v>
       </c>
       <c r="H10" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A10,$H$1)</f>
@@ -1418,26 +1418,26 @@
       </c>
       <c r="I10" s="10">
         <f>_xll.qlBondCleanPrice(A10,H10)</f>
-        <v>107.25000478260868</v>
+        <v>101.30000000000001</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="2"/>
-        <v>4.782608684195111E-6</v>
+        <v>0.11000000000001364</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="str">
-        <v>IT0004793474</v>
+        <v>IT0004273493</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>_xll.qlBondDescription(A11)</f>
-        <v>BTP 2017-05-01 4.75%</v>
+        <v>BTP 2018-02-01 4.5%</v>
       </c>
       <c r="C11" s="11">
         <f>_xll.qlBondMaturityDate(A11)</f>
-        <v>42856</v>
+        <v>43132</v>
       </c>
       <c r="D11" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1445,15 +1445,15 @@
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004793474_Quote</v>
+        <v>IT0004273493_Quote</v>
       </c>
       <c r="F11" s="10">
         <f>_xll.qlQuoteValue(E11,Trigger)</f>
-        <v>109.73</v>
+        <v>106.86499999999999</v>
       </c>
       <c r="G11" s="7" t="str">
         <f>_xll.qlBondHelper(,E11,A11,,,Trigger)</f>
-        <v>obj_00d90#0001</v>
+        <v>obj_00a5d#0000</v>
       </c>
       <c r="H11" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A11,$H$1)</f>
@@ -1461,26 +1461,26 @@
       </c>
       <c r="I11" s="10">
         <f>_xll.qlBondCleanPrice(A11,H11)</f>
-        <v>109.72999630434784</v>
+        <v>109.8999995652174</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="2"/>
-        <v>-3.6956521682895982E-6</v>
+        <v>3.0349995652174044</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="str">
-        <v>IT0004820426</v>
+        <v>IT0005106049</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>_xll.qlBondDescription(A12)</f>
-        <v>BTP 2017-06-01 4.75%</v>
+        <v>BTP 2018-05-15 0.25%</v>
       </c>
       <c r="C12" s="11">
         <f>_xll.qlBondMaturityDate(A12)</f>
-        <v>42887</v>
+        <v>43235</v>
       </c>
       <c r="D12" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1488,15 +1488,15 @@
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004820426_Quote</v>
+        <v>IT0005106049_Quote</v>
       </c>
       <c r="F12" s="10">
         <f>_xll.qlQuoteValue(E12,Trigger)</f>
-        <v>109.995</v>
+        <v>109.36</v>
       </c>
       <c r="G12" s="7" t="str">
         <f>_xll.qlBondHelper(,E12,A12,,,Trigger)</f>
-        <v>obj_00da2#0001</v>
+        <v>obj_00a5b#0000</v>
       </c>
       <c r="H12" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A12,$H$1)</f>
@@ -1504,26 +1504,26 @@
       </c>
       <c r="I12" s="10">
         <f>_xll.qlBondCleanPrice(A12,H12)</f>
-        <v>109.99499617486337</v>
+        <v>100.01500021739132</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="2"/>
-        <v>-3.825136630553061E-6</v>
+        <v>-9.3449997826086815</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="str">
-        <v>IT0003242747</v>
+        <v>IT0004907843</v>
       </c>
       <c r="B13" s="8" t="str">
         <f>_xll.qlBondDescription(A13)</f>
-        <v>BTP 2017-08-01 5.25%</v>
+        <v>BTP 2018-06-01 3.5%</v>
       </c>
       <c r="C13" s="11">
         <f>_xll.qlBondMaturityDate(A13)</f>
-        <v>42948</v>
+        <v>43252</v>
       </c>
       <c r="D13" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1531,15 +1531,15 @@
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0003242747_Quote</v>
+        <v>IT0004907843_Quote</v>
       </c>
       <c r="F13" s="10">
         <f>_xll.qlQuoteValue(E13,Trigger)</f>
-        <v>111.95</v>
+        <v>109.53</v>
       </c>
       <c r="G13" s="7" t="str">
         <f>_xll.qlBondHelper(,E13,A13,,,Trigger)</f>
-        <v>obj_00da4#0001</v>
+        <v>obj_00a76#0000</v>
       </c>
       <c r="H13" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A13,$H$1)</f>
@@ -1547,26 +1547,26 @@
       </c>
       <c r="I13" s="10">
         <f>_xll.qlBondCleanPrice(A13,H13)</f>
-        <v>111.9500006521739</v>
+        <v>108.50999644808742</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="2"/>
-        <v>6.5217389533245296E-7</v>
+        <v>-1.0200035519125805</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="str">
-        <v>IT0004867070</v>
+        <v>IT0004361041</v>
       </c>
       <c r="B14" s="8" t="str">
         <f>_xll.qlBondDescription(A14)</f>
-        <v>BTP 2017-11-01 3.5%</v>
+        <v>BTP 2018-08-01 4.5%</v>
       </c>
       <c r="C14" s="11">
         <f>_xll.qlBondMaturityDate(A14)</f>
-        <v>43040</v>
+        <v>43313</v>
       </c>
       <c r="D14" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1574,15 +1574,15 @@
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004867070_Quote</v>
+        <v>IT0004361041_Quote</v>
       </c>
       <c r="F14" s="10">
         <f>_xll.qlQuoteValue(E14,Trigger)</f>
-        <v>107.69999999999999</v>
+        <v>111.535</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>_xll.qlBondHelper(,E14,A14,,,Trigger)</f>
-        <v>obj_00dae#0001</v>
+        <v>obj_00a4d#0000</v>
       </c>
       <c r="H14" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A14,$H$1)</f>
@@ -1590,26 +1590,26 @@
       </c>
       <c r="I14" s="10">
         <f>_xll.qlBondCleanPrice(A14,H14)</f>
-        <v>107.70000043478261</v>
+        <v>111.81999956521737</v>
       </c>
       <c r="J14" s="10">
         <f t="shared" si="2"/>
-        <v>4.3478262057305983E-7</v>
+        <v>0.28499956521737602</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="str">
-        <v>IT0004273493</v>
+        <v>IT0004957574</v>
       </c>
       <c r="B15" s="8" t="str">
         <f>_xll.qlBondDescription(A15)</f>
-        <v>BTP 2018-02-01 4.5%</v>
+        <v>BTP 2018-12-01 3.5%</v>
       </c>
       <c r="C15" s="11">
         <f>_xll.qlBondMaturityDate(A15)</f>
-        <v>43132</v>
+        <v>43435</v>
       </c>
       <c r="D15" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1617,15 +1617,15 @@
       </c>
       <c r="E15" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004273493_Quote</v>
+        <v>IT0004957574_Quote</v>
       </c>
       <c r="F15" s="10">
         <f>_xll.qlQuoteValue(E15,Trigger)</f>
-        <v>111.31</v>
+        <v>107.315</v>
       </c>
       <c r="G15" s="7" t="str">
         <f>_xll.qlBondHelper(,E15,A15,,,Trigger)</f>
-        <v>obj_00d99#0001</v>
+        <v>obj_00a4f#0000</v>
       </c>
       <c r="H15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A15,$H$1)</f>
@@ -1633,26 +1633,26 @@
       </c>
       <c r="I15" s="10">
         <f>_xll.qlBondCleanPrice(A15,H15)</f>
-        <v>111.3099991304348</v>
+        <v>109.89499644808741</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="2"/>
-        <v>-8.6956519851355552E-7</v>
+        <v>2.5799964480874138</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="str">
-        <v>IT0004907843</v>
+        <v>IT0003493258</v>
       </c>
       <c r="B16" s="8" t="str">
         <f>_xll.qlBondDescription(A16)</f>
-        <v>BTP 2018-06-01 3.5%</v>
+        <v>BTP 2019-02-01 4.25%</v>
       </c>
       <c r="C16" s="11">
         <f>_xll.qlBondMaturityDate(A16)</f>
-        <v>43252</v>
+        <v>43497</v>
       </c>
       <c r="D16" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1660,15 +1660,15 @@
       </c>
       <c r="E16" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004907843_Quote</v>
+        <v>IT0003493258_Quote</v>
       </c>
       <c r="F16" s="10">
         <f>_xll.qlQuoteValue(E16,Trigger)</f>
-        <v>108.65</v>
+        <v>110.795</v>
       </c>
       <c r="G16" s="7" t="str">
         <f>_xll.qlBondHelper(,E16,A16,,,Trigger)</f>
-        <v>obj_00da9#0001</v>
+        <v>obj_00a69#0000</v>
       </c>
       <c r="H16" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A16,$H$1)</f>
@@ -1676,26 +1676,26 @@
       </c>
       <c r="I16" s="10">
         <f>_xll.qlBondCleanPrice(A16,H16)</f>
-        <v>108.65000349726776</v>
+        <v>112.68499847826087</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="2"/>
-        <v>3.4972677553923859E-6</v>
+        <v>1.8899984782608641</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="str">
-        <v>IT0004361041</v>
+        <v>IT0004423957</v>
       </c>
       <c r="B17" s="8" t="str">
         <f>_xll.qlBondDescription(A17)</f>
-        <v>BTP 2018-08-01 4.5%</v>
+        <v>BTP 2019-03-01 4.5%</v>
       </c>
       <c r="C17" s="11">
         <f>_xll.qlBondMaturityDate(A17)</f>
-        <v>43313</v>
+        <v>43525</v>
       </c>
       <c r="D17" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1703,15 +1703,15 @@
       </c>
       <c r="E17" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004361041_Quote</v>
+        <v>IT0004423957_Quote</v>
       </c>
       <c r="F17" s="10">
         <f>_xll.qlQuoteValue(E17,Trigger)</f>
-        <v>112.65</v>
+        <v>108.11500000000001</v>
       </c>
       <c r="G17" s="7" t="str">
         <f>_xll.qlBondHelper(,E17,A17,,,Trigger)</f>
-        <v>obj_00db7#0001</v>
+        <v>obj_00a55#0000</v>
       </c>
       <c r="H17" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A17,$H$1)</f>
@@ -1719,26 +1719,26 @@
       </c>
       <c r="I17" s="10">
         <f>_xll.qlBondCleanPrice(A17,H17)</f>
-        <v>112.64999913043479</v>
+        <v>113.77999604395606</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="2"/>
-        <v>-8.6956521272441023E-7</v>
+        <v>5.6649960439560516</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="str">
-        <v>IT0004957574</v>
+        <v>IT0004992308</v>
       </c>
       <c r="B18" s="8" t="str">
         <f>_xll.qlBondDescription(A18)</f>
-        <v>BTP 2018-12-01 3.5%</v>
+        <v>BTP 2019-05-01 2.5%</v>
       </c>
       <c r="C18" s="11">
         <f>_xll.qlBondMaturityDate(A18)</f>
-        <v>43435</v>
+        <v>43586</v>
       </c>
       <c r="D18" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1746,15 +1746,15 @@
       </c>
       <c r="E18" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004957574_Quote</v>
+        <v>IT0004992308_Quote</v>
       </c>
       <c r="F18" s="10">
         <f>_xll.qlQuoteValue(E18,Trigger)</f>
-        <v>109.6</v>
+        <v>112.18</v>
       </c>
       <c r="G18" s="7" t="str">
         <f>_xll.qlBondHelper(,E18,A18,,,Trigger)</f>
-        <v>obj_00d89#0001</v>
+        <v>obj_00a45#0000</v>
       </c>
       <c r="H18" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A18,$H$1)</f>
@@ -1762,11 +1762,11 @@
       </c>
       <c r="I18" s="10">
         <f>_xll.qlBondCleanPrice(A18,H18)</f>
-        <v>109.60000349726775</v>
+        <v>107.31000086956521</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="2"/>
-        <v>3.4972677553923859E-6</v>
+        <v>-4.8699991304347918</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1774,15 +1774,15 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="str">
-        <v>IT0003493258</v>
+        <v>IT0005030504</v>
       </c>
       <c r="B19" s="8" t="str">
         <f>_xll.qlBondDescription(A19)</f>
-        <v>BTP 2019-02-01 4.25%</v>
+        <v>BTP 2019-08-01 1.5%</v>
       </c>
       <c r="C19" s="11">
         <f>_xll.qlBondMaturityDate(A19)</f>
-        <v>43497</v>
+        <v>43678</v>
       </c>
       <c r="D19" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1790,15 +1790,15 @@
       </c>
       <c r="E19" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0003493258_Quote</v>
+        <v>IT0005030504_Quote</v>
       </c>
       <c r="F19" s="10">
         <f>_xll.qlQuoteValue(E19,Trigger)</f>
-        <v>112.97499999999999</v>
+        <v>109.16</v>
       </c>
       <c r="G19" s="7" t="str">
         <f>_xll.qlBondHelper(,E19,A19,,,Trigger)</f>
-        <v>obj_00dad#0001</v>
+        <v>obj_00a7b#0000</v>
       </c>
       <c r="H19" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A19,$H$1)</f>
@@ -1806,11 +1806,11 @@
       </c>
       <c r="I19" s="10">
         <f>_xll.qlBondCleanPrice(A19,H19)</f>
-        <v>112.97500195652174</v>
+        <v>103.75499652173913</v>
       </c>
       <c r="J19" s="10">
         <f t="shared" si="2"/>
-        <v>1.9565217428407777E-6</v>
+        <v>-5.4050034782608662</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1818,15 +1818,15 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="str">
-        <v>IT0004423957</v>
+        <v>IT0004489610</v>
       </c>
       <c r="B20" s="8" t="str">
         <f>_xll.qlBondDescription(A20)</f>
-        <v>BTP 2019-03-01 4.5%</v>
+        <v>BTP 2019-09-01 4.25%</v>
       </c>
       <c r="C20" s="11">
         <f>_xll.qlBondMaturityDate(A20)</f>
-        <v>43525</v>
+        <v>43709</v>
       </c>
       <c r="D20" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1834,15 +1834,15 @@
       </c>
       <c r="E20" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004423957_Quote</v>
+        <v>IT0004489610_Quote</v>
       </c>
       <c r="F20" s="10">
         <f>_xll.qlQuoteValue(E20,Trigger)</f>
-        <v>114.28</v>
+        <v>112.50999999999999</v>
       </c>
       <c r="G20" s="7" t="str">
         <f>_xll.qlBondHelper(,E20,A20,,,Trigger)</f>
-        <v>obj_00dba#0001</v>
+        <v>obj_00a48#0000</v>
       </c>
       <c r="H20" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A20,$H$1)</f>
@@ -1850,26 +1850,26 @@
       </c>
       <c r="I20" s="10">
         <f>_xll.qlBondCleanPrice(A20,H20)</f>
-        <v>114.27999696132596</v>
+        <v>114.35999626373625</v>
       </c>
       <c r="J20" s="10">
         <f t="shared" si="2"/>
-        <v>-3.0386740377252863E-6</v>
+        <v>1.8499962637362586</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="str">
-        <v>IT0004992308</v>
+        <v>IT0005069395</v>
       </c>
       <c r="B21" s="8" t="str">
         <f>_xll.qlBondDescription(A21)</f>
-        <v>BTP 2019-05-01 2.5%</v>
+        <v>BTP 2019-12-01 1.05%</v>
       </c>
       <c r="C21" s="11">
         <f>_xll.qlBondMaturityDate(A21)</f>
-        <v>43586</v>
+        <v>43800</v>
       </c>
       <c r="D21" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1877,15 +1877,15 @@
       </c>
       <c r="E21" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004992308_Quote</v>
+        <v>IT0005069395_Quote</v>
       </c>
       <c r="F21" s="10">
         <f>_xll.qlQuoteValue(E21,Trigger)</f>
-        <v>105.66</v>
+        <v>113.78</v>
       </c>
       <c r="G21" s="7" t="str">
         <f>_xll.qlBondHelper(,E21,A21,,,Trigger)</f>
-        <v>obj_00d9e#0001</v>
+        <v>obj_00a7a#0000</v>
       </c>
       <c r="H21" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A21,$H$1)</f>
@@ -1893,26 +1893,26 @@
       </c>
       <c r="I21" s="10">
         <f>_xll.qlBondCleanPrice(A21,H21)</f>
-        <v>105.66000173913044</v>
+        <v>101.90500393442625</v>
       </c>
       <c r="J21" s="10">
         <f t="shared" si="2"/>
-        <v>1.7391304396596752E-6</v>
+        <v>-11.874996065573754</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="str">
-        <v>IT0005030504</v>
+        <v>IT0003644769</v>
       </c>
       <c r="B22" s="8" t="str">
         <f>_xll.qlBondDescription(A22)</f>
-        <v>BTP 2019-08-01 1.5%</v>
+        <v>BTP 2020-02-01 4.5%</v>
       </c>
       <c r="C22" s="11">
         <f>_xll.qlBondMaturityDate(A22)</f>
-        <v>43678</v>
+        <v>43862</v>
       </c>
       <c r="D22" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1920,15 +1920,15 @@
       </c>
       <c r="E22" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005030504_Quote</v>
+        <v>IT0003644769_Quote</v>
       </c>
       <c r="F22" s="10">
         <f>_xll.qlQuoteValue(E22,Trigger)</f>
-        <v>101.03</v>
+        <v>105.21000000000001</v>
       </c>
       <c r="G22" s="7" t="str">
         <f>_xll.qlBondHelper(,E22,A22,,,Trigger)</f>
-        <v>obj_00dab#0001</v>
+        <v>obj_00a65#0000</v>
       </c>
       <c r="H22" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A22,$H$1)</f>
@@ -1936,26 +1936,26 @@
       </c>
       <c r="I22" s="10">
         <f>_xll.qlBondCleanPrice(A22,H22)</f>
-        <v>101.03000304347826</v>
+        <v>116.50999956521734</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="2"/>
-        <v>3.0434782587462905E-6</v>
+        <v>11.299999565217334</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="str">
-        <v>IT0004489610</v>
+        <v>IT0004536949</v>
       </c>
       <c r="B23" s="8" t="str">
         <f>_xll.qlBondDescription(A23)</f>
-        <v>BTP 2019-09-01 4.25%</v>
+        <v>BTP 2020-03-01 4.25%</v>
       </c>
       <c r="C23" s="11">
         <f>_xll.qlBondMaturityDate(A23)</f>
-        <v>43709</v>
+        <v>43891</v>
       </c>
       <c r="D23" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1963,15 +1963,15 @@
       </c>
       <c r="E23" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004489610_Quote</v>
+        <v>IT0004536949_Quote</v>
       </c>
       <c r="F23" s="10">
         <f>_xll.qlQuoteValue(E23,Trigger)</f>
-        <v>114.08</v>
+        <v>100.63</v>
       </c>
       <c r="G23" s="7" t="str">
         <f>_xll.qlBondHelper(,E23,A23,,,Trigger)</f>
-        <v>obj_00d9b#0001</v>
+        <v>obj_00a6d#0000</v>
       </c>
       <c r="H23" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A23,$H$1)</f>
@@ -1979,26 +1979,26 @@
       </c>
       <c r="I23" s="10">
         <f>_xll.qlBondCleanPrice(A23,H23)</f>
-        <v>114.07999657458565</v>
+        <v>115.71999626373626</v>
       </c>
       <c r="J23" s="10">
         <f t="shared" si="2"/>
-        <v>-3.4254143486123212E-6</v>
+        <v>15.089996263736268</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="str">
-        <v>IT0003644769</v>
+        <v>IT0005107708</v>
       </c>
       <c r="B24" s="8" t="str">
         <f>_xll.qlBondDescription(A24)</f>
-        <v>BTP 2020-02-01 4.5%</v>
+        <v>BTP 2020-05-01 0.7%</v>
       </c>
       <c r="C24" s="11">
         <f>_xll.qlBondMaturityDate(A24)</f>
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="D24" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2006,15 +2006,15 @@
       </c>
       <c r="E24" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0003644769_Quote</v>
+        <v>IT0005107708_Quote</v>
       </c>
       <c r="F24" s="10">
         <f>_xll.qlQuoteValue(E24,Trigger)</f>
-        <v>115.82</v>
+        <v>113.55500000000001</v>
       </c>
       <c r="G24" s="7" t="str">
         <f>_xll.qlBondHelper(,E24,A24,,,Trigger)</f>
-        <v>obj_00d8a#0001</v>
+        <v>obj_00a54#0000</v>
       </c>
       <c r="H24" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A24,$H$1)</f>
@@ -2022,26 +2022,26 @@
       </c>
       <c r="I24" s="10">
         <f>_xll.qlBondCleanPrice(A24,H24)</f>
-        <v>115.81999913043475</v>
+        <v>100.09000304347828</v>
       </c>
       <c r="J24" s="10">
         <f t="shared" si="2"/>
-        <v>-8.6956524114611966E-7</v>
+        <v>-13.46499695652173</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="str">
-        <v>IT0004536949</v>
+        <v>IT0004594930</v>
       </c>
       <c r="B25" s="8" t="str">
         <f>_xll.qlBondDescription(A25)</f>
-        <v>BTP 2020-03-01 4.25%</v>
+        <v>BTP 2020-09-01 4%</v>
       </c>
       <c r="C25" s="11">
         <f>_xll.qlBondMaturityDate(A25)</f>
-        <v>43891</v>
+        <v>44075</v>
       </c>
       <c r="D25" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2049,15 +2049,15 @@
       </c>
       <c r="E25" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004536949_Quote</v>
+        <v>IT0004594930_Quote</v>
       </c>
       <c r="F25" s="10">
         <f>_xll.qlQuoteValue(E25,Trigger)</f>
-        <v>114.7</v>
+        <v>115.31</v>
       </c>
       <c r="G25" s="7" t="str">
         <f>_xll.qlBondHelper(,E25,A25,,,Trigger)</f>
-        <v>obj_00d94#0001</v>
+        <v>obj_00a58#0000</v>
       </c>
       <c r="H25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A25,$H$1)</f>
@@ -2065,26 +2065,26 @@
       </c>
       <c r="I25" s="10">
         <f>_xll.qlBondCleanPrice(A25,H25)</f>
-        <v>114.69999657458564</v>
+        <v>115.59499648351647</v>
       </c>
       <c r="J25" s="10">
         <f t="shared" si="2"/>
-        <v>-3.4254143628231759E-6</v>
+        <v>0.28499648351646556</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="str">
-        <v>IT0004594930</v>
+        <v>IT0004634132</v>
       </c>
       <c r="B26" s="8" t="str">
         <f>_xll.qlBondDescription(A26)</f>
-        <v>BTP 2020-09-01 4%</v>
+        <v>BTP 2021-03-01 3.75%</v>
       </c>
       <c r="C26" s="11">
         <f>_xll.qlBondMaturityDate(A26)</f>
-        <v>44075</v>
+        <v>44256</v>
       </c>
       <c r="D26" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2092,15 +2092,15 @@
       </c>
       <c r="E26" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004594930_Quote</v>
+        <v>IT0004634132_Quote</v>
       </c>
       <c r="F26" s="10">
         <f>_xll.qlQuoteValue(E26,Trigger)</f>
-        <v>113.745</v>
+        <v>114.125</v>
       </c>
       <c r="G26" s="7" t="str">
         <f>_xll.qlBondHelper(,E26,A26,,,Trigger)</f>
-        <v>obj_00da3#0001</v>
+        <v>obj_00a4b#0000</v>
       </c>
       <c r="H26" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A26,$H$1)</f>
@@ -2108,26 +2108,26 @@
       </c>
       <c r="I26" s="10">
         <f>_xll.qlBondCleanPrice(A26,H26)</f>
-        <v>113.74499618784532</v>
+        <v>115.01999670329671</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="2"/>
-        <v>-3.8121546879210655E-6</v>
+        <v>0.89499670329671233</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="str">
-        <v>IT0004634132</v>
+        <v>IT0004966401</v>
       </c>
       <c r="B27" s="8" t="str">
         <f>_xll.qlBondDescription(A27)</f>
-        <v>BTP 2021-03-01 3.75%</v>
+        <v>BTP 2021-05-01 3.75%</v>
       </c>
       <c r="C27" s="11">
         <f>_xll.qlBondMaturityDate(A27)</f>
-        <v>44256</v>
+        <v>44317</v>
       </c>
       <c r="D27" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2135,15 +2135,15 @@
       </c>
       <c r="E27" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004634132_Quote</v>
+        <v>IT0004966401_Quote</v>
       </c>
       <c r="F27" s="10">
         <f>_xll.qlQuoteValue(E27,Trigger)</f>
-        <v>112.38</v>
+        <v>113.185</v>
       </c>
       <c r="G27" s="7" t="str">
         <f>_xll.qlBondHelper(,E27,A27,,,Trigger)</f>
-        <v>obj_00d8b#0001</v>
+        <v>obj_00a71#0000</v>
       </c>
       <c r="H27" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A27,$H$1)</f>
@@ -2151,26 +2151,26 @@
       </c>
       <c r="I27" s="10">
         <f>_xll.qlBondCleanPrice(A27,H27)</f>
-        <v>112.37999580110495</v>
+        <v>115.15999630434783</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="2"/>
-        <v>-4.1988950414406645E-6</v>
+        <v>1.974996304347826</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="str">
-        <v>IT0004966401</v>
+        <v>IT0004009673</v>
       </c>
       <c r="B28" s="8" t="str">
         <f>_xll.qlBondDescription(A28)</f>
-        <v>BTP 2021-05-01 3.75%</v>
+        <v>BTP 2021-08-01 3.75%</v>
       </c>
       <c r="C28" s="11">
         <f>_xll.qlBondMaturityDate(A28)</f>
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="D28" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2178,15 +2178,15 @@
       </c>
       <c r="E28" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004966401_Quote</v>
+        <v>IT0004009673_Quote</v>
       </c>
       <c r="F28" s="10">
         <f>_xll.qlQuoteValue(E28,Trigger)</f>
-        <v>112.06</v>
+        <v>111.78</v>
       </c>
       <c r="G28" s="7" t="str">
         <f>_xll.qlBondHelper(,E28,A28,,,Trigger)</f>
-        <v>obj_00da1#0001</v>
+        <v>obj_00a51#0000</v>
       </c>
       <c r="H28" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A28,$H$1)</f>
@@ -2194,26 +2194,26 @@
       </c>
       <c r="I28" s="10">
         <f>_xll.qlBondCleanPrice(A28,H28)</f>
-        <v>112.05999760869565</v>
+        <v>115.36499630434786</v>
       </c>
       <c r="J28" s="10">
         <f t="shared" si="2"/>
-        <v>-2.3913043492029828E-6</v>
+        <v>3.5849963043478539</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="str">
-        <v>IT0004009673</v>
+        <v>IT0004695075</v>
       </c>
       <c r="B29" s="8" t="str">
         <f>_xll.qlBondDescription(A29)</f>
-        <v>BTP 2021-08-01 3.75%</v>
+        <v>BTP 2021-09-01 4.75%</v>
       </c>
       <c r="C29" s="11">
         <f>_xll.qlBondMaturityDate(A29)</f>
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="D29" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2221,15 +2221,15 @@
       </c>
       <c r="E29" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004009673_Quote</v>
+        <v>IT0004695075_Quote</v>
       </c>
       <c r="F29" s="10">
         <f>_xll.qlQuoteValue(E29,Trigger)</f>
-        <v>112.11</v>
+        <v>111.42</v>
       </c>
       <c r="G29" s="7" t="str">
         <f>_xll.qlBondHelper(,E29,A29,,,Trigger)</f>
-        <v>obj_00d9a#0001</v>
+        <v>obj_00a64#0000</v>
       </c>
       <c r="H29" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A29,$H$1)</f>
@@ -2237,26 +2237,26 @@
       </c>
       <c r="I29" s="10">
         <f>_xll.qlBondCleanPrice(A29,H29)</f>
-        <v>112.10999760869568</v>
+        <v>121.16999582417584</v>
       </c>
       <c r="J29" s="10">
         <f t="shared" si="2"/>
-        <v>-2.3913043207812734E-6</v>
+        <v>9.7499958241758407</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <v>IT0004695075</v>
+        <v>IT0005028003</v>
       </c>
       <c r="B30" s="8" t="str">
         <f>_xll.qlBondDescription(A30)</f>
-        <v>BTP 2021-09-01 4.75%</v>
+        <v>BTP 2021-12-15 2.15%</v>
       </c>
       <c r="C30" s="11">
         <f>_xll.qlBondMaturityDate(A30)</f>
-        <v>44440</v>
+        <v>44545</v>
       </c>
       <c r="D30" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2264,15 +2264,15 @@
       </c>
       <c r="E30" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004695075_Quote</v>
+        <v>IT0005028003_Quote</v>
       </c>
       <c r="F30" s="10">
         <f>_xll.qlQuoteValue(E30,Trigger)</f>
-        <v>118.535</v>
+        <v>111.435</v>
       </c>
       <c r="G30" s="7" t="str">
         <f>_xll.qlBondHelper(,E30,A30,,,Trigger)</f>
-        <v>obj_00d91#0001</v>
+        <v>obj_00a67#0000</v>
       </c>
       <c r="H30" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A30,$H$1)</f>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="I30" s="10">
         <f>_xll.qlBondCleanPrice(A30,H30)</f>
-        <v>118.53499734806628</v>
+        <v>106.27999666666669</v>
       </c>
       <c r="J30" s="10">
         <f t="shared" si="2"/>
-        <v>-2.6519337126273967E-6</v>
+        <v>-5.1550033333333118</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <v>IT0005028003</v>
+        <v>IT0004759673</v>
       </c>
       <c r="B31" s="8" t="str">
         <f>_xll.qlBondDescription(A31)</f>
-        <v>BTP 2021-12-15 2.15%</v>
+        <v>BTP 2022-03-01 5%</v>
       </c>
       <c r="C31" s="11">
         <f>_xll.qlBondMaturityDate(A31)</f>
-        <v>44545</v>
+        <v>44621</v>
       </c>
       <c r="D31" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2305,15 +2305,15 @@
       </c>
       <c r="E31" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005028003_Quote</v>
+        <v>IT0004759673_Quote</v>
       </c>
       <c r="F31" s="10">
         <f>_xll.qlQuoteValue(E31,Trigger)</f>
-        <v>101.465</v>
+        <v>117.82</v>
       </c>
       <c r="G31" s="7" t="str">
         <f>_xll.qlBondHelper(,E31,A31,,,Trigger)</f>
-        <v>obj_00da0#0001</v>
+        <v>obj_00a5e#0000</v>
       </c>
       <c r="H31" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A31,$H$1)</f>
@@ -2321,24 +2321,24 @@
       </c>
       <c r="I31" s="10">
         <f>_xll.qlBondCleanPrice(A31,H31)</f>
-        <v>101.46500256830601</v>
+        <v>123.88499560439558</v>
       </c>
       <c r="J31" s="10">
         <f t="shared" si="2"/>
-        <v>2.5683060016490344E-6</v>
+        <v>6.064995604395591</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <v>IT0004759673</v>
+        <v>IT0005086886</v>
       </c>
       <c r="B32" s="8" t="str">
         <f>_xll.qlBondDescription(A32)</f>
-        <v>BTP 2022-03-01 5%</v>
+        <v>BTP 2022-04-15 1.35%</v>
       </c>
       <c r="C32" s="11">
         <f>_xll.qlBondMaturityDate(A32)</f>
-        <v>44621</v>
+        <v>44666</v>
       </c>
       <c r="D32" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2346,15 +2346,15 @@
       </c>
       <c r="E32" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004759673_Quote</v>
+        <v>IT0005086886_Quote</v>
       </c>
       <c r="F32" s="10">
         <f>_xll.qlQuoteValue(E32,Trigger)</f>
-        <v>120.37</v>
+        <v>100.80500000000001</v>
       </c>
       <c r="G32" s="7" t="str">
         <f>_xll.qlBondHelper(,E32,A32,,,Trigger)</f>
-        <v>obj_00d9c#0001</v>
+        <v>obj_00a53#0000</v>
       </c>
       <c r="H32" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A32,$H$1)</f>
@@ -2362,11 +2362,11 @@
       </c>
       <c r="I32" s="10">
         <f>_xll.qlBondCleanPrice(A32,H32)</f>
-        <v>120.36999773480662</v>
+        <v>101.17500000000001</v>
       </c>
       <c r="J32" s="10">
         <f t="shared" si="2"/>
-        <v>-2.2651933875295072E-6</v>
+        <v>0.37000000000000455</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2391,11 +2391,11 @@
       </c>
       <c r="F33" s="10">
         <f>_xll.qlQuoteValue(E33,Trigger)</f>
-        <v>124.13499999999999</v>
+        <v>119.69499999999999</v>
       </c>
       <c r="G33" s="7" t="str">
         <f>_xll.qlBondHelper(,E33,A33,,,Trigger)</f>
-        <v>obj_00daa#0001</v>
+        <v>obj_00a6a#0000</v>
       </c>
       <c r="H33" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A33,$H$1)</f>
@@ -2403,24 +2403,24 @@
       </c>
       <c r="I33" s="10">
         <f>_xll.qlBondCleanPrice(A33,H33)</f>
-        <v>124.13499850828731</v>
+        <v>128.02499516483519</v>
       </c>
       <c r="J33" s="10">
         <f t="shared" si="2"/>
-        <v>-1.4917126804903091E-6</v>
+        <v>8.3299951648351964</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <v>IT0004848831</v>
+        <v>IT0005135840</v>
       </c>
       <c r="B34" s="8" t="str">
         <f>_xll.qlBondDescription(A34)</f>
-        <v>BTP 2022-11-01 5.5%</v>
+        <v>BTP 2022-09-15 1.45%</v>
       </c>
       <c r="C34" s="11">
         <f>_xll.qlBondMaturityDate(A34)</f>
-        <v>44866</v>
+        <v>44819</v>
       </c>
       <c r="D34" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2428,15 +2428,15 @@
       </c>
       <c r="E34" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004848831_Quote</v>
+        <v>IT0005135840_Quote</v>
       </c>
       <c r="F34" s="10">
         <f>_xll.qlQuoteValue(E34,Trigger)</f>
-        <v>124.11500000000001</v>
+        <v>123.35499999999999</v>
       </c>
       <c r="G34" s="7" t="str">
         <f>_xll.qlBondHelper(,E34,A34,,,Trigger)</f>
-        <v>obj_00d93#0001</v>
+        <v>obj_00a5f#0000</v>
       </c>
       <c r="H34" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A34,$H$1)</f>
@@ -2444,24 +2444,24 @@
       </c>
       <c r="I34" s="10">
         <f>_xll.qlBondCleanPrice(A34,H34)</f>
-        <v>124.11499782608696</v>
+        <v>101.14999549450549</v>
       </c>
       <c r="J34" s="10">
         <f t="shared" si="2"/>
-        <v>-2.1739130460218803E-6</v>
+        <v>-22.2050045054945</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
-        <v>IT0004898034</v>
+        <v>IT0004848831</v>
       </c>
       <c r="B35" s="8" t="str">
         <f>_xll.qlBondDescription(A35)</f>
-        <v>BTP 2023-05-01 4.5%</v>
+        <v>BTP 2022-11-01 5.5%</v>
       </c>
       <c r="C35" s="11">
         <f>_xll.qlBondMaturityDate(A35)</f>
-        <v>45047</v>
+        <v>44866</v>
       </c>
       <c r="D35" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2469,15 +2469,15 @@
       </c>
       <c r="E35" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004898034_Quote</v>
+        <v>IT0004848831_Quote</v>
       </c>
       <c r="F35" s="10">
         <f>_xll.qlQuoteValue(E35,Trigger)</f>
-        <v>117.045</v>
+        <v>123.295</v>
       </c>
       <c r="G35" s="7" t="str">
         <f>_xll.qlBondHelper(,E35,A35,,,Trigger)</f>
-        <v>obj_00db6#0001</v>
+        <v>obj_00a6b#0000</v>
       </c>
       <c r="H35" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A35,$H$1)</f>
@@ -2485,24 +2485,24 @@
       </c>
       <c r="I35" s="10">
         <f>_xll.qlBondCleanPrice(A35,H35)</f>
-        <v>117.0449991304348</v>
+        <v>128.21500391304346</v>
       </c>
       <c r="J35" s="10">
         <f t="shared" si="2"/>
-        <v>-8.6956519851355552E-7</v>
+        <v>4.920003913043459</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <v>IT0004356843</v>
+        <v>IT0004898034</v>
       </c>
       <c r="B36" s="8" t="str">
         <f>_xll.qlBondDescription(A36)</f>
-        <v>BTP 2023-08-01 4.75%</v>
+        <v>BTP 2023-05-01 4.5%</v>
       </c>
       <c r="C36" s="11">
         <f>_xll.qlBondMaturityDate(A36)</f>
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="D36" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2510,15 +2510,15 @@
       </c>
       <c r="E36" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004356843_Quote</v>
+        <v>IT0004898034_Quote</v>
       </c>
       <c r="F36" s="10">
         <f>_xll.qlQuoteValue(E36,Trigger)</f>
-        <v>119.28</v>
+        <v>116.22</v>
       </c>
       <c r="G36" s="7" t="str">
         <f>_xll.qlBondHelper(,E36,A36,,,Trigger)</f>
-        <v>obj_00daf#0001</v>
+        <v>obj_00a5c#0000</v>
       </c>
       <c r="H36" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A36,$H$1)</f>
@@ -2526,24 +2526,24 @@
       </c>
       <c r="I36" s="10">
         <f>_xll.qlBondCleanPrice(A36,H36)</f>
-        <v>119.27999630434782</v>
+        <v>122.3499995652174</v>
       </c>
       <c r="J36" s="10">
         <f t="shared" si="2"/>
-        <v>-3.6956521825004529E-6</v>
+        <v>6.1299995652174033</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
-        <v>IT0000366655</v>
+        <v>IT0004356843</v>
       </c>
       <c r="B37" s="8" t="str">
         <f>_xll.qlBondDescription(A37)</f>
-        <v>BTP 2023-11-01 9%</v>
+        <v>BTP 2023-08-01 4.75%</v>
       </c>
       <c r="C37" s="11">
         <f>_xll.qlBondMaturityDate(A37)</f>
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="D37" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E37" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0000366655_Quote</v>
+        <v>IT0004356843_Quote</v>
       </c>
       <c r="F37" s="10">
         <f>_xll.qlQuoteValue(E37,Trigger)</f>
-        <v>154.63999999999999</v>
+        <v>118.465</v>
       </c>
       <c r="G37" s="7" t="str">
         <f>_xll.qlBondHelper(,E37,A37,,,Trigger)</f>
-        <v>obj_00db5#0001</v>
+        <v>obj_00a75#0000</v>
       </c>
       <c r="H37" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A37,$H$1)</f>
@@ -2567,24 +2567,24 @@
       </c>
       <c r="I37" s="10">
         <f>_xll.qlBondCleanPrice(A37,H37)</f>
-        <v>154.63999826086956</v>
+        <v>124.62000065217393</v>
       </c>
       <c r="J37" s="10">
         <f t="shared" si="2"/>
-        <v>-1.7391304254488205E-6</v>
+        <v>6.1550006521739249</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
-        <v>IT0004953417</v>
+        <v>IT0000366655</v>
       </c>
       <c r="B38" s="8" t="str">
         <f>_xll.qlBondDescription(A38)</f>
-        <v>BTP 2024-03-01 4.5%</v>
+        <v>BTP 2023-11-01 9%</v>
       </c>
       <c r="C38" s="11">
         <f>_xll.qlBondMaturityDate(A38)</f>
-        <v>45352</v>
+        <v>45231</v>
       </c>
       <c r="D38" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2592,15 +2592,15 @@
       </c>
       <c r="E38" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004953417_Quote</v>
+        <v>IT0000366655_Quote</v>
       </c>
       <c r="F38" s="10">
         <f>_xll.qlQuoteValue(E38,Trigger)</f>
-        <v>117.43</v>
+        <v>153.465</v>
       </c>
       <c r="G38" s="7" t="str">
         <f>_xll.qlBondHelper(,E38,A38,,,Trigger)</f>
-        <v>obj_00d92#0001</v>
+        <v>obj_00a72#0000</v>
       </c>
       <c r="H38" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A38,$H$1)</f>
@@ -2608,24 +2608,24 @@
       </c>
       <c r="I38" s="10">
         <f>_xll.qlBondCleanPrice(A38,H38)</f>
-        <v>117.42999696132598</v>
+        <v>157.17499913043477</v>
       </c>
       <c r="J38" s="10">
         <f t="shared" si="2"/>
-        <v>-3.0386740235144316E-6</v>
+        <v>3.7099991304347668</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
-        <v>IT0005001547</v>
+        <v>IT0004953417</v>
       </c>
       <c r="B39" s="8" t="str">
         <f>_xll.qlBondDescription(A39)</f>
-        <v>BTP 2024-09-01 3.75%</v>
+        <v>BTP 2024-03-01 4.5%</v>
       </c>
       <c r="C39" s="11">
         <f>_xll.qlBondMaturityDate(A39)</f>
-        <v>45536</v>
+        <v>45352</v>
       </c>
       <c r="D39" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2633,15 +2633,15 @@
       </c>
       <c r="E39" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005001547_Quote</v>
+        <v>IT0004953417_Quote</v>
       </c>
       <c r="F39" s="10">
         <f>_xll.qlQuoteValue(E39,Trigger)</f>
-        <v>110.77500000000001</v>
+        <v>116.58</v>
       </c>
       <c r="G39" s="7" t="str">
         <f>_xll.qlBondHelper(,E39,A39,,,Trigger)</f>
-        <v>obj_00d86#0001</v>
+        <v>obj_00a57#0000</v>
       </c>
       <c r="H39" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A39,$H$1)</f>
@@ -2649,24 +2649,24 @@
       </c>
       <c r="I39" s="10">
         <f>_xll.qlBondCleanPrice(A39,H39)</f>
-        <v>110.77499580110496</v>
+        <v>123.16499604395608</v>
       </c>
       <c r="J39" s="10">
         <f t="shared" si="2"/>
-        <v>-4.1988950414406645E-6</v>
+        <v>6.5849960439560817</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
-        <v>IT0005045270</v>
+        <v>IT0005001547</v>
       </c>
       <c r="B40" s="8" t="str">
         <f>_xll.qlBondDescription(A40)</f>
-        <v>BTP 2024-12-01 2.5%</v>
+        <v>BTP 2024-09-01 3.75%</v>
       </c>
       <c r="C40" s="11">
         <f>_xll.qlBondMaturityDate(A40)</f>
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="D40" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2674,15 +2674,15 @@
       </c>
       <c r="E40" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005045270_Quote</v>
+        <v>IT0005001547_Quote</v>
       </c>
       <c r="F40" s="10">
         <f>_xll.qlQuoteValue(E40,Trigger)</f>
-        <v>100.315</v>
+        <v>109.91</v>
       </c>
       <c r="G40" s="7" t="str">
         <f>_xll.qlBondHelper(,E40,A40,,,Trigger)</f>
-        <v>obj_00d95#0001</v>
+        <v>obj_00a43#0000</v>
       </c>
       <c r="H40" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A40,$H$1)</f>
@@ -2690,24 +2690,24 @@
       </c>
       <c r="I40" s="10">
         <f>_xll.qlBondCleanPrice(A40,H40)</f>
-        <v>100.31500005464478</v>
+        <v>117.6749967032967</v>
       </c>
       <c r="J40" s="10">
         <f t="shared" si="2"/>
-        <v>5.4644786473545537E-8</v>
+        <v>7.7649967032967027</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
-        <v>IT0004513641</v>
+        <v>IT0005045270</v>
       </c>
       <c r="B41" s="8" t="str">
         <f>_xll.qlBondDescription(A41)</f>
-        <v>BTP 2025-03-01 5%</v>
+        <v>BTP 2024-12-01 2.5%</v>
       </c>
       <c r="C41" s="11">
         <f>_xll.qlBondMaturityDate(A41)</f>
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="D41" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2715,15 +2715,15 @@
       </c>
       <c r="E41" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004513641_Quote</v>
+        <v>IT0005045270_Quote</v>
       </c>
       <c r="F41" s="10">
         <f>_xll.qlQuoteValue(E41,Trigger)</f>
-        <v>121.55</v>
+        <v>99.37</v>
       </c>
       <c r="G41" s="7" t="str">
         <f>_xll.qlBondHelper(,E41,A41,,,Trigger)</f>
-        <v>obj_00d98#0001</v>
+        <v>obj_00a66#0000</v>
       </c>
       <c r="H41" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A41,$H$1)</f>
@@ -2731,24 +2731,24 @@
       </c>
       <c r="I41" s="10">
         <f>_xll.qlBondCleanPrice(A41,H41)</f>
-        <v>121.54999773480661</v>
+        <v>107.36500174863387</v>
       </c>
       <c r="J41" s="10">
         <f t="shared" si="2"/>
-        <v>-2.2651933875295072E-6</v>
+        <v>7.995001748633868</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
-        <v>IT0004644735</v>
+        <v>IT0004513641</v>
       </c>
       <c r="B42" s="8" t="str">
         <f>_xll.qlBondDescription(A42)</f>
-        <v>BTP 2026-03-01 4.5%</v>
+        <v>BTP 2025-03-01 5%</v>
       </c>
       <c r="C42" s="11">
         <f>_xll.qlBondMaturityDate(A42)</f>
-        <v>46082</v>
+        <v>45717</v>
       </c>
       <c r="D42" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2756,15 +2756,15 @@
       </c>
       <c r="E42" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004644735_Quote</v>
+        <v>IT0004513641_Quote</v>
       </c>
       <c r="F42" s="10">
         <f>_xll.qlQuoteValue(E42,Trigger)</f>
-        <v>116.72999999999999</v>
+        <v>120.565</v>
       </c>
       <c r="G42" s="7" t="str">
         <f>_xll.qlBondHelper(,E42,A42,,,Trigger)</f>
-        <v>obj_00da8#0001</v>
+        <v>obj_00a74#0000</v>
       </c>
       <c r="H42" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A42,$H$1)</f>
@@ -2772,24 +2772,24 @@
       </c>
       <c r="I42" s="10">
         <f>_xll.qlBondCleanPrice(A42,H42)</f>
-        <v>116.72999696132598</v>
+        <v>129.01999560439563</v>
       </c>
       <c r="J42" s="10">
         <f t="shared" si="2"/>
-        <v>-3.0386740093035769E-6</v>
+        <v>8.4549956043956342</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <v>IT0001086567</v>
+        <v>IT0005090318</v>
       </c>
       <c r="B43" s="8" t="str">
         <f>_xll.qlBondDescription(A43)</f>
-        <v>BTP 2026-11-01 7.25%</v>
+        <v>BTP 2025-06-01 1.5%</v>
       </c>
       <c r="C43" s="11">
         <f>_xll.qlBondMaturityDate(A43)</f>
-        <v>46327</v>
+        <v>45809</v>
       </c>
       <c r="D43" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2797,15 +2797,15 @@
       </c>
       <c r="E43" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0001086567_Quote</v>
+        <v>IT0005090318_Quote</v>
       </c>
       <c r="F43" s="10">
         <f>_xll.qlQuoteValue(E43,Trigger)</f>
-        <v>145.16</v>
+        <v>115.81</v>
       </c>
       <c r="G43" s="7" t="str">
         <f>_xll.qlBondHelper(,E43,A43,,,Trigger)</f>
-        <v>obj_00db3#0001</v>
+        <v>obj_00a68#0000</v>
       </c>
       <c r="H43" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A43,$H$1)</f>
@@ -2813,24 +2813,24 @@
       </c>
       <c r="I43" s="10">
         <f>_xll.qlBondCleanPrice(A43,H43)</f>
-        <v>145.15999804347828</v>
+        <v>98.664997049180329</v>
       </c>
       <c r="J43" s="10">
         <f t="shared" si="2"/>
-        <v>-1.9565217144190683E-6</v>
+        <v>-17.145002950819674</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
-        <v>IT0001174611</v>
+        <v>IT0005127086</v>
       </c>
       <c r="B44" s="8" t="str">
         <f>_xll.qlBondDescription(A44)</f>
-        <v>BTP 2027-11-01 6.5%</v>
+        <v>BTP 2025-12-01 2%</v>
       </c>
       <c r="C44" s="11">
         <f>_xll.qlBondMaturityDate(A44)</f>
-        <v>46692</v>
+        <v>45992</v>
       </c>
       <c r="D44" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2838,15 +2838,15 @@
       </c>
       <c r="E44" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0001174611_Quote</v>
+        <v>IT0005127086_Quote</v>
       </c>
       <c r="F44" s="10">
         <f>_xll.qlQuoteValue(E44,Trigger)</f>
-        <v>137.98000000000002</v>
+        <v>144.19999999999999</v>
       </c>
       <c r="G44" s="7" t="str">
         <f>_xll.qlBondHelper(,E44,A44,,,Trigger)</f>
-        <v>obj_00d8e#0001</v>
+        <v>obj_00a50#0000</v>
       </c>
       <c r="H44" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A44,$H$1)</f>
@@ -2854,24 +2854,24 @@
       </c>
       <c r="I44" s="10">
         <f>_xll.qlBondCleanPrice(A44,H44)</f>
-        <v>137.9799965217392</v>
+        <v>102.35999715846994</v>
       </c>
       <c r="J44" s="10">
         <f t="shared" si="2"/>
-        <v>-3.4782608224759315E-6</v>
+        <v>-41.840002841530051</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
-        <v>IT0004889033</v>
+        <v>IT0004644735</v>
       </c>
       <c r="B45" s="8" t="str">
         <f>_xll.qlBondDescription(A45)</f>
-        <v>BTP 2028-09-01 4.75%</v>
+        <v>BTP 2026-03-01 4.5%</v>
       </c>
       <c r="C45" s="11">
         <f>_xll.qlBondMaturityDate(A45)</f>
-        <v>46997</v>
+        <v>46082</v>
       </c>
       <c r="D45" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2879,15 +2879,15 @@
       </c>
       <c r="E45" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004889033_Quote</v>
+        <v>IT0004644735_Quote</v>
       </c>
       <c r="F45" s="10">
         <f>_xll.qlQuoteValue(E45,Trigger)</f>
-        <v>118.68</v>
+        <v>137.07999999999998</v>
       </c>
       <c r="G45" s="7" t="str">
         <f>_xll.qlBondHelper(,E45,A45,,,Trigger)</f>
-        <v>obj_00dac#0001</v>
+        <v>obj_00a78#0000</v>
       </c>
       <c r="H45" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A45,$H$1)</f>
@@ -2895,24 +2895,24 @@
       </c>
       <c r="I45" s="10">
         <f>_xll.qlBondCleanPrice(A45,H45)</f>
-        <v>118.67999734806632</v>
+        <v>125.89499604395606</v>
       </c>
       <c r="J45" s="10">
         <f t="shared" si="2"/>
-        <v>-2.6519336842056873E-6</v>
+        <v>-11.185003956043928</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
-        <v>IT0001278511</v>
+        <v>IT0001086567</v>
       </c>
       <c r="B46" s="8" t="str">
         <f>_xll.qlBondDescription(A46)</f>
-        <v>BTP 2029-11-01 5.25%</v>
+        <v>BTP 2026-11-01 7.25%</v>
       </c>
       <c r="C46" s="11">
         <f>_xll.qlBondMaturityDate(A46)</f>
-        <v>47423</v>
+        <v>46327</v>
       </c>
       <c r="D46" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2920,15 +2920,15 @@
       </c>
       <c r="E46" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0001278511_Quote</v>
+        <v>IT0001086567_Quote</v>
       </c>
       <c r="F46" s="10">
         <f>_xll.qlQuoteValue(E46,Trigger)</f>
-        <v>125.065</v>
+        <v>117.80500000000001</v>
       </c>
       <c r="G46" s="7" t="str">
         <f>_xll.qlBondHelper(,E46,A46,,,Trigger)</f>
-        <v>obj_00db9#0001</v>
+        <v>obj_00a4e#0000</v>
       </c>
       <c r="H46" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A46,$H$1)</f>
@@ -2936,24 +2936,24 @@
       </c>
       <c r="I46" s="10">
         <f>_xll.qlBondCleanPrice(A46,H46)</f>
-        <v>125.06500065217398</v>
+        <v>153.92000152173915</v>
       </c>
       <c r="J46" s="10">
         <f t="shared" si="2"/>
-        <v>6.5217398059758125E-7</v>
+        <v>36.115001521739146</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
-        <v>IT0005024234</v>
+        <v>IT0001174611</v>
       </c>
       <c r="B47" s="8" t="str">
         <f>_xll.qlBondDescription(A47)</f>
-        <v>BTP 2030-03-01 3.5%</v>
+        <v>BTP 2027-11-01 6.5%</v>
       </c>
       <c r="C47" s="11">
         <f>_xll.qlBondMaturityDate(A47)</f>
-        <v>47543</v>
+        <v>46692</v>
       </c>
       <c r="D47" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2961,15 +2961,15 @@
       </c>
       <c r="E47" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005024234_Quote</v>
+        <v>IT0001174611_Quote</v>
       </c>
       <c r="F47" s="10">
         <f>_xll.qlQuoteValue(E47,Trigger)</f>
-        <v>104.44</v>
+        <v>124.14500000000001</v>
       </c>
       <c r="G47" s="7" t="str">
         <f>_xll.qlBondHelper(,E47,A47,,,Trigger)</f>
-        <v>obj_00d88#0001</v>
+        <v>obj_00a44#0000</v>
       </c>
       <c r="H47" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A47,$H$1)</f>
@@ -2977,24 +2977,24 @@
       </c>
       <c r="I47" s="10">
         <f>_xll.qlBondCleanPrice(A47,H47)</f>
-        <v>104.43999541436466</v>
+        <v>148.39999826086958</v>
       </c>
       <c r="J47" s="10">
         <f t="shared" si="2"/>
-        <v>-4.5856353381168447E-6</v>
+        <v>24.25499826086957</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
-        <v>IT0001444378</v>
+        <v>IT0004889033</v>
       </c>
       <c r="B48" s="8" t="str">
         <f>_xll.qlBondDescription(A48)</f>
-        <v>BTP 2031-05-01 6%</v>
+        <v>BTP 2028-09-01 4.75%</v>
       </c>
       <c r="C48" s="11">
         <f>_xll.qlBondMaturityDate(A48)</f>
-        <v>47969</v>
+        <v>46997</v>
       </c>
       <c r="D48" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3002,15 +3002,15 @@
       </c>
       <c r="E48" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0001444378_Quote</v>
+        <v>IT0004889033_Quote</v>
       </c>
       <c r="F48" s="10">
         <f>_xll.qlQuoteValue(E48,Trigger)</f>
-        <v>135.64499999999998</v>
+        <v>103.58500000000001</v>
       </c>
       <c r="G48" s="7" t="str">
         <f>_xll.qlBondHelper(,E48,A48,,,Trigger)</f>
-        <v>obj_00d96#0001</v>
+        <v>obj_00a49#0000</v>
       </c>
       <c r="H48" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A48,$H$1)</f>
@@ -3018,24 +3018,24 @@
       </c>
       <c r="I48" s="10">
         <f>_xll.qlBondCleanPrice(A48,H48)</f>
-        <v>135.64500217391429</v>
+        <v>130.77999582417578</v>
       </c>
       <c r="J48" s="10">
         <f t="shared" si="2"/>
-        <v>2.1739143107879499E-6</v>
+        <v>27.194995824175777</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="str">
-        <v>IT0003256820</v>
+        <v>IT0001278511</v>
       </c>
       <c r="B49" s="8" t="str">
         <f>_xll.qlBondDescription(A49)</f>
-        <v>BTP 2033-02-01 5.75%</v>
+        <v>BTP 2029-11-01 5.25%</v>
       </c>
       <c r="C49" s="11">
         <f>_xll.qlBondMaturityDate(A49)</f>
-        <v>48611</v>
+        <v>47423</v>
       </c>
       <c r="D49" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3043,15 +3043,15 @@
       </c>
       <c r="E49" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0003256820_Quote</v>
+        <v>IT0001278511_Quote</v>
       </c>
       <c r="F49" s="10">
         <f>_xll.qlQuoteValue(E49,Trigger)</f>
-        <v>132.995</v>
+        <v>134.625</v>
       </c>
       <c r="G49" s="7" t="str">
         <f>_xll.qlBondHelper(,E49,A49,,,Trigger)</f>
-        <v>obj_00d8c#0001</v>
+        <v>obj_00a62#0000</v>
       </c>
       <c r="H49" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A49,$H$1)</f>
@@ -3059,24 +3059,24 @@
       </c>
       <c r="I49" s="10">
         <f>_xll.qlBondCleanPrice(A49,H49)</f>
-        <v>132.99499500000832</v>
+        <v>138.29500282608703</v>
       </c>
       <c r="J49" s="10">
         <f t="shared" si="2"/>
-        <v>-4.9999916882370599E-6</v>
+        <v>3.6700028260870283</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="str">
-        <v>IT0003535157</v>
+        <v>IT0005024234</v>
       </c>
       <c r="B50" s="8" t="str">
         <f>_xll.qlBondDescription(A50)</f>
-        <v>BTP 2034-08-01 5%</v>
+        <v>BTP 2030-03-01 3.5%</v>
       </c>
       <c r="C50" s="11">
         <f>_xll.qlBondMaturityDate(A50)</f>
-        <v>49157</v>
+        <v>47543</v>
       </c>
       <c r="D50" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3084,15 +3084,15 @@
       </c>
       <c r="E50" s="8" t="str">
         <f t="shared" ref="E50:E70" si="3">A50&amp;$E$1</f>
-        <v>IT0003535157_Quote</v>
+        <v>IT0005024234_Quote</v>
       </c>
       <c r="F50" s="10">
         <f>_xll.qlQuoteValue(E50,Trigger)</f>
-        <v>122.27500000000001</v>
+        <v>132.11500000000001</v>
       </c>
       <c r="G50" s="7" t="str">
         <f>_xll.qlBondHelper(,E50,A50,,,Trigger)</f>
-        <v>obj_00da5#0001</v>
+        <v>obj_00a46#0000</v>
       </c>
       <c r="H50" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A50,$H$1)</f>
@@ -3100,24 +3100,24 @@
       </c>
       <c r="I50" s="10">
         <f>_xll.qlBondCleanPrice(A50,H50)</f>
-        <v>122.27500347826128</v>
+        <v>116.81499692307693</v>
       </c>
       <c r="J50" s="10">
         <f t="shared" si="2"/>
-        <v>3.4782612772232824E-6</v>
+        <v>-15.300003076923076</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="str">
-        <v>IT0003934657</v>
+        <v>IT0001444378</v>
       </c>
       <c r="B51" s="8" t="str">
         <f>_xll.qlBondDescription(A51)</f>
-        <v>BTP 2037-02-01 4%</v>
+        <v>BTP 2031-05-01 6%</v>
       </c>
       <c r="C51" s="11">
         <f>_xll.qlBondMaturityDate(A51)</f>
-        <v>50072</v>
+        <v>47969</v>
       </c>
       <c r="D51" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3125,15 +3125,15 @@
       </c>
       <c r="E51" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>IT0003934657_Quote</v>
+        <v>IT0001444378_Quote</v>
       </c>
       <c r="F51" s="10">
         <f>_xll.qlQuoteValue(E51,Trigger)</f>
-        <v>107.16499999999999</v>
+        <v>121.45500000000001</v>
       </c>
       <c r="G51" s="7" t="str">
         <f>_xll.qlBondHelper(,E51,A51,,,Trigger)</f>
-        <v>obj_00da6#0001</v>
+        <v>obj_00a47#0000</v>
       </c>
       <c r="H51" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A51,$H$1)</f>
@@ -3141,24 +3141,24 @@
       </c>
       <c r="I51" s="10">
         <f>_xll.qlBondCleanPrice(A51,H51)</f>
-        <v>107.16500478260944</v>
+        <v>149.93499608695703</v>
       </c>
       <c r="J51" s="10">
         <f t="shared" si="2"/>
-        <v>4.7826094515812656E-6</v>
+        <v>28.479996086957016</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="str">
-        <v>IT0004286966</v>
+        <v>IT0005094088</v>
       </c>
       <c r="B52" s="8" t="str">
         <f>_xll.qlBondDescription(A52)</f>
-        <v>BTP 2039-08-01 5%</v>
+        <v>BTP 2032-03-01 1.65%</v>
       </c>
       <c r="C52" s="11">
         <f>_xll.qlBondMaturityDate(A52)</f>
-        <v>50983</v>
+        <v>48274</v>
       </c>
       <c r="D52" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3166,15 +3166,15 @@
       </c>
       <c r="E52" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>IT0004286966_Quote</v>
+        <v>IT0005094088_Quote</v>
       </c>
       <c r="F52" s="10">
         <f>_xll.qlQuoteValue(E52,Trigger)</f>
-        <v>121.14</v>
+        <v>106.31</v>
       </c>
       <c r="G52" s="7" t="str">
         <f>_xll.qlBondHelper(,E52,A52,,,Trigger)</f>
-        <v>obj_00d87#0001</v>
+        <v>obj_00a56#0000</v>
       </c>
       <c r="H52" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A52,$H$1)</f>
@@ -3182,24 +3182,24 @@
       </c>
       <c r="I52" s="10">
         <f>_xll.qlBondCleanPrice(A52,H52)</f>
-        <v>121.14000347826087</v>
+        <v>93.08000054945056</v>
       </c>
       <c r="J52" s="10">
         <f t="shared" si="2"/>
-        <v>3.4782608651084956E-6</v>
+        <v>-13.229999450549442</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="str">
-        <v>IT0004532559</v>
+        <v>IT0003256820</v>
       </c>
       <c r="B53" s="8" t="str">
         <f>_xll.qlBondDescription(A53)</f>
-        <v>BTP 2040-09-01 5%</v>
+        <v>BTP 2033-02-01 5.75%</v>
       </c>
       <c r="C53" s="11">
         <f>_xll.qlBondMaturityDate(A53)</f>
-        <v>51380</v>
+        <v>48611</v>
       </c>
       <c r="D53" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3207,15 +3207,15 @@
       </c>
       <c r="E53" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>IT0004532559_Quote</v>
+        <v>IT0003256820_Quote</v>
       </c>
       <c r="F53" s="10">
         <f>_xll.qlQuoteValue(E53,Trigger)</f>
-        <v>120.185</v>
+        <v>120.33500000000001</v>
       </c>
       <c r="G53" s="7" t="str">
         <f>_xll.qlBondHelper(,E53,A53,,,Trigger)</f>
-        <v>obj_00db0#0001</v>
+        <v>obj_00a4a#0000</v>
       </c>
       <c r="H53" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A53,$H$1)</f>
@@ -3223,24 +3223,24 @@
       </c>
       <c r="I53" s="10">
         <f>_xll.qlBondCleanPrice(A53,H53)</f>
-        <v>120.18499773480677</v>
+        <v>148.73999500000048</v>
       </c>
       <c r="J53" s="10">
         <f t="shared" si="2"/>
-        <v>-2.2651932312101053E-6</v>
+        <v>28.404995000000469</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="str">
-        <v>IT0004923998</v>
+        <v>IT0003535157</v>
       </c>
       <c r="B54" s="8" t="str">
         <f>_xll.qlBondDescription(A54)</f>
-        <v>BTP 2044-09-01 4.75%</v>
+        <v>BTP 2034-08-01 5%</v>
       </c>
       <c r="C54" s="11">
         <f>_xll.qlBondMaturityDate(A54)</f>
-        <v>52841</v>
+        <v>49157</v>
       </c>
       <c r="D54" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3248,15 +3248,15 @@
       </c>
       <c r="E54" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>IT0004923998_Quote</v>
+        <v>IT0003535157_Quote</v>
       </c>
       <c r="F54" s="10">
         <f>_xll.qlQuoteValue(E54,Trigger)</f>
-        <v>116.36</v>
+        <v>119.51</v>
       </c>
       <c r="G54" s="7" t="str">
         <f>_xll.qlBondHelper(,E54,A54,,,Trigger)</f>
-        <v>obj_00db4#0001</v>
+        <v>obj_00a79#0000</v>
       </c>
       <c r="H54" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A54,$H$1)</f>
@@ -3264,216 +3264,216 @@
       </c>
       <c r="I54" s="10">
         <f>_xll.qlBondCleanPrice(A54,H54)</f>
-        <v>116.35999734806629</v>
+        <v>139.17500173913055</v>
       </c>
       <c r="J54" s="10">
         <f t="shared" si="2"/>
-        <v>-2.6519337126273967E-6</v>
+        <v>19.665001739130545</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B55" s="8" t="e">
+      <c r="A55" s="2" t="str">
+        <v>IT0003934657</v>
+      </c>
+      <c r="B55" s="8" t="str">
         <f>_xll.qlBondDescription(A55)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C55" s="11" t="e">
+        <v>BTP 2037-02-01 4%</v>
+      </c>
+      <c r="C55" s="11">
         <f>_xll.qlBondMaturityDate(A55)</f>
-        <v>#VALUE!</v>
+        <v>50072</v>
       </c>
       <c r="D55" s="8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F55" s="10" t="e">
+        <v>IT0003934657_Quote</v>
+      </c>
+      <c r="F55" s="10">
         <f>_xll.qlQuoteValue(E55,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G55" s="7" t="e">
+        <v>115.77500000000001</v>
+      </c>
+      <c r="G55" s="7" t="str">
         <f>_xll.qlBondHelper(,E55,A55,,,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H55" s="8" t="e">
+        <v>obj_00a60#0000</v>
+      </c>
+      <c r="H55" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A55,$H$1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I55" s="10" t="e">
+        <v>1</v>
+      </c>
+      <c r="I55" s="10">
         <f>_xll.qlBondCleanPrice(A55,H55)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J55" s="10" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>124.03499739127793</v>
+      </c>
+      <c r="J55" s="10">
+        <f t="shared" si="2"/>
+        <v>8.2599973912779205</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B56" s="8" t="e">
+      <c r="A56" s="2" t="str">
+        <v>IT0004286966</v>
+      </c>
+      <c r="B56" s="8" t="str">
         <f>_xll.qlBondDescription(A56)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C56" s="11" t="e">
+        <v>BTP 2039-08-01 5%</v>
+      </c>
+      <c r="C56" s="11">
         <f>_xll.qlBondMaturityDate(A56)</f>
-        <v>#VALUE!</v>
+        <v>50983</v>
       </c>
       <c r="D56" s="8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>IT0004286966_Quote</v>
       </c>
       <c r="F56" s="10" t="e">
         <f>_xll.qlQuoteValue(E56,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G56" s="7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G56" s="7" t="str">
         <f>_xll.qlBondHelper(,E56,A56,,,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H56" s="8" t="e">
+        <v>obj_00a6c#0000</v>
+      </c>
+      <c r="H56" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A56,$H$1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I56" s="10" t="e">
+        <v>1</v>
+      </c>
+      <c r="I56" s="10">
         <f>_xll.qlBondCleanPrice(A56,H56)</f>
-        <v>#VALUE!</v>
+        <v>142.52500173913037</v>
       </c>
       <c r="J56" s="10" t="e">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B57" s="8" t="e">
+      <c r="A57" s="2" t="str">
+        <v>IT0004532559</v>
+      </c>
+      <c r="B57" s="8" t="str">
         <f>_xll.qlBondDescription(A57)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C57" s="11" t="e">
+        <v>BTP 2040-09-01 5%</v>
+      </c>
+      <c r="C57" s="11">
         <f>_xll.qlBondMaturityDate(A57)</f>
-        <v>#VALUE!</v>
+        <v>51380</v>
       </c>
       <c r="D57" s="8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="E57" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>IT0004532559_Quote</v>
       </c>
       <c r="F57" s="10" t="e">
         <f>_xll.qlQuoteValue(E57,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G57" s="7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G57" s="7" t="str">
         <f>_xll.qlBondHelper(,E57,A57,,,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H57" s="8" t="e">
+        <v>obj_00a52#0000</v>
+      </c>
+      <c r="H57" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A57,$H$1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I57" s="10" t="e">
+        <v>1</v>
+      </c>
+      <c r="I57" s="10">
         <f>_xll.qlBondCleanPrice(A57,H57)</f>
-        <v>#VALUE!</v>
+        <v>142.40999560439568</v>
       </c>
       <c r="J57" s="10" t="e">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B58" s="8" t="e">
+      <c r="A58" s="2" t="str">
+        <v>IT0004923998</v>
+      </c>
+      <c r="B58" s="8" t="str">
         <f>_xll.qlBondDescription(A58)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C58" s="11" t="e">
+        <v>BTP 2044-09-01 4.75%</v>
+      </c>
+      <c r="C58" s="11">
         <f>_xll.qlBondMaturityDate(A58)</f>
-        <v>#VALUE!</v>
+        <v>52841</v>
       </c>
       <c r="D58" s="8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="E58" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>IT0004923998_Quote</v>
       </c>
       <c r="F58" s="10" t="e">
         <f>_xll.qlQuoteValue(E58,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G58" s="7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G58" s="7" t="str">
         <f>_xll.qlBondHelper(,E58,A58,,,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H58" s="8" t="e">
+        <v>obj_00a5a#0000</v>
+      </c>
+      <c r="H58" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A58,$H$1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I58" s="10" t="e">
+        <v>1</v>
+      </c>
+      <c r="I58" s="10">
         <f>_xll.qlBondCleanPrice(A58,H58)</f>
-        <v>#VALUE!</v>
+        <v>140.84499582417581</v>
       </c>
       <c r="J58" s="10" t="e">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B59" s="8" t="e">
+      <c r="A59" s="2" t="str">
+        <v>IT0005083057</v>
+      </c>
+      <c r="B59" s="8" t="str">
         <f>_xll.qlBondDescription(A59)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C59" s="11" t="e">
+        <v>BTP 2046-09-01 3.25%</v>
+      </c>
+      <c r="C59" s="11">
         <f>_xll.qlBondMaturityDate(A59)</f>
-        <v>#VALUE!</v>
+        <v>53571</v>
       </c>
       <c r="D59" s="8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="E59" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>IT0005083057_Quote</v>
       </c>
       <c r="F59" s="10" t="e">
         <f>_xll.qlQuoteValue(E59,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G59" s="7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G59" s="7" t="str">
         <f>_xll.qlBondHelper(,E59,A59,,,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H59" s="8" t="e">
+        <v>obj_00a42#0000</v>
+      </c>
+      <c r="H59" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A59,$H$1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I59" s="10" t="e">
+        <v>1</v>
+      </c>
+      <c r="I59" s="10">
         <f>_xll.qlBondCleanPrice(A59,H59)</f>
-        <v>#VALUE!</v>
+        <v>110.82499714285716</v>
       </c>
       <c r="J59" s="10" t="e">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D66" s="8" t="b">
-        <f>NOT(ISERROR(F66))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E66" s="8" t="e">
@@ -3776,7 +3776,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D67" s="8" t="b">
-        <f>NOT(ISERROR(F67))</f>
+        <f t="shared" ref="D67:D70" si="4">NOT(ISERROR(A67))</f>
         <v>0</v>
       </c>
       <c r="E67" s="8" t="e">
@@ -3817,7 +3817,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D68" s="8" t="b">
-        <f>NOT(ISERROR(F68))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E68" s="8" t="e">
@@ -3858,7 +3858,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D69" s="8" t="b">
-        <f>NOT(ISERROR(F69))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E69" s="8" t="e">
@@ -3899,7 +3899,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D70" s="8" t="b">
-        <f>NOT(ISERROR(F70))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E70" s="8" t="e">
@@ -3940,9 +3940,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3986,7 +3984,7 @@
       </c>
       <c r="H1" s="3" t="str">
         <f>_xll.qlBondEngine(,L2)</f>
-        <v>obj_00dbc#0002</v>
+        <v>obj_00a7d#0002</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -4002,31 +4000,31 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f t="array" ref="A2:A53">_xll.qlBondAlive("StrippableBTPs",Trigger)</f>
-        <v>IT0003719918</v>
+        <v>IT0004656275</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>_xll.qlBondDescription($A2,Trigger)</f>
-        <v>BTP 2015-02-01 4.25%</v>
+        <v>BTP 2015-11-01 3%</v>
       </c>
       <c r="C2" s="11">
         <f>_xll.qlBondMaturityDate($A2,Trigger)</f>
-        <v>42036</v>
+        <v>42309</v>
       </c>
       <c r="D2" s="8" t="b">
-        <f>NOT(ISERROR(F2))</f>
+        <f>NOT(ISERROR(A2))</f>
         <v>1</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>$A2&amp;$E$1</f>
-        <v>IT0003719918_Quote</v>
+        <v>IT0004656275_Quote</v>
       </c>
       <c r="F2" s="10">
         <f>_xll.qlQuoteValue(E2,Trigger)</f>
-        <v>101.11150000000001</v>
+        <v>100.40799999999999</v>
       </c>
       <c r="G2" s="7" t="str">
         <f>_xll.qlBondHelper(,E2,$A2,,,Trigger)</f>
-        <v>obj_00d6d#0001</v>
+        <v>obj_00a34#0000</v>
       </c>
       <c r="H2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A2,$H$1)</f>
@@ -4034,11 +4032,11 @@
       </c>
       <c r="I2" s="10">
         <f>_xll.qlBondCleanPrice($A2,H2)</f>
-        <v>101.11150195652176</v>
+        <v>100.14150304347824</v>
       </c>
       <c r="J2" s="10">
         <f t="shared" ref="J2:J8" si="0">I2-F2</f>
-        <v>1.9565217570516324E-6</v>
+        <v>-0.26649695652174898</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="3" t="str">
@@ -4048,31 +4046,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <v>IT0003844534</v>
+        <v>IT0004712748</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>_xll.qlBondDescription($A3,Trigger)</f>
-        <v>BTP 2015-08-01 3.75%</v>
+        <v>BTP 2016-04-15 3.75%</v>
       </c>
       <c r="C3" s="11">
         <f>_xll.qlBondMaturityDate($A3,Trigger)</f>
-        <v>42217</v>
+        <v>42475</v>
       </c>
       <c r="D3" s="8" t="b">
-        <f t="shared" ref="D3:D37" si="1">NOT(ISERROR(F3))</f>
+        <f t="shared" ref="D3:D48" si="1">NOT(ISERROR(A3))</f>
         <v>1</v>
       </c>
       <c r="E3" s="8" t="str">
         <f t="shared" ref="E3:E48" si="2">$A3&amp;$E$1</f>
-        <v>IT0003844534_Quote</v>
+        <v>IT0004712748_Quote</v>
       </c>
       <c r="F3" s="10">
         <f>_xll.qlQuoteValue(E3,Trigger)</f>
-        <v>102.57300000000001</v>
+        <v>100.76649999999999</v>
       </c>
       <c r="G3" s="7" t="str">
         <f>_xll.qlBondHelper(,E3,$A3,,,Trigger)</f>
-        <v>obj_00d72#0001</v>
+        <v>obj_00a37#0000</v>
       </c>
       <c r="H3" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A3,$H$1)</f>
@@ -4080,26 +4078,26 @@
       </c>
       <c r="I3" s="10">
         <f>_xll.qlBondCleanPrice($A3,H3)</f>
-        <v>102.57299760869564</v>
+        <v>101.88100000000003</v>
       </c>
       <c r="J3" s="10">
         <f t="shared" si="0"/>
-        <v>-2.3913043634138376E-6</v>
+        <v>1.1145000000000351</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <v>IT0004656275</v>
+        <v>IT0004019581</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>_xll.qlBondDescription($A4,Trigger)</f>
-        <v>BTP 2015-11-01 3%</v>
+        <v>BTP 2016-08-01 3.75%</v>
       </c>
       <c r="C4" s="11">
         <f>_xll.qlBondMaturityDate($A4,Trigger)</f>
-        <v>42309</v>
+        <v>42583</v>
       </c>
       <c r="D4" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4107,15 +4105,15 @@
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004656275_Quote</v>
+        <v>IT0004019581_Quote</v>
       </c>
       <c r="F4" s="10">
         <f>_xll.qlQuoteValue(E4,Trigger)</f>
-        <v>102.59049999999999</v>
+        <v>101.59700000000001</v>
       </c>
       <c r="G4" s="7" t="str">
         <f>_xll.qlBondHelper(,E4,$A4,,,Trigger)</f>
-        <v>obj_00d58#0001</v>
+        <v>obj_00a38#0000</v>
       </c>
       <c r="H4" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A4,$H$1)</f>
@@ -4123,11 +4121,11 @@
       </c>
       <c r="I4" s="10">
         <f>_xll.qlBondCleanPrice($A4,H4)</f>
-        <v>102.59049608695651</v>
+        <v>102.97249630434783</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>-3.9130434856815555E-6</v>
+        <v>1.3754963043478199</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="17" t="str">
@@ -4137,15 +4135,15 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <v>IT0004712748</v>
+        <v>IT0004761950</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>_xll.qlBondDescription($A5,Trigger)</f>
-        <v>BTP 2016-04-15 3.75%</v>
+        <v>BTP 2016-09-15 4.75%</v>
       </c>
       <c r="C5" s="11">
         <f>_xll.qlBondMaturityDate($A5,Trigger)</f>
-        <v>42475</v>
+        <v>42628</v>
       </c>
       <c r="D5" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4153,15 +4151,15 @@
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004712748_Quote</v>
+        <v>IT0004761950_Quote</v>
       </c>
       <c r="F5" s="10">
         <f>_xll.qlQuoteValue(E5,Trigger)</f>
-        <v>104.6905</v>
+        <v>102.961</v>
       </c>
       <c r="G5" s="7" t="str">
         <f>_xll.qlBondHelper(,E5,$A5,,,Trigger)</f>
-        <v>obj_00d71#0001</v>
+        <v>obj_00a26#0000</v>
       </c>
       <c r="H5" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A5,$H$1)</f>
@@ -4169,26 +4167,26 @@
       </c>
       <c r="I5" s="10">
         <f>_xll.qlBondCleanPrice($A5,H5)</f>
-        <v>104.69150318681319</v>
+        <v>104.33250351648353</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="0"/>
-        <v>1.0031868131932242E-3</v>
+        <v>1.3715035164835285</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <v>IT0004019581</v>
+        <v>IT0004164775</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>_xll.qlBondDescription($A6,Trigger)</f>
-        <v>BTP 2016-08-01 3.75%</v>
+        <v>BTP 2017-02-01 4%</v>
       </c>
       <c r="C6" s="11">
         <f>_xll.qlBondMaturityDate($A6,Trigger)</f>
-        <v>42583</v>
+        <v>42767</v>
       </c>
       <c r="D6" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4196,15 +4194,15 @@
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004019581_Quote</v>
+        <v>IT0004164775_Quote</v>
       </c>
       <c r="F6" s="10">
         <f>_xll.qlQuoteValue(E6,Trigger)</f>
-        <v>105.47</v>
+        <v>102.4135</v>
       </c>
       <c r="G6" s="7" t="str">
         <f>_xll.qlBondHelper(,E6,$A6,,,Trigger)</f>
-        <v>obj_00d64#0001</v>
+        <v>obj_00a36#0000</v>
       </c>
       <c r="H6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A6,$H$1)</f>
@@ -4212,26 +4210,26 @@
       </c>
       <c r="I6" s="10">
         <f>_xll.qlBondCleanPrice($A6,H6)</f>
-        <v>105.46499760869564</v>
+        <v>105.10849739130435</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="0"/>
-        <v>-5.0023913043588664E-3</v>
+        <v>2.694997391304355</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <v>IT0004761950</v>
+        <v>IT0004793474</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>_xll.qlBondDescription($A7,Trigger)</f>
-        <v>BTP 2016-09-15 4.75%</v>
+        <v>BTP 2017-05-01 4.75%</v>
       </c>
       <c r="C7" s="11">
         <f>_xll.qlBondMaturityDate($A7,Trigger)</f>
-        <v>42628</v>
+        <v>42856</v>
       </c>
       <c r="D7" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4239,15 +4237,15 @@
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004761950_Quote</v>
+        <v>IT0004793474_Quote</v>
       </c>
       <c r="F7" s="10">
         <f>_xll.qlQuoteValue(E7,Trigger)</f>
-        <v>107.62</v>
+        <v>104.404</v>
       </c>
       <c r="G7" s="7" t="str">
         <f>_xll.qlBondHelper(,E7,$A7,,,Trigger)</f>
-        <v>obj_00d57#0001</v>
+        <v>obj_00a3c#0000</v>
       </c>
       <c r="H7" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A7,$H$1)</f>
@@ -4255,26 +4253,26 @@
       </c>
       <c r="I7" s="10">
         <f>_xll.qlBondCleanPrice($A7,H7)</f>
-        <v>107.61999569060774</v>
+        <v>107.22000065217391</v>
       </c>
       <c r="J7" s="10">
         <f t="shared" si="0"/>
-        <v>-4.3093922670323082E-6</v>
+        <v>2.816000652173912</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <v>IT0004164775</v>
+        <v>IT0005023459</v>
       </c>
       <c r="B8" s="8" t="str">
         <f>_xll.qlBondDescription($A8,Trigger)</f>
-        <v>BTP 2017-02-01 4%</v>
+        <v>BTP 2017-05-15 1.15%</v>
       </c>
       <c r="C8" s="11">
         <f>_xll.qlBondMaturityDate($A8,Trigger)</f>
-        <v>42767</v>
+        <v>42870</v>
       </c>
       <c r="D8" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4282,15 +4280,15 @@
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004164775_Quote</v>
+        <v>IT0005023459_Quote</v>
       </c>
       <c r="F8" s="10">
         <f>_xll.qlQuoteValue(E8,Trigger)</f>
-        <v>107.25</v>
+        <v>102.27500000000001</v>
       </c>
       <c r="G8" s="7" t="str">
         <f>_xll.qlBondHelper(,E8,$A8,,,Trigger)</f>
-        <v>obj_00d74#0001</v>
+        <v>obj_00a13#0000</v>
       </c>
       <c r="H8" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A8,$H$1)</f>
@@ -4298,25 +4296,25 @@
       </c>
       <c r="I8" s="10">
         <f>_xll.qlBondCleanPrice($A8,H8)</f>
-        <v>107.25000478260868</v>
+        <v>101.70000499999999</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="0"/>
-        <v>4.782608684195111E-6</v>
+        <v>-0.57499500000001547</v>
       </c>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <v>IT0004793474</v>
+        <v>IT0004820426</v>
       </c>
       <c r="B9" s="8" t="str">
         <f>_xll.qlBondDescription($A9,Trigger)</f>
-        <v>BTP 2017-05-01 4.75%</v>
+        <v>BTP 2017-06-01 4.75%</v>
       </c>
       <c r="C9" s="11">
         <f>_xll.qlBondMaturityDate($A9,Trigger)</f>
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="D9" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4324,15 +4322,15 @@
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004793474_Quote</v>
+        <v>IT0004820426_Quote</v>
       </c>
       <c r="F9" s="10">
         <f>_xll.qlQuoteValue(E9,Trigger)</f>
-        <v>109.73</v>
+        <v>105.19</v>
       </c>
       <c r="G9" s="7" t="str">
         <f>_xll.qlBondHelper(,E9,$A9,,,Trigger)</f>
-        <v>obj_00d6b#0001</v>
+        <v>obj_00a23#0000</v>
       </c>
       <c r="H9" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A9,$H$1)</f>
@@ -4340,25 +4338,25 @@
       </c>
       <c r="I9" s="10">
         <f>_xll.qlBondCleanPrice($A9,H9)</f>
-        <v>109.72999630434782</v>
+        <v>107.57499732240437</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" ref="J9:J35" si="3">I9-F9</f>
-        <v>-3.6956521825004529E-6</v>
+        <v>2.3849973224043737</v>
       </c>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <v>IT0004820426</v>
+        <v>IT0003242747</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>_xll.qlBondDescription($A10,Trigger)</f>
-        <v>BTP 2017-06-01 4.75%</v>
+        <v>BTP 2017-08-01 5.25%</v>
       </c>
       <c r="C10" s="11">
         <f>_xll.qlBondMaturityDate($A10,Trigger)</f>
-        <v>42887</v>
+        <v>42948</v>
       </c>
       <c r="D10" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4366,15 +4364,15 @@
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004820426_Quote</v>
+        <v>IT0003242747_Quote</v>
       </c>
       <c r="F10" s="10">
         <f>_xll.qlQuoteValue(E10,Trigger)</f>
-        <v>109.995</v>
+        <v>107.31</v>
       </c>
       <c r="G10" s="7" t="str">
         <f>_xll.qlBondHelper(,E10,$A10,,,Trigger)</f>
-        <v>obj_00d83#0001</v>
+        <v>obj_00a2c#0000</v>
       </c>
       <c r="H10" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A10,$H$1)</f>
@@ -4382,25 +4380,25 @@
       </c>
       <c r="I10" s="10">
         <f>_xll.qlBondCleanPrice($A10,H10)</f>
-        <v>109.9949961748634</v>
+        <v>109.26500282608696</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="3"/>
-        <v>-3.8251366021313515E-6</v>
+        <v>1.9550028260869539</v>
       </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <v>IT0003242747</v>
+        <v>IT0004867070</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>_xll.qlBondDescription($A11,Trigger)</f>
-        <v>BTP 2017-08-01 5.25%</v>
+        <v>BTP 2017-11-01 3.5%</v>
       </c>
       <c r="C11" s="11">
         <f>_xll.qlBondMaturityDate($A11,Trigger)</f>
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="D11" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4408,15 +4406,15 @@
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0003242747_Quote</v>
+        <v>IT0004867070_Quote</v>
       </c>
       <c r="F11" s="10">
         <f>_xll.qlQuoteValue(E11,Trigger)</f>
-        <v>111.95</v>
+        <v>103.72499999999999</v>
       </c>
       <c r="G11" s="7" t="str">
         <f>_xll.qlBondHelper(,E11,$A11,,,Trigger)</f>
-        <v>obj_00d77#0001</v>
+        <v>obj_00a1b#0000</v>
       </c>
       <c r="H11" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A11,$H$1)</f>
@@ -4424,25 +4422,25 @@
       </c>
       <c r="I11" s="10">
         <f>_xll.qlBondCleanPrice($A11,H11)</f>
-        <v>111.9500006521739</v>
+        <v>106.91499521739131</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="3"/>
-        <v>6.5217389533245296E-7</v>
+        <v>3.1899952173913135</v>
       </c>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <v>IT0004867070</v>
+        <v>IT0005058463</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>_xll.qlBondDescription($A12,Trigger)</f>
-        <v>BTP 2017-11-01 3.5%</v>
+        <v>BTP 2018-01-15 0.75%</v>
       </c>
       <c r="C12" s="11">
         <f>_xll.qlBondMaturityDate($A12,Trigger)</f>
-        <v>43040</v>
+        <v>43115</v>
       </c>
       <c r="D12" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4450,15 +4448,15 @@
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004867070_Quote</v>
+        <v>IT0005058463_Quote</v>
       </c>
       <c r="F12" s="10">
         <f>_xll.qlQuoteValue(E12,Trigger)</f>
-        <v>107.69999999999999</v>
+        <v>101.19</v>
       </c>
       <c r="G12" s="7" t="str">
         <f>_xll.qlBondHelper(,E12,$A12,,,Trigger)</f>
-        <v>obj_00d81#0001</v>
+        <v>obj_00a24#0000</v>
       </c>
       <c r="H12" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A12,$H$1)</f>
@@ -4466,11 +4464,11 @@
       </c>
       <c r="I12" s="10">
         <f>_xll.qlBondCleanPrice($A12,H12)</f>
-        <v>107.68500043478262</v>
+        <v>101.30000000000001</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="3"/>
-        <v>-1.4999565217365785E-2</v>
+        <v>0.11000000000001364</v>
       </c>
       <c r="K12" s="5"/>
     </row>
@@ -4496,11 +4494,11 @@
       </c>
       <c r="F13" s="10">
         <f>_xll.qlQuoteValue(E13,Trigger)</f>
-        <v>111.31</v>
+        <v>106.86499999999999</v>
       </c>
       <c r="G13" s="7" t="str">
         <f>_xll.qlBondHelper(,E13,$A13,,,Trigger)</f>
-        <v>obj_00d62#0001</v>
+        <v>obj_00a21#0000</v>
       </c>
       <c r="H13" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A13,$H$1)</f>
@@ -4508,11 +4506,11 @@
       </c>
       <c r="I13" s="10">
         <f>_xll.qlBondCleanPrice($A13,H13)</f>
-        <v>111.2949991304348</v>
+        <v>109.89999956521741</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="3"/>
-        <v>-1.5000869565199082E-2</v>
+        <v>3.0349995652174186</v>
       </c>
       <c r="K13" s="5"/>
     </row>
@@ -4538,11 +4536,11 @@
       </c>
       <c r="F14" s="10">
         <f>_xll.qlQuoteValue(E14,Trigger)</f>
-        <v>108.65</v>
+        <v>109.53</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>_xll.qlBondHelper(,E14,$A14,,,Trigger)</f>
-        <v>obj_00d7f#0001</v>
+        <v>obj_00a40#0000</v>
       </c>
       <c r="H14" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A14,$H$1)</f>
@@ -4550,11 +4548,11 @@
       </c>
       <c r="I14" s="10">
         <f>_xll.qlBondCleanPrice($A14,H14)</f>
-        <v>108.63500349726777</v>
+        <v>108.50999644808742</v>
       </c>
       <c r="J14" s="10">
         <f t="shared" si="3"/>
-        <v>-1.4996502732230965E-2</v>
+        <v>-1.0200035519125805</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -4580,11 +4578,11 @@
       </c>
       <c r="F15" s="10">
         <f>_xll.qlQuoteValue(E15,Trigger)</f>
-        <v>112.65</v>
+        <v>111.535</v>
       </c>
       <c r="G15" s="7" t="str">
         <f>_xll.qlBondHelper(,E15,$A15,,,Trigger)</f>
-        <v>obj_00d6f#0001</v>
+        <v>obj_00a3f#0000</v>
       </c>
       <c r="H15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A15,$H$1)</f>
@@ -4592,11 +4590,11 @@
       </c>
       <c r="I15" s="10">
         <f>_xll.qlBondCleanPrice($A15,H15)</f>
-        <v>112.63499913043476</v>
+        <v>111.8099995652174</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="3"/>
-        <v>-1.5000869565241715E-2</v>
+        <v>0.27499956521739932</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -4622,11 +4620,11 @@
       </c>
       <c r="F16" s="10">
         <f>_xll.qlQuoteValue(E16,Trigger)</f>
-        <v>109.6</v>
+        <v>107.315</v>
       </c>
       <c r="G16" s="7" t="str">
         <f>_xll.qlBondHelper(,E16,$A16,,,Trigger)</f>
-        <v>obj_00d61#0001</v>
+        <v>obj_00a19#0000</v>
       </c>
       <c r="H16" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A16,$H$1)</f>
@@ -4634,11 +4632,11 @@
       </c>
       <c r="I16" s="10">
         <f>_xll.qlBondCleanPrice($A16,H16)</f>
-        <v>109.59500349726773</v>
+        <v>109.89499644808741</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="3"/>
-        <v>-4.9965027322684819E-3</v>
+        <v>2.5799964480874138</v>
       </c>
       <c r="K16" s="5"/>
     </row>
@@ -4664,11 +4662,11 @@
       </c>
       <c r="F17" s="10">
         <f>_xll.qlQuoteValue(E17,Trigger)</f>
-        <v>112.97499999999999</v>
+        <v>110.795</v>
       </c>
       <c r="G17" s="7" t="str">
         <f>_xll.qlBondHelper(,E17,$A17,,,Trigger)</f>
-        <v>obj_00d6e#0001</v>
+        <v>obj_00a20#0000</v>
       </c>
       <c r="H17" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A17,$H$1)</f>
@@ -4676,11 +4674,11 @@
       </c>
       <c r="I17" s="10">
         <f>_xll.qlBondCleanPrice($A17,H17)</f>
-        <v>112.94500195652174</v>
+        <v>112.68999847826088</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="3"/>
-        <v>-2.9998043478258296E-2</v>
+        <v>1.8949984782608738</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -4706,11 +4704,11 @@
       </c>
       <c r="F18" s="10">
         <f>_xll.qlQuoteValue(E18,Trigger)</f>
-        <v>114.28</v>
+        <v>108.11500000000001</v>
       </c>
       <c r="G18" s="7" t="str">
         <f>_xll.qlBondHelper(,E18,$A18,,,Trigger)</f>
-        <v>obj_00d70#0001</v>
+        <v>obj_00a29#0000</v>
       </c>
       <c r="H18" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A18,$H$1)</f>
@@ -4718,11 +4716,11 @@
       </c>
       <c r="I18" s="10">
         <f>_xll.qlBondCleanPrice($A18,H18)</f>
-        <v>114.27499696132598</v>
+        <v>113.78499604395606</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="3"/>
-        <v>-5.003038674018967E-3</v>
+        <v>5.6699960439560471</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -4748,11 +4746,11 @@
       </c>
       <c r="F19" s="10">
         <f>_xll.qlQuoteValue(E19,Trigger)</f>
-        <v>114.08</v>
+        <v>112.50999999999999</v>
       </c>
       <c r="G19" s="7" t="str">
         <f>_xll.qlBondHelper(,E19,$A19,,,Trigger)</f>
-        <v>obj_00d5e#0001</v>
+        <v>obj_00a3e#0000</v>
       </c>
       <c r="H19" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A19,$H$1)</f>
@@ -4760,11 +4758,11 @@
       </c>
       <c r="I19" s="10">
         <f>_xll.qlBondCleanPrice($A19,H19)</f>
-        <v>114.06499657458565</v>
+        <v>114.37499626373624</v>
       </c>
       <c r="J19" s="10">
         <f t="shared" si="3"/>
-        <v>-1.5003425414349181E-2</v>
+        <v>1.8649962637362449</v>
       </c>
       <c r="K19" s="5"/>
       <c r="M19" s="6"/>
@@ -4791,11 +4789,11 @@
       </c>
       <c r="F20" s="10">
         <f>_xll.qlQuoteValue(E20,Trigger)</f>
-        <v>115.82</v>
+        <v>105.21000000000001</v>
       </c>
       <c r="G20" s="7" t="str">
         <f>_xll.qlBondHelper(,E20,$A20,,,Trigger)</f>
-        <v>obj_00d75#0001</v>
+        <v>obj_00a3a#0000</v>
       </c>
       <c r="H20" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A20,$H$1)</f>
@@ -4803,11 +4801,11 @@
       </c>
       <c r="I20" s="10">
         <f>_xll.qlBondCleanPrice($A20,H20)</f>
-        <v>115.81999913043478</v>
+        <v>116.51499956521737</v>
       </c>
       <c r="J20" s="10">
         <f t="shared" si="3"/>
-        <v>-8.6956521272441023E-7</v>
+        <v>11.304999565217358</v>
       </c>
       <c r="K20" s="5"/>
       <c r="M20" s="6"/>
@@ -4834,11 +4832,11 @@
       </c>
       <c r="F21" s="10">
         <f>_xll.qlQuoteValue(E21,Trigger)</f>
-        <v>114.7</v>
+        <v>100.63</v>
       </c>
       <c r="G21" s="7" t="str">
         <f>_xll.qlBondHelper(,E21,$A21,,,Trigger)</f>
-        <v>obj_00d7e#0001</v>
+        <v>obj_00a15#0000</v>
       </c>
       <c r="H21" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A21,$H$1)</f>
@@ -4846,11 +4844,11 @@
       </c>
       <c r="I21" s="10">
         <f>_xll.qlBondCleanPrice($A21,H21)</f>
-        <v>114.68999657458565</v>
+        <v>115.72999626373625</v>
       </c>
       <c r="J21" s="10">
         <f t="shared" si="3"/>
-        <v>-1.0003425414353728E-2</v>
+        <v>15.099996263736259</v>
       </c>
       <c r="K21" s="5"/>
       <c r="M21" s="6"/>
@@ -4877,11 +4875,11 @@
       </c>
       <c r="F22" s="10">
         <f>_xll.qlQuoteValue(E22,Trigger)</f>
-        <v>113.745</v>
+        <v>115.31</v>
       </c>
       <c r="G22" s="7" t="str">
         <f>_xll.qlBondHelper(,E22,$A22,,,Trigger)</f>
-        <v>obj_00d76#0001</v>
+        <v>obj_00a22#0000</v>
       </c>
       <c r="H22" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A22,$H$1)</f>
@@ -4889,11 +4887,11 @@
       </c>
       <c r="I22" s="10">
         <f>_xll.qlBondCleanPrice($A22,H22)</f>
-        <v>113.73499618784533</v>
+        <v>115.59999648351646</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="3"/>
-        <v>-1.0003812154678826E-2</v>
+        <v>0.28999648351646101</v>
       </c>
       <c r="K22" s="5"/>
       <c r="M22" s="6"/>
@@ -4920,11 +4918,11 @@
       </c>
       <c r="F23" s="10">
         <f>_xll.qlQuoteValue(E23,Trigger)</f>
-        <v>112.38</v>
+        <v>114.125</v>
       </c>
       <c r="G23" s="7" t="str">
         <f>_xll.qlBondHelper(,E23,$A23,,,Trigger)</f>
-        <v>obj_00d84#0001</v>
+        <v>obj_00a1d#0000</v>
       </c>
       <c r="H23" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A23,$H$1)</f>
@@ -4932,11 +4930,11 @@
       </c>
       <c r="I23" s="10">
         <f>_xll.qlBondCleanPrice($A23,H23)</f>
-        <v>112.35999580110494</v>
+        <v>115.02999670329672</v>
       </c>
       <c r="J23" s="10">
         <f t="shared" si="3"/>
-        <v>-2.0004198895051672E-2</v>
+        <v>0.90499670329671744</v>
       </c>
       <c r="K23" s="5"/>
       <c r="M23" s="6"/>
@@ -4963,11 +4961,11 @@
       </c>
       <c r="F24" s="10">
         <f>_xll.qlQuoteValue(E24,Trigger)</f>
-        <v>112.06</v>
+        <v>113.185</v>
       </c>
       <c r="G24" s="7" t="str">
         <f>_xll.qlBondHelper(,E24,$A24,,,Trigger)</f>
-        <v>obj_00d7d#0001</v>
+        <v>obj_00a3b#0000</v>
       </c>
       <c r="H24" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A24,$H$1)</f>
@@ -4975,11 +4973,11 @@
       </c>
       <c r="I24" s="10">
         <f>_xll.qlBondCleanPrice($A24,H24)</f>
-        <v>112.03999760869564</v>
+        <v>115.1599963043478</v>
       </c>
       <c r="J24" s="10">
         <f t="shared" si="3"/>
-        <v>-2.0002391304359435E-2</v>
+        <v>1.9749963043477976</v>
       </c>
       <c r="K24" s="5"/>
       <c r="M24" s="6"/>
@@ -5006,11 +5004,11 @@
       </c>
       <c r="F25" s="10">
         <f>_xll.qlQuoteValue(E25,Trigger)</f>
-        <v>112.11</v>
+        <v>111.78</v>
       </c>
       <c r="G25" s="7" t="str">
         <f>_xll.qlBondHelper(,E25,$A25,,,Trigger)</f>
-        <v>obj_00d7a#0001</v>
+        <v>obj_00a16#0000</v>
       </c>
       <c r="H25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A25,$H$1)</f>
@@ -5018,11 +5016,11 @@
       </c>
       <c r="I25" s="10">
         <f>_xll.qlBondCleanPrice($A25,H25)</f>
-        <v>112.08999760869565</v>
+        <v>115.37499630434782</v>
       </c>
       <c r="J25" s="10">
         <f t="shared" si="3"/>
-        <v>-2.0002391304345224E-2</v>
+        <v>3.5949963043478164</v>
       </c>
       <c r="K25" s="5"/>
     </row>
@@ -5048,11 +5046,11 @@
       </c>
       <c r="F26" s="10">
         <f>_xll.qlQuoteValue(E26,Trigger)</f>
-        <v>118.535</v>
+        <v>111.42</v>
       </c>
       <c r="G26" s="7" t="str">
         <f>_xll.qlBondHelper(,E26,$A26,,,Trigger)</f>
-        <v>obj_00d65#0001</v>
+        <v>obj_00a32#0000</v>
       </c>
       <c r="H26" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A26,$H$1)</f>
@@ -5060,11 +5058,11 @@
       </c>
       <c r="I26" s="10">
         <f>_xll.qlBondCleanPrice($A26,H26)</f>
-        <v>118.52499734806629</v>
+        <v>121.16999582417581</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="3"/>
-        <v>-1.0002651933703532E-2</v>
+        <v>9.7499958241758122</v>
       </c>
       <c r="K26" s="5"/>
     </row>
@@ -5090,11 +5088,11 @@
       </c>
       <c r="F27" s="10">
         <f>_xll.qlQuoteValue(E27,Trigger)</f>
-        <v>120.37</v>
+        <v>117.82</v>
       </c>
       <c r="G27" s="7" t="str">
         <f>_xll.qlBondHelper(,E27,$A27,,,Trigger)</f>
-        <v>obj_00d5b#0001</v>
+        <v>obj_00a2d#0000</v>
       </c>
       <c r="H27" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A27,$H$1)</f>
@@ -5102,11 +5100,11 @@
       </c>
       <c r="I27" s="10">
         <f>_xll.qlBondCleanPrice($A27,H27)</f>
-        <v>120.34999773480664</v>
+        <v>123.88999560439561</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="3"/>
-        <v>-2.000226519336934E-2</v>
+        <v>6.0699956043956149</v>
       </c>
       <c r="K27" s="5"/>
     </row>
@@ -5132,11 +5130,11 @@
       </c>
       <c r="F28" s="10">
         <f>_xll.qlQuoteValue(E28,Trigger)</f>
-        <v>124.13499999999999</v>
+        <v>119.69499999999999</v>
       </c>
       <c r="G28" s="7" t="str">
         <f>_xll.qlBondHelper(,E28,$A28,,,Trigger)</f>
-        <v>obj_00d66#0001</v>
+        <v>obj_00a1a#0000</v>
       </c>
       <c r="H28" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A28,$H$1)</f>
@@ -5144,11 +5142,11 @@
       </c>
       <c r="I28" s="10">
         <f>_xll.qlBondCleanPrice($A28,H28)</f>
-        <v>124.10499850828728</v>
+        <v>128.01999516483517</v>
       </c>
       <c r="J28" s="10">
         <f t="shared" si="3"/>
-        <v>-3.0001491712710049E-2</v>
+        <v>8.3249951648351725</v>
       </c>
       <c r="K28" s="5"/>
     </row>
@@ -5174,11 +5172,11 @@
       </c>
       <c r="F29" s="10">
         <f>_xll.qlQuoteValue(E29,Trigger)</f>
-        <v>124.11500000000001</v>
+        <v>123.295</v>
       </c>
       <c r="G29" s="7" t="str">
         <f>_xll.qlBondHelper(,E29,$A29,,,Trigger)</f>
-        <v>obj_00d5c#0001</v>
+        <v>obj_00a1e#0000</v>
       </c>
       <c r="H29" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A29,$H$1)</f>
@@ -5186,11 +5184,11 @@
       </c>
       <c r="I29" s="10">
         <f>_xll.qlBondCleanPrice($A29,H29)</f>
-        <v>124.09499782608697</v>
+        <v>128.21500391304346</v>
       </c>
       <c r="J29" s="10">
         <f t="shared" si="3"/>
-        <v>-2.0002173913042043E-2</v>
+        <v>4.920003913043459</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -5216,11 +5214,11 @@
       </c>
       <c r="F30" s="10">
         <f>_xll.qlQuoteValue(E30,Trigger)</f>
-        <v>117.045</v>
+        <v>116.22</v>
       </c>
       <c r="G30" s="7" t="str">
         <f>_xll.qlBondHelper(,E30,$A30,,,Trigger)</f>
-        <v>obj_00d7c#0001</v>
+        <v>obj_00a28#0000</v>
       </c>
       <c r="H30" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A30,$H$1)</f>
@@ -5228,11 +5226,11 @@
       </c>
       <c r="I30" s="10">
         <f>_xll.qlBondCleanPrice($A30,H30)</f>
-        <v>117.01499913043477</v>
+        <v>122.34499956521738</v>
       </c>
       <c r="J30" s="10">
         <f>I30-F30</f>
-        <v>-3.0000869565228072E-2</v>
+        <v>6.1249995652173794</v>
       </c>
       <c r="K30" s="5"/>
     </row>
@@ -5258,11 +5256,11 @@
       </c>
       <c r="F31" s="10">
         <f>_xll.qlQuoteValue(E31,Trigger)</f>
-        <v>119.28</v>
+        <v>118.465</v>
       </c>
       <c r="G31" s="7" t="str">
         <f>_xll.qlBondHelper(,E31,$A31,,,Trigger)</f>
-        <v>obj_00d63#0001</v>
+        <v>obj_00a33#0000</v>
       </c>
       <c r="H31" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A31,$H$1)</f>
@@ -5270,11 +5268,11 @@
       </c>
       <c r="I31" s="10">
         <f>_xll.qlBondCleanPrice($A31,H31)</f>
-        <v>119.24499630434782</v>
+        <v>124.61000065217391</v>
       </c>
       <c r="J31" s="10">
         <f>I31-F31</f>
-        <v>-3.500369565217909E-2</v>
+        <v>6.1450006521739056</v>
       </c>
       <c r="K31" s="5"/>
     </row>
@@ -5300,11 +5298,11 @@
       </c>
       <c r="F32" s="10">
         <f>_xll.qlQuoteValue(E32,Trigger)</f>
-        <v>154.63999999999999</v>
+        <v>153.465</v>
       </c>
       <c r="G32" s="7" t="str">
         <f>_xll.qlBondHelper(,E32,$A32,,,Trigger)</f>
-        <v>obj_00d60#0001</v>
+        <v>obj_00a18#0000</v>
       </c>
       <c r="H32" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A32,$H$1)</f>
@@ -5312,11 +5310,11 @@
       </c>
       <c r="I32" s="10">
         <f>_xll.qlBondCleanPrice($A32,H32)</f>
-        <v>154.61499826086958</v>
+        <v>157.1699991304348</v>
       </c>
       <c r="J32" s="10">
         <f t="shared" si="3"/>
-        <v>-2.5001739130402711E-2</v>
+        <v>3.7049991304347998</v>
       </c>
       <c r="K32" s="5"/>
     </row>
@@ -5342,11 +5340,11 @@
       </c>
       <c r="F33" s="10">
         <f>_xll.qlQuoteValue(E33,Trigger)</f>
-        <v>117.43</v>
+        <v>116.58</v>
       </c>
       <c r="G33" s="7" t="str">
         <f>_xll.qlBondHelper(,E33,$A33,,,Trigger)</f>
-        <v>obj_00d5a#0001</v>
+        <v>obj_00a17#0000</v>
       </c>
       <c r="H33" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A33,$H$1)</f>
@@ -5354,11 +5352,11 @@
       </c>
       <c r="I33" s="10">
         <f>_xll.qlBondCleanPrice($A33,H33)</f>
-        <v>117.40999696132594</v>
+        <v>123.15499604395606</v>
       </c>
       <c r="J33" s="10">
         <f t="shared" si="3"/>
-        <v>-2.0003038674062168E-2</v>
+        <v>6.5749960439560624</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -5384,11 +5382,11 @@
       </c>
       <c r="F34" s="10">
         <f>_xll.qlQuoteValue(E34,Trigger)</f>
-        <v>110.77500000000001</v>
+        <v>109.91</v>
       </c>
       <c r="G34" s="7" t="str">
         <f>_xll.qlBondHelper(,E34,$A34,,,Trigger)</f>
-        <v>obj_00d68#0001</v>
+        <v>obj_00a25#0000</v>
       </c>
       <c r="H34" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A34,$H$1)</f>
@@ -5396,11 +5394,11 @@
       </c>
       <c r="I34" s="10">
         <f>_xll.qlBondCleanPrice($A34,H34)</f>
-        <v>110.74999580110496</v>
+        <v>117.6749967032967</v>
       </c>
       <c r="J34" s="10">
         <f t="shared" si="3"/>
-        <v>-2.5004198895047125E-2</v>
+        <v>7.7649967032967027</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -5426,11 +5424,11 @@
       </c>
       <c r="F35" s="10">
         <f>_xll.qlQuoteValue(E35,Trigger)</f>
-        <v>100.315</v>
+        <v>99.37</v>
       </c>
       <c r="G35" s="7" t="str">
         <f>_xll.qlBondHelper(,E35,$A35,,,Trigger)</f>
-        <v>obj_00d79#0001</v>
+        <v>obj_00a2a#0000</v>
       </c>
       <c r="H35" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A35,$H$1)</f>
@@ -5438,11 +5436,11 @@
       </c>
       <c r="I35" s="10">
         <f>_xll.qlBondCleanPrice($A35,H35)</f>
-        <v>100.26500005464482</v>
+        <v>107.36500174863387</v>
       </c>
       <c r="J35" s="10">
         <f t="shared" si="3"/>
-        <v>-4.9999945355182263E-2</v>
+        <v>7.995001748633868</v>
       </c>
       <c r="K35" s="5"/>
     </row>
@@ -5468,11 +5466,11 @@
       </c>
       <c r="F36" s="10">
         <f>_xll.qlQuoteValue(E36,Trigger)</f>
-        <v>121.55</v>
+        <v>120.565</v>
       </c>
       <c r="G36" s="7" t="str">
         <f>_xll.qlBondHelper(,E36,$A36,,,Trigger)</f>
-        <v>obj_00d7b#0001</v>
+        <v>obj_00a27#0000</v>
       </c>
       <c r="H36" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A36,$H$1)</f>
@@ -5480,11 +5478,11 @@
       </c>
       <c r="I36" s="10">
         <f>_xll.qlBondCleanPrice($A36,H36)</f>
-        <v>121.50999773480662</v>
+        <v>129.00999560439558</v>
       </c>
       <c r="J36" s="10">
         <f t="shared" ref="J36:J48" si="4">I36-F36</f>
-        <v>-4.0002265193379571E-2</v>
+        <v>8.4449956043955865</v>
       </c>
       <c r="K36" s="5"/>
     </row>
@@ -5510,11 +5508,11 @@
       </c>
       <c r="F37" s="10">
         <f>_xll.qlQuoteValue(E37,Trigger)</f>
-        <v>116.72999999999999</v>
+        <v>137.07999999999998</v>
       </c>
       <c r="G37" s="7" t="str">
         <f>_xll.qlBondHelper(,E37,$A37,,,Trigger)</f>
-        <v>obj_00d78#0001</v>
+        <v>obj_00a3d#0000</v>
       </c>
       <c r="H37" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A37,$H$1)</f>
@@ -5522,20 +5520,20 @@
       </c>
       <c r="I37" s="10">
         <f>_xll.qlBondCleanPrice($A37,H37)</f>
-        <v>116.71999696132596</v>
+        <v>125.88499604395606</v>
       </c>
       <c r="J37" s="10">
         <f t="shared" si="4"/>
-        <v>-1.000303867402863E-2</v>
+        <v>-11.195003956043919</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="15">
         <f>M37</f>
-        <v>41933</v>
+        <v>42292</v>
       </c>
       <c r="M37" s="14">
         <f t="array" ref="M37:M70">_xll.qlPiecewiseYieldCurveDates(L2)</f>
-        <v>41933</v>
+        <v>42292</v>
       </c>
       <c r="N37" s="13">
         <f t="array" ref="N37:N70">_xll.qlPiecewiseYieldCurveData(L2)</f>
@@ -5555,7 +5553,7 @@
         <v>46327</v>
       </c>
       <c r="D38" s="8" t="b">
-        <f t="shared" ref="D36:D48" si="5">NOT(ISERROR(F38))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E38" s="8" t="str">
@@ -5564,11 +5562,11 @@
       </c>
       <c r="F38" s="10">
         <f>_xll.qlQuoteValue(E38,Trigger)</f>
-        <v>145.16</v>
+        <v>117.80500000000001</v>
       </c>
       <c r="G38" s="7" t="str">
         <f>_xll.qlBondHelper(,E38,$A38,,,Trigger)</f>
-        <v>obj_00d67#0001</v>
+        <v>obj_00a1c#0000</v>
       </c>
       <c r="H38" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A38,$H$1)</f>
@@ -5576,21 +5574,21 @@
       </c>
       <c r="I38" s="10">
         <f>_xll.qlBondCleanPrice($A38,H38)</f>
-        <v>145.18499804347826</v>
+        <v>153.91500152173916</v>
       </c>
       <c r="J38" s="10">
         <f t="shared" si="4"/>
-        <v>2.4998043478262844E-2</v>
+        <v>36.11000152173915</v>
       </c>
       <c r="L38" s="15">
         <f>M38-M37</f>
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="M38" s="14">
-        <v>42037</v>
+        <v>42310</v>
       </c>
       <c r="N38" s="13">
-        <v>0.99923585759140032</v>
+        <v>1.0000286999357464</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -5606,7 +5604,7 @@
         <v>46692</v>
       </c>
       <c r="D39" s="8" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E39" s="8" t="str">
@@ -5615,11 +5613,11 @@
       </c>
       <c r="F39" s="10">
         <f>_xll.qlQuoteValue(E39,Trigger)</f>
-        <v>137.98000000000002</v>
+        <v>124.14500000000001</v>
       </c>
       <c r="G39" s="7" t="str">
         <f>_xll.qlBondHelper(,E39,$A39,,,Trigger)</f>
-        <v>obj_00d82#0001</v>
+        <v>obj_00a2f#0000</v>
       </c>
       <c r="H39" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A39,$H$1)</f>
@@ -5627,21 +5625,21 @@
       </c>
       <c r="I39" s="10">
         <f>_xll.qlBondCleanPrice($A39,H39)</f>
-        <v>137.95499652173916</v>
+        <v>148.39499826086956</v>
       </c>
       <c r="J39" s="10">
         <f t="shared" si="4"/>
-        <v>-2.5003478260856582E-2</v>
+        <v>24.249998260869546</v>
       </c>
       <c r="L39" s="15">
-        <f t="shared" ref="L39:L70" si="6">M39-M38</f>
-        <v>182</v>
+        <f t="shared" ref="L39:L70" si="5">M39-M38</f>
+        <v>165</v>
       </c>
       <c r="M39" s="14">
-        <v>42219</v>
+        <v>42475</v>
       </c>
       <c r="N39" s="13">
-        <v>0.99656285031373515</v>
+        <v>1.0000588957055216</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -5657,7 +5655,7 @@
         <v>46997</v>
       </c>
       <c r="D40" s="8" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E40" s="8" t="str">
@@ -5666,11 +5664,11 @@
       </c>
       <c r="F40" s="10">
         <f>_xll.qlQuoteValue(E40,Trigger)</f>
-        <v>118.68</v>
+        <v>103.58500000000001</v>
       </c>
       <c r="G40" s="7" t="str">
         <f>_xll.qlBondHelper(,E40,$A40,,,Trigger)</f>
-        <v>obj_00d69#0001</v>
+        <v>obj_00a30#0000</v>
       </c>
       <c r="H40" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A40,$H$1)</f>
@@ -5678,21 +5676,21 @@
       </c>
       <c r="I40" s="10">
         <f>_xll.qlBondCleanPrice($A40,H40)</f>
-        <v>118.64499734806631</v>
+        <v>130.76999582419279</v>
       </c>
       <c r="J40" s="10">
         <f t="shared" si="4"/>
-        <v>-3.5002651933695006E-2</v>
+        <v>27.184995824192782</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" si="6"/>
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>108</v>
       </c>
       <c r="M40" s="14">
-        <v>42310</v>
+        <v>42583</v>
       </c>
       <c r="N40" s="13">
-        <v>0.99511449973550314</v>
+        <v>0.99986926397063758</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -5708,7 +5706,7 @@
         <v>47423</v>
       </c>
       <c r="D41" s="8" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E41" s="8" t="str">
@@ -5717,11 +5715,11 @@
       </c>
       <c r="F41" s="10">
         <f>_xll.qlQuoteValue(E41,Trigger)</f>
-        <v>125.065</v>
+        <v>134.625</v>
       </c>
       <c r="G41" s="7" t="str">
         <f>_xll.qlBondHelper(,E41,$A41,,,Trigger)</f>
-        <v>obj_00d73#0001</v>
+        <v>obj_00a39#0000</v>
       </c>
       <c r="H41" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A41,$H$1)</f>
@@ -5729,21 +5727,21 @@
       </c>
       <c r="I41" s="10">
         <f>_xll.qlBondCleanPrice($A41,H41)</f>
-        <v>125.06000065217398</v>
+        <v>138.28000282608696</v>
       </c>
       <c r="J41" s="10">
         <f t="shared" si="4"/>
-        <v>-4.9993478260148549E-3</v>
+        <v>3.6550028260869567</v>
       </c>
       <c r="L41" s="15">
-        <f t="shared" si="6"/>
-        <v>165</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
       <c r="M41" s="14">
-        <v>42475</v>
+        <v>42628</v>
       </c>
       <c r="N41" s="13">
-        <v>0.99156175457618856</v>
+        <v>0.99974463602507069</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -5759,7 +5757,7 @@
         <v>47969</v>
       </c>
       <c r="D42" s="8" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E42" s="8" t="str">
@@ -5768,11 +5766,11 @@
       </c>
       <c r="F42" s="10">
         <f>_xll.qlQuoteValue(E42,Trigger)</f>
-        <v>135.64499999999998</v>
+        <v>121.45500000000001</v>
       </c>
       <c r="G42" s="7" t="str">
         <f>_xll.qlBondHelper(,E42,$A42,,,Trigger)</f>
-        <v>obj_00d85#0001</v>
+        <v>obj_00a1f#0000</v>
       </c>
       <c r="H42" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A42,$H$1)</f>
@@ -5780,21 +5778,21 @@
       </c>
       <c r="I42" s="10">
         <f>_xll.qlBondCleanPrice($A42,H42)</f>
-        <v>135.64500217391355</v>
+        <v>149.93499608695834</v>
       </c>
       <c r="J42" s="10">
         <f t="shared" si="4"/>
-        <v>2.1739135718235048E-6</v>
+        <v>28.479996086958323</v>
       </c>
       <c r="L42" s="15">
-        <f t="shared" si="6"/>
-        <v>108</v>
+        <f t="shared" si="5"/>
+        <v>139</v>
       </c>
       <c r="M42" s="14">
-        <v>42583</v>
+        <v>42767</v>
       </c>
       <c r="N42" s="13">
-        <v>0.98833003339552994</v>
+        <v>0.99925380545949016</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -5810,7 +5808,7 @@
         <v>48611</v>
       </c>
       <c r="D43" s="8" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E43" s="8" t="str">
@@ -5819,11 +5817,11 @@
       </c>
       <c r="F43" s="10">
         <f>_xll.qlQuoteValue(E43,Trigger)</f>
-        <v>132.995</v>
+        <v>120.33500000000001</v>
       </c>
       <c r="G43" s="7" t="str">
         <f>_xll.qlBondHelper(,E43,$A43,,,Trigger)</f>
-        <v>obj_00d5f#0001</v>
+        <v>obj_00a31#0000</v>
       </c>
       <c r="H43" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A43,$H$1)</f>
@@ -5831,21 +5829,21 @@
       </c>
       <c r="I43" s="10">
         <f>_xll.qlBondCleanPrice($A43,H43)</f>
-        <v>132.99499500000826</v>
+        <v>148.73499500000983</v>
       </c>
       <c r="J43" s="10">
         <f t="shared" si="4"/>
-        <v>-4.9999917450804787E-6</v>
+        <v>28.399995000009824</v>
       </c>
       <c r="L43" s="15">
-        <f t="shared" si="6"/>
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
       <c r="M43" s="14">
-        <v>42628</v>
+        <v>42857</v>
       </c>
       <c r="N43" s="13">
-        <v>0.98655828256801892</v>
+        <v>0.99879300834483475</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -5861,7 +5859,7 @@
         <v>49157</v>
       </c>
       <c r="D44" s="8" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E44" s="8" t="str">
@@ -5870,11 +5868,11 @@
       </c>
       <c r="F44" s="10">
         <f>_xll.qlQuoteValue(E44,Trigger)</f>
-        <v>122.27500000000001</v>
+        <v>119.51</v>
       </c>
       <c r="G44" s="7" t="str">
         <f>_xll.qlBondHelper(,E44,$A44,,,Trigger)</f>
-        <v>obj_00d6a#0001</v>
+        <v>obj_00a2b#0000</v>
       </c>
       <c r="H44" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A44,$H$1)</f>
@@ -5882,21 +5880,21 @@
       </c>
       <c r="I44" s="10">
         <f>_xll.qlBondCleanPrice($A44,H44)</f>
-        <v>122.27000347826134</v>
+        <v>139.17500173913058</v>
       </c>
       <c r="J44" s="10">
         <f t="shared" si="4"/>
-        <v>-4.9965217386613858E-3</v>
+        <v>19.665001739130574</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" si="6"/>
-        <v>139</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="M44" s="14">
-        <v>42767</v>
+        <v>42870</v>
       </c>
       <c r="N44" s="13">
-        <v>0.98211637479271108</v>
+        <v>0.99879070510652057</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -5912,7 +5910,7 @@
         <v>50072</v>
       </c>
       <c r="D45" s="8" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E45" s="8" t="str">
@@ -5921,11 +5919,11 @@
       </c>
       <c r="F45" s="10">
         <f>_xll.qlQuoteValue(E45,Trigger)</f>
-        <v>107.16499999999999</v>
+        <v>115.77500000000001</v>
       </c>
       <c r="G45" s="7" t="str">
         <f>_xll.qlBondHelper(,E45,$A45,,,Trigger)</f>
-        <v>obj_00d6c#0001</v>
+        <v>obj_00a41#0000</v>
       </c>
       <c r="H45" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A45,$H$1)</f>
@@ -5933,21 +5931,21 @@
       </c>
       <c r="I45" s="10">
         <f>_xll.qlBondCleanPrice($A45,H45)</f>
-        <v>107.08000478261026</v>
+        <v>124.02499739128173</v>
       </c>
       <c r="J45" s="10">
         <f t="shared" si="4"/>
-        <v>-8.4995217389732147E-2</v>
+        <v>8.2499973912817239</v>
       </c>
       <c r="L45" s="15">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="M45" s="14">
-        <v>42857</v>
+        <v>42887</v>
       </c>
       <c r="N45" s="13">
-        <v>0.97837933697774138</v>
+        <v>0.99844937734617001</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -5963,20 +5961,20 @@
         <v>50983</v>
       </c>
       <c r="D46" s="8" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E46" s="8" t="str">
         <f t="shared" si="2"/>
         <v>IT0004286966_Quote</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="10" t="e">
         <f>_xll.qlQuoteValue(E46,Trigger)</f>
-        <v>121.14</v>
+        <v>#NUM!</v>
       </c>
       <c r="G46" s="7" t="str">
         <f>_xll.qlBondHelper(,E46,$A46,,,Trigger)</f>
-        <v>obj_00d59#0001</v>
+        <v>obj_00a35#0000</v>
       </c>
       <c r="H46" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A46,$H$1)</f>
@@ -5984,21 +5982,21 @@
       </c>
       <c r="I46" s="10">
         <f>_xll.qlBondCleanPrice($A46,H46)</f>
-        <v>121.14000347826088</v>
-      </c>
-      <c r="J46" s="10">
+        <v>142.51500173913041</v>
+      </c>
+      <c r="J46" s="10" t="e">
         <f t="shared" si="4"/>
-        <v>3.4782608793193504E-6</v>
+        <v>#NUM!</v>
       </c>
       <c r="L46" s="15">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>61</v>
       </c>
       <c r="M46" s="14">
-        <v>42887</v>
+        <v>42948</v>
       </c>
       <c r="N46" s="13">
-        <v>0.9772290670780458</v>
+        <v>0.99841321039277053</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -6014,20 +6012,20 @@
         <v>51380</v>
       </c>
       <c r="D47" s="8" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E47" s="8" t="str">
         <f t="shared" si="2"/>
         <v>IT0004532559_Quote</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="10" t="e">
         <f>_xll.qlQuoteValue(E47,Trigger)</f>
-        <v>120.185</v>
+        <v>#NUM!</v>
       </c>
       <c r="G47" s="7" t="str">
         <f>_xll.qlBondHelper(,E47,$A47,,,Trigger)</f>
-        <v>obj_00d5d#0001</v>
+        <v>obj_00a14#0000</v>
       </c>
       <c r="H47" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A47,$H$1)</f>
@@ -6035,21 +6033,21 @@
       </c>
       <c r="I47" s="10">
         <f>_xll.qlBondCleanPrice($A47,H47)</f>
-        <v>120.18499773480674</v>
-      </c>
-      <c r="J47" s="10">
+        <v>142.40499560439568</v>
+      </c>
+      <c r="J47" s="10" t="e">
         <f t="shared" si="4"/>
-        <v>-2.2651932596318147E-6</v>
+        <v>#NUM!</v>
       </c>
       <c r="L47" s="15">
-        <f t="shared" si="6"/>
-        <v>61</v>
+        <f t="shared" si="5"/>
+        <v>92</v>
       </c>
       <c r="M47" s="14">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="N47" s="13">
-        <v>0.97527063767642652</v>
+        <v>0.99760259236144722</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -6065,20 +6063,20 @@
         <v>52841</v>
       </c>
       <c r="D48" s="8" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E48" s="8" t="str">
         <f t="shared" si="2"/>
         <v>IT0004923998_Quote</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="10" t="e">
         <f>_xll.qlQuoteValue(E48,Trigger)</f>
-        <v>116.36</v>
+        <v>#NUM!</v>
       </c>
       <c r="G48" s="7" t="str">
         <f>_xll.qlBondHelper(,E48,$A48,,,Trigger)</f>
-        <v>obj_00d80#0001</v>
+        <v>obj_00a2e#0000</v>
       </c>
       <c r="H48" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A48,$H$1)</f>
@@ -6086,21 +6084,21 @@
       </c>
       <c r="I48" s="10">
         <f>_xll.qlBondCleanPrice($A48,H48)</f>
-        <v>116.33999734806645</v>
-      </c>
-      <c r="J48" s="10">
+        <v>140.83499582417579</v>
+      </c>
+      <c r="J48" s="10" t="e">
         <f t="shared" si="4"/>
-        <v>-2.0002651933552329E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" si="6"/>
-        <v>92</v>
+        <f t="shared" si="5"/>
+        <v>75</v>
       </c>
       <c r="M48" s="14">
-        <v>43040</v>
+        <v>43115</v>
       </c>
       <c r="N48" s="13">
-        <v>0.97221056343920176</v>
+        <v>0.99614816781328119</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -6109,14 +6107,14 @@
       </c>
       <c r="J49" s="5"/>
       <c r="L49" s="15">
-        <f t="shared" si="6"/>
-        <v>92</v>
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="M49" s="14">
         <v>43132</v>
       </c>
       <c r="N49" s="13">
-        <v>0.96755484820936999</v>
+        <v>0.99581966641377961</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -6125,14 +6123,14 @@
       </c>
       <c r="J50" s="5"/>
       <c r="L50" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="M50" s="14">
         <v>43252</v>
       </c>
       <c r="N50" s="13">
-        <v>0.96210022161303033</v>
+        <v>0.99331084671006187</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -6141,14 +6139,14 @@
       </c>
       <c r="J51" s="5"/>
       <c r="L51" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="M51" s="14">
         <v>43313</v>
       </c>
       <c r="N51" s="13">
-        <v>0.95936904470354012</v>
+        <v>0.99258647082032225</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -6157,14 +6155,14 @@
       </c>
       <c r="J52" s="5"/>
       <c r="L52" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
       <c r="M52" s="14">
         <v>43437</v>
       </c>
       <c r="N52" s="13">
-        <v>0.95498793278921867</v>
+        <v>0.98983866998531855</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -6173,225 +6171,225 @@
       </c>
       <c r="J53" s="5"/>
       <c r="L53" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="M53" s="14">
         <v>43497</v>
       </c>
       <c r="N53" s="13">
-        <v>0.95152584033511123</v>
+        <v>0.98737766919328029</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J54" s="5"/>
       <c r="L54" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="M54" s="14">
         <v>43525</v>
       </c>
       <c r="N54" s="13">
-        <v>0.95085103496257117</v>
+        <v>0.98645053866115884</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J55" s="5"/>
       <c r="L55" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="M55" s="14">
         <v>43710</v>
       </c>
       <c r="N55" s="13">
-        <v>0.93944880154297339</v>
+        <v>0.97993793865033008</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J56" s="5"/>
       <c r="L56" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>154</v>
       </c>
       <c r="M56" s="14">
         <v>43864</v>
       </c>
       <c r="N56" s="13">
-        <v>0.92775350619872299</v>
+        <v>0.97344410042484286</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J57" s="5"/>
       <c r="L57" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="M57" s="14">
         <v>43892</v>
       </c>
       <c r="N57" s="13">
-        <v>0.92602085830401304</v>
+        <v>0.97281560700154734</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J58" s="5"/>
       <c r="L58" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>183</v>
       </c>
       <c r="M58" s="14">
         <v>44075</v>
       </c>
       <c r="N58" s="13">
-        <v>0.91123896960001172</v>
+        <v>0.963105519724611</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J59" s="5"/>
       <c r="L59" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>181</v>
       </c>
       <c r="M59" s="14">
         <v>44256</v>
       </c>
       <c r="N59" s="13">
-        <v>0.89484261006135979</v>
+        <v>0.95161857643369085</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J60" s="5"/>
       <c r="L60" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="M60" s="14">
         <v>44319</v>
       </c>
       <c r="N60" s="13">
-        <v>0.88614679846042443</v>
+        <v>0.94703330009394371</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L61" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="M61" s="14">
         <v>44410</v>
       </c>
       <c r="N61" s="13">
-        <v>0.87843573644016359</v>
+        <v>0.94039963394739279</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L62" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="M62" s="14">
         <v>44440</v>
       </c>
       <c r="N62" s="13">
-        <v>0.87471613129285231</v>
+        <v>0.9377649460148243</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L63" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>181</v>
       </c>
       <c r="M63" s="14">
         <v>44621</v>
       </c>
       <c r="N63" s="13">
-        <v>0.85524121313771773</v>
+        <v>0.92736323082395344</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L64" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>184</v>
       </c>
       <c r="M64" s="14">
         <v>44805</v>
       </c>
       <c r="N64" s="13">
-        <v>0.83500275859025497</v>
+        <v>0.91241805732977765</v>
       </c>
     </row>
     <row r="65" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L65" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="M65" s="14">
         <v>44866</v>
       </c>
       <c r="N65" s="13">
-        <v>0.82742158519095121</v>
+        <v>0.90614482498806137</v>
       </c>
     </row>
     <row r="66" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L66" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
       <c r="M66" s="14">
         <v>45048</v>
       </c>
       <c r="N66" s="13">
-        <v>0.81350471364468346</v>
+        <v>0.89565711712759022</v>
       </c>
     </row>
     <row r="67" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L67" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="M67" s="14">
         <v>45139</v>
       </c>
       <c r="N67" s="13">
-        <v>0.80639880113564733</v>
+        <v>0.88954265811716859</v>
       </c>
     </row>
     <row r="68" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L68" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="M68" s="14">
         <v>45231</v>
       </c>
       <c r="N68" s="13">
-        <v>0.79768930579678676</v>
+        <v>0.87742841541934191</v>
       </c>
     </row>
     <row r="69" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L69" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="M69" s="14">
         <v>45352</v>
       </c>
       <c r="N69" s="13">
-        <v>0.78766933515944404</v>
+        <v>0.87088771686281119</v>
       </c>
     </row>
     <row r="70" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L70" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="M70" s="14">
         <v>45537</v>
       </c>
       <c r="N70" s="13">
-        <v>0.77101786107111858</v>
+        <v>0.86007175203501807</v>
       </c>
     </row>
   </sheetData>

--- a/QuantLibXL/Data2/XLS/EUR/EUR_YCBondItaly.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_YCBondItaly.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="285" windowWidth="30690" windowHeight="9930"/>
+    <workbookView xWindow="2310" yWindow="285" windowWidth="19440" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -261,82 +261,82 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>42310</c:v>
+                  <c:v>42475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42475</c:v>
+                  <c:v>42583</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42583</c:v>
+                  <c:v>42628</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42628</c:v>
+                  <c:v>42767</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42767</c:v>
+                  <c:v>42857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42857</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42870</c:v>
+                  <c:v>42887</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42887</c:v>
+                  <c:v>42948</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42948</c:v>
+                  <c:v>43040</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43040</c:v>
+                  <c:v>43115</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43115</c:v>
+                  <c:v>43132</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43132</c:v>
+                  <c:v>43252</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43252</c:v>
+                  <c:v>43313</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43313</c:v>
+                  <c:v>43437</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43437</c:v>
+                  <c:v>43497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43497</c:v>
+                  <c:v>43525</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43525</c:v>
+                  <c:v>43587</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>43710</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
+                  <c:v>43801</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>43864</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>43892</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>44075</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>44256</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>44319</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44410</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44440</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -348,82 +348,82 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1.0000286999357464</c:v>
+                  <c:v>1.000288605048778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0000588957055216</c:v>
+                  <c:v>1.00053674914043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99986926397063758</c:v>
+                  <c:v>1.0004551126563614</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99974463602507069</c:v>
+                  <c:v>1.0007403912579664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99925380545949016</c:v>
+                  <c:v>1.0007696308734748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99879300834483475</c:v>
+                  <c:v>1.0007783604831373</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99879070510652057</c:v>
+                  <c:v>1.0008394430161558</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99844937734617001</c:v>
+                  <c:v>1.0010406952751085</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99841321039277053</c:v>
+                  <c:v>1.0012530625748683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99760259236144722</c:v>
+                  <c:v>1.0013991538934339</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99614816781328119</c:v>
+                  <c:v>1.0010484347398749</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99581966641377961</c:v>
+                  <c:v>1.0007487976011948</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99331084671006187</c:v>
+                  <c:v>1.0002918677162591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99258647082032225</c:v>
+                  <c:v>0.99994967823213254</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.98983866998531855</c:v>
+                  <c:v>0.99906224676602218</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.98737766919328029</c:v>
+                  <c:v>0.99867875407742113</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.98645053866115884</c:v>
+                  <c:v>0.9972966372534362</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97993793865033008</c:v>
+                  <c:v>0.99573630013697989</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97344410042484286</c:v>
+                  <c:v>0.99449415581755229</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97281560700154734</c:v>
+                  <c:v>0.99362047073735116</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.963105519724611</c:v>
+                  <c:v>0.99184244538967392</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.95161857643369085</c:v>
+                  <c:v>0.99103466909919413</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94703330009394371</c:v>
+                  <c:v>0.98913636809542382</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.94039963394739279</c:v>
+                  <c:v>0.98525978694273997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9377649460148243</c:v>
+                  <c:v>0.97690471191049633</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.92736323082395344</c:v>
+                  <c:v>0.97331816172171937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -438,11 +438,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="777595136"/>
-        <c:axId val="777601408"/>
+        <c:axId val="621639552"/>
+        <c:axId val="621645824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="777595136"/>
+        <c:axId val="621639552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40921"/>
@@ -478,14 +478,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="777601408"/>
+        <c:crossAx val="621645824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1826.25"/>
         <c:minorUnit val="365.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="777601408"/>
+        <c:axId val="621645824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -532,7 +532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="777595136"/>
+        <c:crossAx val="621639552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.05"/>
@@ -593,16 +593,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -933,16 +933,14 @@
       </c>
       <c r="B1" s="18">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42290</v>
+        <v>42436</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16">
-        <v>42290.459317129629</v>
-      </c>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -980,7 +978,9 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="H1" s="3" t="str">
         <f>_xll.qlBondEngine(,L2)</f>
-        <v>obj_00a7f#0002</v>
+        <v>obj_0080a#0003</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -1039,15 +1039,15 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="str">
         <f t="array" ref="A2:A70">_xll.qlBondAlive("BTPs",EvaluationDate+365)</f>
-        <v>IT0004960826</v>
+        <v>IT0004793474</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>_xll.qlBondDescription(A2)</f>
-        <v>BTP 2016-11-15 2.75%</v>
+        <v>BTP 2017-05-01 4.75%</v>
       </c>
       <c r="C2" s="11">
         <f>_xll.qlBondMaturityDate(A2)</f>
-        <v>42689</v>
+        <v>42856</v>
       </c>
       <c r="D2" s="8" t="b">
         <f>NOT(ISERROR(A2))</f>
@@ -1055,15 +1055,15 @@
       </c>
       <c r="E2" s="8" t="str">
         <f>A2&amp;$E$1</f>
-        <v>IT0004960826_Quote</v>
+        <v>IT0004793474_Quote</v>
       </c>
       <c r="F2" s="10">
         <f>_xll.qlQuoteValue(E2,Trigger)</f>
-        <v>102.5125</v>
+        <v>105.52250000000001</v>
       </c>
       <c r="G2" s="7" t="str">
         <f>_xll.qlBondHelper(,E2,A2,,,Trigger)</f>
-        <v>obj_00a77#0000</v>
+        <v>obj_007e1#0003</v>
       </c>
       <c r="H2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A2,$H$1)</f>
@@ -1071,29 +1071,29 @@
       </c>
       <c r="I2" s="10">
         <f>_xll.qlBondCleanPrice(A2,H2)</f>
-        <v>102.93900239130438</v>
+        <v>105.5224991208793</v>
       </c>
       <c r="J2" s="10">
         <f>I2-F2</f>
-        <v>0.42650239130438194</v>
+        <v>-8.7912070512174978E-7</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="3" t="str">
         <f>_xll.qlPiecewiseYieldCurve(L1,_xll.qlBondSettlementDays(A26),"TARGET",_xll.ohFilter(G2:G70,D2:D70),,,,,TraitsID,InterpolatorID)</f>
-        <v>Btp#0002</v>
+        <v>Btp#0003</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="str">
-        <v>IT0004987191</v>
+        <v>IT0005023459</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>_xll.qlBondDescription(A3)</f>
-        <v>BTP 2016-12-15 1.5%</v>
+        <v>BTP 2017-05-15 1.15%</v>
       </c>
       <c r="C3" s="11">
         <f>_xll.qlBondMaturityDate(A3)</f>
-        <v>42719</v>
+        <v>42870</v>
       </c>
       <c r="D3" s="8" t="b">
         <f t="shared" ref="D3:D66" si="0">NOT(ISERROR(A3))</f>
@@ -1101,15 +1101,15 @@
       </c>
       <c r="E3" s="8" t="str">
         <f t="shared" ref="E3:E49" si="1">A3&amp;$E$1</f>
-        <v>IT0004987191_Quote</v>
+        <v>IT0005023459_Quote</v>
       </c>
       <c r="F3" s="10">
         <f>_xll.qlQuoteValue(E3,Trigger)</f>
-        <v>102.52449999999999</v>
+        <v>101.4405</v>
       </c>
       <c r="G3" s="7" t="str">
         <f>_xll.qlBondHelper(,E3,A3,,,Trigger)</f>
-        <v>obj_00a61#0000</v>
+        <v>obj_00801#0003</v>
       </c>
       <c r="H3" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A3,$H$1)</f>
@@ -1117,26 +1117,26 @@
       </c>
       <c r="I3" s="10">
         <f>_xll.qlBondCleanPrice(A3,H3)</f>
-        <v>101.71199999999997</v>
+        <v>101.44050417582419</v>
       </c>
       <c r="J3" s="10">
         <f t="shared" ref="J3:J66" si="2">I3-F3</f>
-        <v>-0.81250000000001421</v>
+        <v>4.1758241877687396E-6</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="str">
-        <v>IT0004164775</v>
+        <v>IT0004820426</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>_xll.qlBondDescription(A4)</f>
-        <v>BTP 2017-02-01 4%</v>
+        <v>BTP 2017-06-01 4.75%</v>
       </c>
       <c r="C4" s="11">
         <f>_xll.qlBondMaturityDate(A4)</f>
-        <v>42767</v>
+        <v>42887</v>
       </c>
       <c r="D4" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1144,15 +1144,15 @@
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004164775_Quote</v>
+        <v>IT0004820426_Quote</v>
       </c>
       <c r="F4" s="10">
         <f>_xll.qlQuoteValue(E4,Trigger)</f>
-        <v>102.4135</v>
+        <v>105.9285</v>
       </c>
       <c r="G4" s="7" t="str">
         <f>_xll.qlBondHelper(,E4,A4,,,Trigger)</f>
-        <v>obj_00a73#0000</v>
+        <v>obj_007ff#0003</v>
       </c>
       <c r="H4" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A4,$H$1)</f>
@@ -1160,26 +1160,26 @@
       </c>
       <c r="I4" s="10">
         <f>_xll.qlBondCleanPrice(A4,H4)</f>
-        <v>105.10849739130435</v>
+        <v>105.92849606557378</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" si="2"/>
-        <v>2.694997391304355</v>
+        <v>-3.9344262177110068E-6</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="str">
-        <v>IT0004793474</v>
+        <v>IT0003242747</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>_xll.qlBondDescription(A5)</f>
-        <v>BTP 2017-05-01 4.75%</v>
+        <v>BTP 2017-08-01 5.25%</v>
       </c>
       <c r="C5" s="11">
         <f>_xll.qlBondMaturityDate(A5)</f>
-        <v>42856</v>
+        <v>42948</v>
       </c>
       <c r="D5" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1187,15 +1187,15 @@
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004793474_Quote</v>
+        <v>IT0003242747_Quote</v>
       </c>
       <c r="F5" s="10">
         <f>_xll.qlQuoteValue(E5,Trigger)</f>
-        <v>104.404</v>
+        <v>107.4515</v>
       </c>
       <c r="G5" s="7" t="str">
         <f>_xll.qlBondHelper(,E5,A5,,,Trigger)</f>
-        <v>obj_00a6f#0000</v>
+        <v>obj_007fb#0003</v>
       </c>
       <c r="H5" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A5,$H$1)</f>
@@ -1203,26 +1203,26 @@
       </c>
       <c r="I5" s="10">
         <f>_xll.qlBondCleanPrice(A5,H5)</f>
-        <v>107.22000065217391</v>
+        <v>107.45150384615386</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="2"/>
-        <v>2.816000652173912</v>
+        <v>3.8461538593992373E-6</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="str">
-        <v>IT0005023459</v>
+        <v>IT0004867070</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>_xll.qlBondDescription(A6)</f>
-        <v>BTP 2017-05-15 1.15%</v>
+        <v>BTP 2017-11-01 3.5%</v>
       </c>
       <c r="C6" s="11">
         <f>_xll.qlBondMaturityDate(A6)</f>
-        <v>42870</v>
+        <v>43040</v>
       </c>
       <c r="D6" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1230,15 +1230,15 @@
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005023459_Quote</v>
+        <v>IT0004867070_Quote</v>
       </c>
       <c r="F6" s="10">
         <f>_xll.qlQuoteValue(E6,Trigger)</f>
-        <v>102.27500000000001</v>
+        <v>105.89</v>
       </c>
       <c r="G6" s="7" t="str">
         <f>_xll.qlBondHelper(,E6,A6,,,Trigger)</f>
-        <v>obj_00a63#0000</v>
+        <v>obj_007fc#0003</v>
       </c>
       <c r="H6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A6,$H$1)</f>
@@ -1246,26 +1246,26 @@
       </c>
       <c r="I6" s="10">
         <f>_xll.qlBondCleanPrice(A6,H6)</f>
-        <v>101.70000499999998</v>
+        <v>105.89000461538464</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="2"/>
-        <v>-0.57499500000002968</v>
+        <v>4.6153846398055975E-6</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="str">
-        <v>IT0004820426</v>
+        <v>IT0005058463</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>_xll.qlBondDescription(A7)</f>
-        <v>BTP 2017-06-01 4.75%</v>
+        <v>BTP 2018-01-15 0.75%</v>
       </c>
       <c r="C7" s="11">
         <f>_xll.qlBondMaturityDate(A7)</f>
-        <v>42887</v>
+        <v>43115</v>
       </c>
       <c r="D7" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1273,15 +1273,15 @@
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004820426_Quote</v>
+        <v>IT0005058463_Quote</v>
       </c>
       <c r="F7" s="10">
         <f>_xll.qlQuoteValue(E7,Trigger)</f>
-        <v>105.19</v>
+        <v>101.53</v>
       </c>
       <c r="G7" s="7" t="str">
         <f>_xll.qlBondHelper(,E7,A7,,,Trigger)</f>
-        <v>obj_00a4c#0000</v>
+        <v>obj_007d9#0003</v>
       </c>
       <c r="H7" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A7,$H$1)</f>
@@ -1289,26 +1289,26 @@
       </c>
       <c r="I7" s="10">
         <f>_xll.qlBondCleanPrice(A7,H7)</f>
-        <v>107.57499732240439</v>
+        <v>101.53000373626372</v>
       </c>
       <c r="J7" s="10">
         <f t="shared" si="2"/>
-        <v>2.3849973224043879</v>
+        <v>3.736263721521027E-6</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="str">
-        <v>IT0003242747</v>
+        <v>IT0004273493</v>
       </c>
       <c r="B8" s="8" t="str">
         <f>_xll.qlBondDescription(A8)</f>
-        <v>BTP 2017-08-01 5.25%</v>
+        <v>BTP 2018-02-01 4.5%</v>
       </c>
       <c r="C8" s="11">
         <f>_xll.qlBondMaturityDate(A8)</f>
-        <v>42948</v>
+        <v>43132</v>
       </c>
       <c r="D8" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1316,15 +1316,15 @@
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0003242747_Quote</v>
+        <v>IT0004273493_Quote</v>
       </c>
       <c r="F8" s="10">
         <f>_xll.qlQuoteValue(E8,Trigger)</f>
-        <v>107.31</v>
+        <v>108.655</v>
       </c>
       <c r="G8" s="7" t="str">
         <f>_xll.qlBondHelper(,E8,A8,,,Trigger)</f>
-        <v>obj_00a6e#0000</v>
+        <v>obj_007e4#0003</v>
       </c>
       <c r="H8" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A8,$H$1)</f>
@@ -1332,26 +1332,26 @@
       </c>
       <c r="I8" s="10">
         <f>_xll.qlBondCleanPrice(A8,H8)</f>
-        <v>109.26500282608696</v>
+        <v>108.65499758241758</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>1.9550028260869539</v>
+        <v>-2.4175824222538722E-6</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="str">
-        <v>IT0004867070</v>
+        <v>IT0005106049</v>
       </c>
       <c r="B9" s="8" t="str">
         <f>_xll.qlBondDescription(A9)</f>
-        <v>BTP 2017-11-01 3.5%</v>
+        <v>BTP 2018-05-15 0.25%</v>
       </c>
       <c r="C9" s="11">
         <f>_xll.qlBondMaturityDate(A9)</f>
-        <v>43040</v>
+        <v>43235</v>
       </c>
       <c r="D9" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1359,15 +1359,15 @@
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004867070_Quote</v>
+        <v>IT0005106049_Quote</v>
       </c>
       <c r="F9" s="10">
         <f>_xll.qlQuoteValue(E9,Trigger)</f>
-        <v>103.72499999999999</v>
+        <v>100.645</v>
       </c>
       <c r="G9" s="7" t="str">
         <f>_xll.qlBondHelper(,E9,A9,,,Trigger)</f>
-        <v>obj_00a59#0000</v>
+        <v>obj_007d5#0003</v>
       </c>
       <c r="H9" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A9,$H$1)</f>
@@ -1375,26 +1375,26 @@
       </c>
       <c r="I9" s="10">
         <f>_xll.qlBondCleanPrice(A9,H9)</f>
-        <v>106.91499521739131</v>
+        <v>100.64500351648353</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="2"/>
-        <v>3.1899952173913135</v>
+        <v>3.5164835310297349E-6</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="str">
-        <v>IT0005058463</v>
+        <v>IT0004907843</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>_xll.qlBondDescription(A10)</f>
-        <v>BTP 2018-01-15 0.75%</v>
+        <v>BTP 2018-06-01 3.5%</v>
       </c>
       <c r="C10" s="11">
         <f>_xll.qlBondMaturityDate(A10)</f>
-        <v>43115</v>
+        <v>43252</v>
       </c>
       <c r="D10" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1402,15 +1402,15 @@
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005058463_Quote</v>
+        <v>IT0004907843_Quote</v>
       </c>
       <c r="F10" s="10">
         <f>_xll.qlQuoteValue(E10,Trigger)</f>
-        <v>101.19</v>
+        <v>107.88500000000001</v>
       </c>
       <c r="G10" s="7" t="str">
         <f>_xll.qlBondHelper(,E10,A10,,,Trigger)</f>
-        <v>obj_00a70#0000</v>
+        <v>obj_007fe#0003</v>
       </c>
       <c r="H10" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A10,$H$1)</f>
@@ -1418,26 +1418,26 @@
       </c>
       <c r="I10" s="10">
         <f>_xll.qlBondCleanPrice(A10,H10)</f>
-        <v>101.30000000000001</v>
+        <v>107.88500131147541</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="2"/>
-        <v>0.11000000000001364</v>
+        <v>1.3114754011667173E-6</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="str">
-        <v>IT0004273493</v>
+        <v>IT0004361041</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>_xll.qlBondDescription(A11)</f>
-        <v>BTP 2018-02-01 4.5%</v>
+        <v>BTP 2018-08-01 4.5%</v>
       </c>
       <c r="C11" s="11">
         <f>_xll.qlBondMaturityDate(A11)</f>
-        <v>43132</v>
+        <v>43313</v>
       </c>
       <c r="D11" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1445,15 +1445,15 @@
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004273493_Quote</v>
+        <v>IT0004361041_Quote</v>
       </c>
       <c r="F11" s="10">
         <f>_xll.qlQuoteValue(E11,Trigger)</f>
-        <v>106.86499999999999</v>
+        <v>110.83</v>
       </c>
       <c r="G11" s="7" t="str">
         <f>_xll.qlBondHelper(,E11,A11,,,Trigger)</f>
-        <v>obj_00a5d#0000</v>
+        <v>obj_007e3#0003</v>
       </c>
       <c r="H11" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A11,$H$1)</f>
@@ -1461,26 +1461,26 @@
       </c>
       <c r="I11" s="10">
         <f>_xll.qlBondCleanPrice(A11,H11)</f>
-        <v>109.8999995652174</v>
+        <v>110.82999758241759</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="2"/>
-        <v>3.0349995652174044</v>
+        <v>-2.4175824080430175E-6</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="str">
-        <v>IT0005106049</v>
+        <v>IT0004957574</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>_xll.qlBondDescription(A12)</f>
-        <v>BTP 2018-05-15 0.25%</v>
+        <v>BTP 2018-12-01 3.5%</v>
       </c>
       <c r="C12" s="11">
         <f>_xll.qlBondMaturityDate(A12)</f>
-        <v>43235</v>
+        <v>43435</v>
       </c>
       <c r="D12" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1488,15 +1488,15 @@
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005106049_Quote</v>
+        <v>IT0004957574_Quote</v>
       </c>
       <c r="F12" s="10">
         <f>_xll.qlQuoteValue(E12,Trigger)</f>
-        <v>109.36</v>
+        <v>109.55500000000001</v>
       </c>
       <c r="G12" s="7" t="str">
         <f>_xll.qlBondHelper(,E12,A12,,,Trigger)</f>
-        <v>obj_00a5b#0000</v>
+        <v>obj_007e6#0003</v>
       </c>
       <c r="H12" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A12,$H$1)</f>
@@ -1504,26 +1504,26 @@
       </c>
       <c r="I12" s="10">
         <f>_xll.qlBondCleanPrice(A12,H12)</f>
-        <v>100.01500021739132</v>
+        <v>109.55500131147541</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="2"/>
-        <v>-9.3449997826086815</v>
+        <v>1.3114754011667173E-6</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="str">
-        <v>IT0004907843</v>
+        <v>IT0003493258</v>
       </c>
       <c r="B13" s="8" t="str">
         <f>_xll.qlBondDescription(A13)</f>
-        <v>BTP 2018-06-01 3.5%</v>
+        <v>BTP 2019-02-01 4.25%</v>
       </c>
       <c r="C13" s="11">
         <f>_xll.qlBondMaturityDate(A13)</f>
-        <v>43252</v>
+        <v>43497</v>
       </c>
       <c r="D13" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1531,15 +1531,15 @@
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004907843_Quote</v>
+        <v>IT0003493258_Quote</v>
       </c>
       <c r="F13" s="10">
         <f>_xll.qlQuoteValue(E13,Trigger)</f>
-        <v>109.53</v>
+        <v>112.22999999999999</v>
       </c>
       <c r="G13" s="7" t="str">
         <f>_xll.qlBondHelper(,E13,A13,,,Trigger)</f>
-        <v>obj_00a76#0000</v>
+        <v>obj_00803#0003</v>
       </c>
       <c r="H13" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A13,$H$1)</f>
@@ -1547,26 +1547,26 @@
       </c>
       <c r="I13" s="10">
         <f>_xll.qlBondCleanPrice(A13,H13)</f>
-        <v>108.50999644808742</v>
+        <v>112.2299954945055</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="2"/>
-        <v>-1.0200035519125805</v>
+        <v>-4.5054944877165326E-6</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="str">
-        <v>IT0004361041</v>
+        <v>IT0004423957</v>
       </c>
       <c r="B14" s="8" t="str">
         <f>_xll.qlBondDescription(A14)</f>
-        <v>BTP 2018-08-01 4.5%</v>
+        <v>BTP 2019-03-01 4.5%</v>
       </c>
       <c r="C14" s="11">
         <f>_xll.qlBondMaturityDate(A14)</f>
-        <v>43313</v>
+        <v>43525</v>
       </c>
       <c r="D14" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1574,15 +1574,15 @@
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004361041_Quote</v>
+        <v>IT0004423957_Quote</v>
       </c>
       <c r="F14" s="10">
         <f>_xll.qlQuoteValue(E14,Trigger)</f>
-        <v>111.535</v>
+        <v>113.27500000000001</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>_xll.qlBondHelper(,E14,A14,,,Trigger)</f>
-        <v>obj_00a4d#0000</v>
+        <v>obj_007d2#0003</v>
       </c>
       <c r="H14" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A14,$H$1)</f>
@@ -1590,26 +1590,26 @@
       </c>
       <c r="I14" s="10">
         <f>_xll.qlBondCleanPrice(A14,H14)</f>
-        <v>111.81999956521737</v>
+        <v>113.27499608695652</v>
       </c>
       <c r="J14" s="10">
         <f t="shared" si="2"/>
-        <v>0.28499956521737602</v>
+        <v>-3.9130434856815555E-6</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="str">
-        <v>IT0004957574</v>
+        <v>IT0004992308</v>
       </c>
       <c r="B15" s="8" t="str">
         <f>_xll.qlBondDescription(A15)</f>
-        <v>BTP 2018-12-01 3.5%</v>
+        <v>BTP 2019-05-01 2.5%</v>
       </c>
       <c r="C15" s="11">
         <f>_xll.qlBondMaturityDate(A15)</f>
-        <v>43435</v>
+        <v>43586</v>
       </c>
       <c r="D15" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1617,15 +1617,15 @@
       </c>
       <c r="E15" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004957574_Quote</v>
+        <v>IT0004992308_Quote</v>
       </c>
       <c r="F15" s="10">
         <f>_xll.qlQuoteValue(E15,Trigger)</f>
-        <v>107.315</v>
+        <v>107.595</v>
       </c>
       <c r="G15" s="7" t="str">
         <f>_xll.qlBondHelper(,E15,A15,,,Trigger)</f>
-        <v>obj_00a4f#0000</v>
+        <v>obj_007e5#0003</v>
       </c>
       <c r="H15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A15,$H$1)</f>
@@ -1633,26 +1633,26 @@
       </c>
       <c r="I15" s="10">
         <f>_xll.qlBondCleanPrice(A15,H15)</f>
-        <v>109.89499644808741</v>
+        <v>107.59499901098903</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="2"/>
-        <v>2.5799964480874138</v>
+        <v>-9.8901097089765244E-7</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="str">
-        <v>IT0003493258</v>
+        <v>IT0005030504</v>
       </c>
       <c r="B16" s="8" t="str">
         <f>_xll.qlBondDescription(A16)</f>
-        <v>BTP 2019-02-01 4.25%</v>
+        <v>BTP 2019-08-01 1.5%</v>
       </c>
       <c r="C16" s="11">
         <f>_xll.qlBondMaturityDate(A16)</f>
-        <v>43497</v>
+        <v>43678</v>
       </c>
       <c r="D16" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1660,15 +1660,15 @@
       </c>
       <c r="E16" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0003493258_Quote</v>
+        <v>IT0005030504_Quote</v>
       </c>
       <c r="F16" s="10">
         <f>_xll.qlQuoteValue(E16,Trigger)</f>
-        <v>110.795</v>
+        <v>104.67</v>
       </c>
       <c r="G16" s="7" t="str">
         <f>_xll.qlBondHelper(,E16,A16,,,Trigger)</f>
-        <v>obj_00a69#0000</v>
+        <v>obj_007f1#0003</v>
       </c>
       <c r="H16" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A16,$H$1)</f>
@@ -1676,26 +1676,26 @@
       </c>
       <c r="I16" s="10">
         <f>_xll.qlBondCleanPrice(A16,H16)</f>
-        <v>112.68499847826087</v>
+        <v>104.67000252747253</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="2"/>
-        <v>1.8899984782608641</v>
+        <v>2.527472531710373E-6</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="str">
-        <v>IT0004423957</v>
+        <v>IT0004489610</v>
       </c>
       <c r="B17" s="8" t="str">
         <f>_xll.qlBondDescription(A17)</f>
-        <v>BTP 2019-03-01 4.5%</v>
+        <v>BTP 2019-09-01 4.25%</v>
       </c>
       <c r="C17" s="11">
         <f>_xll.qlBondMaturityDate(A17)</f>
-        <v>43525</v>
+        <v>43709</v>
       </c>
       <c r="D17" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1703,15 +1703,15 @@
       </c>
       <c r="E17" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004423957_Quote</v>
+        <v>IT0004489610_Quote</v>
       </c>
       <c r="F17" s="10">
         <f>_xll.qlQuoteValue(E17,Trigger)</f>
-        <v>108.11500000000001</v>
+        <v>114.22499999999999</v>
       </c>
       <c r="G17" s="7" t="str">
         <f>_xll.qlBondHelper(,E17,A17,,,Trigger)</f>
-        <v>obj_00a55#0000</v>
+        <v>obj_00802#0003</v>
       </c>
       <c r="H17" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A17,$H$1)</f>
@@ -1719,26 +1719,26 @@
       </c>
       <c r="I17" s="10">
         <f>_xll.qlBondCleanPrice(A17,H17)</f>
-        <v>113.77999604395606</v>
+        <v>114.22500130434781</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="2"/>
-        <v>5.6649960439560516</v>
+        <v>1.3043478190866153E-6</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="str">
-        <v>IT0004992308</v>
+        <v>IT0005069395</v>
       </c>
       <c r="B18" s="8" t="str">
         <f>_xll.qlBondDescription(A18)</f>
-        <v>BTP 2019-05-01 2.5%</v>
+        <v>BTP 2019-12-01 1.05%</v>
       </c>
       <c r="C18" s="11">
         <f>_xll.qlBondMaturityDate(A18)</f>
-        <v>43586</v>
+        <v>43800</v>
       </c>
       <c r="D18" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1746,15 +1746,15 @@
       </c>
       <c r="E18" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004992308_Quote</v>
+        <v>IT0005069395_Quote</v>
       </c>
       <c r="F18" s="10">
         <f>_xll.qlQuoteValue(E18,Trigger)</f>
-        <v>112.18</v>
+        <v>103.27500000000001</v>
       </c>
       <c r="G18" s="7" t="str">
         <f>_xll.qlBondHelper(,E18,A18,,,Trigger)</f>
-        <v>obj_00a45#0000</v>
+        <v>obj_007d6#0003</v>
       </c>
       <c r="H18" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A18,$H$1)</f>
@@ -1762,11 +1762,11 @@
       </c>
       <c r="I18" s="10">
         <f>_xll.qlBondCleanPrice(A18,H18)</f>
-        <v>107.31000086956521</v>
+        <v>103.27499639344263</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="2"/>
-        <v>-4.8699991304347918</v>
+        <v>-3.6065573709720411E-6</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1774,15 +1774,15 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="str">
-        <v>IT0005030504</v>
+        <v>IT0003644769</v>
       </c>
       <c r="B19" s="8" t="str">
         <f>_xll.qlBondDescription(A19)</f>
-        <v>BTP 2019-08-01 1.5%</v>
+        <v>BTP 2020-02-01 4.5%</v>
       </c>
       <c r="C19" s="11">
         <f>_xll.qlBondMaturityDate(A19)</f>
-        <v>43678</v>
+        <v>43862</v>
       </c>
       <c r="D19" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1790,15 +1790,15 @@
       </c>
       <c r="E19" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005030504_Quote</v>
+        <v>IT0003644769_Quote</v>
       </c>
       <c r="F19" s="10">
         <f>_xll.qlQuoteValue(E19,Trigger)</f>
-        <v>109.16</v>
+        <v>116.705</v>
       </c>
       <c r="G19" s="7" t="str">
         <f>_xll.qlBondHelper(,E19,A19,,,Trigger)</f>
-        <v>obj_00a7b#0000</v>
+        <v>obj_007ea#0003</v>
       </c>
       <c r="H19" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A19,$H$1)</f>
@@ -1806,11 +1806,11 @@
       </c>
       <c r="I19" s="10">
         <f>_xll.qlBondCleanPrice(A19,H19)</f>
-        <v>103.75499652173913</v>
+        <v>116.70499758241759</v>
       </c>
       <c r="J19" s="10">
         <f t="shared" si="2"/>
-        <v>-5.4050034782608662</v>
+        <v>-2.4175824080430175E-6</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1818,15 +1818,15 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="str">
-        <v>IT0004489610</v>
+        <v>IT0004536949</v>
       </c>
       <c r="B20" s="8" t="str">
         <f>_xll.qlBondDescription(A20)</f>
-        <v>BTP 2019-09-01 4.25%</v>
+        <v>BTP 2020-03-01 4.25%</v>
       </c>
       <c r="C20" s="11">
         <f>_xll.qlBondMaturityDate(A20)</f>
-        <v>43709</v>
+        <v>43891</v>
       </c>
       <c r="D20" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1834,15 +1834,15 @@
       </c>
       <c r="E20" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004489610_Quote</v>
+        <v>IT0004536949_Quote</v>
       </c>
       <c r="F20" s="10">
         <f>_xll.qlQuoteValue(E20,Trigger)</f>
-        <v>112.50999999999999</v>
+        <v>115.985</v>
       </c>
       <c r="G20" s="7" t="str">
         <f>_xll.qlBondHelper(,E20,A20,,,Trigger)</f>
-        <v>obj_00a48#0000</v>
+        <v>obj_007ce#0003</v>
       </c>
       <c r="H20" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A20,$H$1)</f>
@@ -1850,26 +1850,26 @@
       </c>
       <c r="I20" s="10">
         <f>_xll.qlBondCleanPrice(A20,H20)</f>
-        <v>114.35999626373625</v>
+        <v>115.9850013043478</v>
       </c>
       <c r="J20" s="10">
         <f t="shared" si="2"/>
-        <v>1.8499962637362586</v>
+        <v>1.3043478048757606E-6</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="str">
-        <v>IT0005069395</v>
+        <v>IT0005107708</v>
       </c>
       <c r="B21" s="8" t="str">
         <f>_xll.qlBondDescription(A21)</f>
-        <v>BTP 2019-12-01 1.05%</v>
+        <v>BTP 2020-05-01 0.7%</v>
       </c>
       <c r="C21" s="11">
         <f>_xll.qlBondMaturityDate(A21)</f>
-        <v>43800</v>
+        <v>43952</v>
       </c>
       <c r="D21" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1877,15 +1877,15 @@
       </c>
       <c r="E21" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005069395_Quote</v>
+        <v>IT0005107708_Quote</v>
       </c>
       <c r="F21" s="10">
         <f>_xll.qlQuoteValue(E21,Trigger)</f>
-        <v>113.78</v>
+        <v>101.81</v>
       </c>
       <c r="G21" s="7" t="str">
         <f>_xll.qlBondHelper(,E21,A21,,,Trigger)</f>
-        <v>obj_00a7a#0000</v>
+        <v>obj_007eb#0003</v>
       </c>
       <c r="H21" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A21,$H$1)</f>
@@ -1893,26 +1893,26 @@
       </c>
       <c r="I21" s="10">
         <f>_xll.qlBondCleanPrice(A21,H21)</f>
-        <v>101.90500393442625</v>
+        <v>101.80999692307691</v>
       </c>
       <c r="J21" s="10">
         <f t="shared" si="2"/>
-        <v>-11.874996065573754</v>
+        <v>-3.0769230932037317E-6</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="str">
-        <v>IT0003644769</v>
+        <v>IT0004594930</v>
       </c>
       <c r="B22" s="8" t="str">
         <f>_xll.qlBondDescription(A22)</f>
-        <v>BTP 2020-02-01 4.5%</v>
+        <v>BTP 2020-09-01 4%</v>
       </c>
       <c r="C22" s="11">
         <f>_xll.qlBondMaturityDate(A22)</f>
-        <v>43862</v>
+        <v>44075</v>
       </c>
       <c r="D22" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1920,15 +1920,15 @@
       </c>
       <c r="E22" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0003644769_Quote</v>
+        <v>IT0004594930_Quote</v>
       </c>
       <c r="F22" s="10">
         <f>_xll.qlQuoteValue(E22,Trigger)</f>
-        <v>105.21000000000001</v>
+        <v>116.38499999999999</v>
       </c>
       <c r="G22" s="7" t="str">
         <f>_xll.qlBondHelper(,E22,A22,,,Trigger)</f>
-        <v>obj_00a65#0000</v>
+        <v>obj_007d1#0003</v>
       </c>
       <c r="H22" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A22,$H$1)</f>
@@ -1936,26 +1936,26 @@
       </c>
       <c r="I22" s="10">
         <f>_xll.qlBondCleanPrice(A22,H22)</f>
-        <v>116.50999956521734</v>
+        <v>116.38499652173914</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="2"/>
-        <v>11.299999565217334</v>
+        <v>-3.4782608508976409E-6</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="str">
-        <v>IT0004536949</v>
+        <v>IT0005142143</v>
       </c>
       <c r="B23" s="8" t="str">
         <f>_xll.qlBondDescription(A23)</f>
-        <v>BTP 2020-03-01 4.25%</v>
+        <v>BTP 2020-11-01 0.65%</v>
       </c>
       <c r="C23" s="11">
         <f>_xll.qlBondMaturityDate(A23)</f>
-        <v>43891</v>
+        <v>44136</v>
       </c>
       <c r="D23" s="8" t="b">
         <f t="shared" si="0"/>
@@ -1963,15 +1963,15 @@
       </c>
       <c r="E23" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004536949_Quote</v>
+        <v>IT0005142143_Quote</v>
       </c>
       <c r="F23" s="10">
         <f>_xll.qlQuoteValue(E23,Trigger)</f>
-        <v>100.63</v>
+        <v>101.315</v>
       </c>
       <c r="G23" s="7" t="str">
         <f>_xll.qlBondHelper(,E23,A23,,,Trigger)</f>
-        <v>obj_00a6d#0000</v>
+        <v>obj_007f7#0003</v>
       </c>
       <c r="H23" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A23,$H$1)</f>
@@ -1979,26 +1979,26 @@
       </c>
       <c r="I23" s="10">
         <f>_xll.qlBondCleanPrice(A23,H23)</f>
-        <v>115.71999626373626</v>
+        <v>101.31499714285714</v>
       </c>
       <c r="J23" s="10">
         <f t="shared" si="2"/>
-        <v>15.089996263736268</v>
+        <v>-2.8571428600798754E-6</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="str">
-        <v>IT0005107708</v>
+        <v>IT0004634132</v>
       </c>
       <c r="B24" s="8" t="str">
         <f>_xll.qlBondDescription(A24)</f>
-        <v>BTP 2020-05-01 0.7%</v>
+        <v>BTP 2021-03-01 3.75%</v>
       </c>
       <c r="C24" s="11">
         <f>_xll.qlBondMaturityDate(A24)</f>
-        <v>43952</v>
+        <v>44256</v>
       </c>
       <c r="D24" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2006,15 +2006,15 @@
       </c>
       <c r="E24" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005107708_Quote</v>
+        <v>IT0004634132_Quote</v>
       </c>
       <c r="F24" s="10">
         <f>_xll.qlQuoteValue(E24,Trigger)</f>
-        <v>113.55500000000001</v>
+        <v>116.265</v>
       </c>
       <c r="G24" s="7" t="str">
         <f>_xll.qlBondHelper(,E24,A24,,,Trigger)</f>
-        <v>obj_00a54#0000</v>
+        <v>obj_007f2#0003</v>
       </c>
       <c r="H24" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A24,$H$1)</f>
@@ -2022,26 +2022,26 @@
       </c>
       <c r="I24" s="10">
         <f>_xll.qlBondCleanPrice(A24,H24)</f>
-        <v>100.09000304347828</v>
+        <v>116.26500173913044</v>
       </c>
       <c r="J24" s="10">
         <f t="shared" si="2"/>
-        <v>-13.46499695652173</v>
+        <v>1.7391304396596752E-6</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="str">
-        <v>IT0004594930</v>
+        <v>IT0004966401</v>
       </c>
       <c r="B25" s="8" t="str">
         <f>_xll.qlBondDescription(A25)</f>
-        <v>BTP 2020-09-01 4%</v>
+        <v>BTP 2021-05-01 3.75%</v>
       </c>
       <c r="C25" s="11">
         <f>_xll.qlBondMaturityDate(A25)</f>
-        <v>44075</v>
+        <v>44317</v>
       </c>
       <c r="D25" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2049,15 +2049,15 @@
       </c>
       <c r="E25" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004594930_Quote</v>
+        <v>IT0004966401_Quote</v>
       </c>
       <c r="F25" s="10">
         <f>_xll.qlQuoteValue(E25,Trigger)</f>
-        <v>115.31</v>
+        <v>116.515</v>
       </c>
       <c r="G25" s="7" t="str">
         <f>_xll.qlBondHelper(,E25,A25,,,Trigger)</f>
-        <v>obj_00a58#0000</v>
+        <v>obj_007fd#0003</v>
       </c>
       <c r="H25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A25,$H$1)</f>
@@ -2065,26 +2065,26 @@
       </c>
       <c r="I25" s="10">
         <f>_xll.qlBondCleanPrice(A25,H25)</f>
-        <v>115.59499648351647</v>
+        <v>116.51500351648352</v>
       </c>
       <c r="J25" s="10">
         <f t="shared" si="2"/>
-        <v>0.28499648351646556</v>
+        <v>3.5164835168188802E-6</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="str">
-        <v>IT0004634132</v>
+        <v>IT0004009673</v>
       </c>
       <c r="B26" s="8" t="str">
         <f>_xll.qlBondDescription(A26)</f>
-        <v>BTP 2021-03-01 3.75%</v>
+        <v>BTP 2021-08-01 3.75%</v>
       </c>
       <c r="C26" s="11">
         <f>_xll.qlBondMaturityDate(A26)</f>
-        <v>44256</v>
+        <v>44409</v>
       </c>
       <c r="D26" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2092,15 +2092,15 @@
       </c>
       <c r="E26" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004634132_Quote</v>
+        <v>IT0004009673_Quote</v>
       </c>
       <c r="F26" s="10">
         <f>_xll.qlQuoteValue(E26,Trigger)</f>
-        <v>114.125</v>
+        <v>117.035</v>
       </c>
       <c r="G26" s="7" t="str">
         <f>_xll.qlBondHelper(,E26,A26,,,Trigger)</f>
-        <v>obj_00a4b#0000</v>
+        <v>obj_007da#0003</v>
       </c>
       <c r="H26" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A26,$H$1)</f>
@@ -2108,26 +2108,26 @@
       </c>
       <c r="I26" s="10">
         <f>_xll.qlBondCleanPrice(A26,H26)</f>
-        <v>115.01999670329671</v>
+        <v>117.0350013186813</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="2"/>
-        <v>0.89499670329671233</v>
+        <v>1.3186812992671548E-6</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="str">
-        <v>IT0004966401</v>
+        <v>IT0004695075</v>
       </c>
       <c r="B27" s="8" t="str">
         <f>_xll.qlBondDescription(A27)</f>
-        <v>BTP 2021-05-01 3.75%</v>
+        <v>BTP 2021-09-01 4.75%</v>
       </c>
       <c r="C27" s="11">
         <f>_xll.qlBondMaturityDate(A27)</f>
-        <v>44317</v>
+        <v>44440</v>
       </c>
       <c r="D27" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2135,15 +2135,15 @@
       </c>
       <c r="E27" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004966401_Quote</v>
+        <v>IT0004695075_Quote</v>
       </c>
       <c r="F27" s="10">
         <f>_xll.qlQuoteValue(E27,Trigger)</f>
-        <v>113.185</v>
+        <v>122.53999999999999</v>
       </c>
       <c r="G27" s="7" t="str">
         <f>_xll.qlBondHelper(,E27,A27,,,Trigger)</f>
-        <v>obj_00a71#0000</v>
+        <v>obj_007dc#0003</v>
       </c>
       <c r="H27" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A27,$H$1)</f>
@@ -2151,26 +2151,26 @@
       </c>
       <c r="I27" s="10">
         <f>_xll.qlBondCleanPrice(A27,H27)</f>
-        <v>115.15999630434783</v>
+        <v>122.54000086956519</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="2"/>
-        <v>1.974996304347826</v>
+        <v>8.6956519851355552E-7</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="str">
-        <v>IT0004009673</v>
+        <v>IT0005028003</v>
       </c>
       <c r="B28" s="8" t="str">
         <f>_xll.qlBondDescription(A28)</f>
-        <v>BTP 2021-08-01 3.75%</v>
+        <v>BTP 2021-12-15 2.15%</v>
       </c>
       <c r="C28" s="11">
         <f>_xll.qlBondMaturityDate(A28)</f>
-        <v>44409</v>
+        <v>44545</v>
       </c>
       <c r="D28" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2178,15 +2178,15 @@
       </c>
       <c r="E28" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004009673_Quote</v>
+        <v>IT0005028003_Quote</v>
       </c>
       <c r="F28" s="10">
         <f>_xll.qlQuoteValue(E28,Trigger)</f>
-        <v>111.78</v>
+        <v>108.52500000000001</v>
       </c>
       <c r="G28" s="7" t="str">
         <f>_xll.qlBondHelper(,E28,A28,,,Trigger)</f>
-        <v>obj_00a51#0000</v>
+        <v>obj_007e7#0003</v>
       </c>
       <c r="H28" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A28,$H$1)</f>
@@ -2194,26 +2194,26 @@
       </c>
       <c r="I28" s="10">
         <f>_xll.qlBondCleanPrice(A28,H28)</f>
-        <v>115.36499630434786</v>
+        <v>108.52499693989074</v>
       </c>
       <c r="J28" s="10">
         <f t="shared" si="2"/>
-        <v>3.5849963043478539</v>
+        <v>-3.0601092646520556E-6</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="str">
-        <v>IT0004695075</v>
+        <v>IT0004759673</v>
       </c>
       <c r="B29" s="8" t="str">
         <f>_xll.qlBondDescription(A29)</f>
-        <v>BTP 2021-09-01 4.75%</v>
+        <v>BTP 2022-03-01 5%</v>
       </c>
       <c r="C29" s="11">
         <f>_xll.qlBondMaturityDate(A29)</f>
-        <v>44440</v>
+        <v>44621</v>
       </c>
       <c r="D29" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2221,15 +2221,15 @@
       </c>
       <c r="E29" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004695075_Quote</v>
+        <v>IT0004759673_Quote</v>
       </c>
       <c r="F29" s="10">
         <f>_xll.qlQuoteValue(E29,Trigger)</f>
-        <v>111.42</v>
+        <v>125.13500000000001</v>
       </c>
       <c r="G29" s="7" t="str">
         <f>_xll.qlBondHelper(,E29,A29,,,Trigger)</f>
-        <v>obj_00a64#0000</v>
+        <v>obj_007f0#0003</v>
       </c>
       <c r="H29" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A29,$H$1)</f>
@@ -2237,26 +2237,26 @@
       </c>
       <c r="I29" s="10">
         <f>_xll.qlBondCleanPrice(A29,H29)</f>
-        <v>121.16999582417584</v>
+        <v>125.1349956521739</v>
       </c>
       <c r="J29" s="10">
         <f t="shared" si="2"/>
-        <v>9.7499958241758407</v>
+        <v>-4.3478261062546153E-6</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <v>IT0005028003</v>
+        <v>IT0005086886</v>
       </c>
       <c r="B30" s="8" t="str">
         <f>_xll.qlBondDescription(A30)</f>
-        <v>BTP 2021-12-15 2.15%</v>
+        <v>BTP 2022-04-15 1.35%</v>
       </c>
       <c r="C30" s="11">
         <f>_xll.qlBondMaturityDate(A30)</f>
-        <v>44545</v>
+        <v>44666</v>
       </c>
       <c r="D30" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2264,15 +2264,15 @@
       </c>
       <c r="E30" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005028003_Quote</v>
+        <v>IT0005086886_Quote</v>
       </c>
       <c r="F30" s="10">
         <f>_xll.qlQuoteValue(E30,Trigger)</f>
-        <v>111.435</v>
+        <v>103.72999999999999</v>
       </c>
       <c r="G30" s="7" t="str">
         <f>_xll.qlBondHelper(,E30,A30,,,Trigger)</f>
-        <v>obj_00a67#0000</v>
+        <v>obj_007cd#0003</v>
       </c>
       <c r="H30" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A30,$H$1)</f>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="I30" s="10">
         <f>_xll.qlBondCleanPrice(A30,H30)</f>
-        <v>106.27999666666669</v>
+        <v>103.73000459016392</v>
       </c>
       <c r="J30" s="10">
         <f t="shared" si="2"/>
-        <v>-5.1550033333333118</v>
+        <v>4.5901639253997928E-6</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <v>IT0004759673</v>
+        <v>IT0004801541</v>
       </c>
       <c r="B31" s="8" t="str">
         <f>_xll.qlBondDescription(A31)</f>
-        <v>BTP 2022-03-01 5%</v>
+        <v>BTP 2022-09-01 5.5%</v>
       </c>
       <c r="C31" s="11">
         <f>_xll.qlBondMaturityDate(A31)</f>
-        <v>44621</v>
+        <v>44805</v>
       </c>
       <c r="D31" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2305,15 +2305,15 @@
       </c>
       <c r="E31" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004759673_Quote</v>
+        <v>IT0004801541_Quote</v>
       </c>
       <c r="F31" s="10">
         <f>_xll.qlQuoteValue(E31,Trigger)</f>
-        <v>117.82</v>
+        <v>129.45999999999998</v>
       </c>
       <c r="G31" s="7" t="str">
         <f>_xll.qlBondHelper(,E31,A31,,,Trigger)</f>
-        <v>obj_00a5e#0000</v>
+        <v>obj_007f4#0003</v>
       </c>
       <c r="H31" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A31,$H$1)</f>
@@ -2321,24 +2321,24 @@
       </c>
       <c r="I31" s="10">
         <f>_xll.qlBondCleanPrice(A31,H31)</f>
-        <v>123.88499560439558</v>
+        <v>129.45999521739128</v>
       </c>
       <c r="J31" s="10">
         <f t="shared" si="2"/>
-        <v>6.064995604395591</v>
+        <v>-4.7826086984059657E-6</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <v>IT0005086886</v>
+        <v>IT0005135840</v>
       </c>
       <c r="B32" s="8" t="str">
         <f>_xll.qlBondDescription(A32)</f>
-        <v>BTP 2022-04-15 1.35%</v>
+        <v>BTP 2022-09-15 1.45%</v>
       </c>
       <c r="C32" s="11">
         <f>_xll.qlBondMaturityDate(A32)</f>
-        <v>44666</v>
+        <v>44819</v>
       </c>
       <c r="D32" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2346,15 +2346,15 @@
       </c>
       <c r="E32" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005086886_Quote</v>
+        <v>IT0005135840_Quote</v>
       </c>
       <c r="F32" s="10">
         <f>_xll.qlQuoteValue(E32,Trigger)</f>
-        <v>100.80500000000001</v>
+        <v>103.93</v>
       </c>
       <c r="G32" s="7" t="str">
         <f>_xll.qlBondHelper(,E32,A32,,,Trigger)</f>
-        <v>obj_00a53#0000</v>
+        <v>obj_007df#0003</v>
       </c>
       <c r="H32" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A32,$H$1)</f>
@@ -2362,24 +2362,24 @@
       </c>
       <c r="I32" s="10">
         <f>_xll.qlBondCleanPrice(A32,H32)</f>
-        <v>101.17500000000001</v>
+        <v>103.92999890109888</v>
       </c>
       <c r="J32" s="10">
         <f t="shared" si="2"/>
-        <v>0.37000000000000455</v>
+        <v>-1.0989011229867174E-6</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
-        <v>IT0004801541</v>
+        <v>IT0004848831</v>
       </c>
       <c r="B33" s="8" t="str">
         <f>_xll.qlBondDescription(A33)</f>
-        <v>BTP 2022-09-01 5.5%</v>
+        <v>BTP 2022-11-01 5.5%</v>
       </c>
       <c r="C33" s="11">
         <f>_xll.qlBondMaturityDate(A33)</f>
-        <v>44805</v>
+        <v>44866</v>
       </c>
       <c r="D33" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2387,15 +2387,15 @@
       </c>
       <c r="E33" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004801541_Quote</v>
+        <v>IT0004848831_Quote</v>
       </c>
       <c r="F33" s="10">
         <f>_xll.qlQuoteValue(E33,Trigger)</f>
-        <v>119.69499999999999</v>
+        <v>129.845</v>
       </c>
       <c r="G33" s="7" t="str">
         <f>_xll.qlBondHelper(,E33,A33,,,Trigger)</f>
-        <v>obj_00a6a#0000</v>
+        <v>obj_007ef#0003</v>
       </c>
       <c r="H33" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A33,$H$1)</f>
@@ -2403,24 +2403,24 @@
       </c>
       <c r="I33" s="10">
         <f>_xll.qlBondCleanPrice(A33,H33)</f>
-        <v>128.02499516483519</v>
+        <v>129.84499582417584</v>
       </c>
       <c r="J33" s="10">
         <f t="shared" si="2"/>
-        <v>8.3299951648351964</v>
+        <v>-4.1758241593470302E-6</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <v>IT0005135840</v>
+        <v>IT0004898034</v>
       </c>
       <c r="B34" s="8" t="str">
         <f>_xll.qlBondDescription(A34)</f>
-        <v>BTP 2022-09-15 1.45%</v>
+        <v>BTP 2023-05-01 4.5%</v>
       </c>
       <c r="C34" s="11">
         <f>_xll.qlBondMaturityDate(A34)</f>
-        <v>44819</v>
+        <v>45047</v>
       </c>
       <c r="D34" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2428,15 +2428,15 @@
       </c>
       <c r="E34" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005135840_Quote</v>
+        <v>IT0004898034_Quote</v>
       </c>
       <c r="F34" s="10">
         <f>_xll.qlQuoteValue(E34,Trigger)</f>
-        <v>123.35499999999999</v>
+        <v>124.47499999999999</v>
       </c>
       <c r="G34" s="7" t="str">
         <f>_xll.qlBondHelper(,E34,A34,,,Trigger)</f>
-        <v>obj_00a5f#0000</v>
+        <v>obj_007f9#0003</v>
       </c>
       <c r="H34" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A34,$H$1)</f>
@@ -2444,24 +2444,24 @@
       </c>
       <c r="I34" s="10">
         <f>_xll.qlBondCleanPrice(A34,H34)</f>
-        <v>101.14999549450549</v>
+        <v>124.47500021978018</v>
       </c>
       <c r="J34" s="10">
         <f t="shared" si="2"/>
-        <v>-22.2050045054945</v>
+        <v>2.1978019049129216E-7</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
-        <v>IT0004848831</v>
+        <v>IT0004356843</v>
       </c>
       <c r="B35" s="8" t="str">
         <f>_xll.qlBondDescription(A35)</f>
-        <v>BTP 2022-11-01 5.5%</v>
+        <v>BTP 2023-08-01 4.75%</v>
       </c>
       <c r="C35" s="11">
         <f>_xll.qlBondMaturityDate(A35)</f>
-        <v>44866</v>
+        <v>45139</v>
       </c>
       <c r="D35" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2469,15 +2469,15 @@
       </c>
       <c r="E35" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004848831_Quote</v>
+        <v>IT0004356843_Quote</v>
       </c>
       <c r="F35" s="10">
         <f>_xll.qlQuoteValue(E35,Trigger)</f>
-        <v>123.295</v>
+        <v>126.77500000000001</v>
       </c>
       <c r="G35" s="7" t="str">
         <f>_xll.qlBondHelper(,E35,A35,,,Trigger)</f>
-        <v>obj_00a6b#0000</v>
+        <v>obj_007e9#0003</v>
       </c>
       <c r="H35" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A35,$H$1)</f>
@@ -2485,24 +2485,24 @@
       </c>
       <c r="I35" s="10">
         <f>_xll.qlBondCleanPrice(A35,H35)</f>
-        <v>128.21500391304346</v>
+        <v>126.77499967032966</v>
       </c>
       <c r="J35" s="10">
         <f t="shared" si="2"/>
-        <v>4.920003913043459</v>
+        <v>-3.296703425803571E-7</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <v>IT0004898034</v>
+        <v>IT0000366655</v>
       </c>
       <c r="B36" s="8" t="str">
         <f>_xll.qlBondDescription(A36)</f>
-        <v>BTP 2023-05-01 4.5%</v>
+        <v>BTP 2023-11-01 9%</v>
       </c>
       <c r="C36" s="11">
         <f>_xll.qlBondMaturityDate(A36)</f>
-        <v>45047</v>
+        <v>45231</v>
       </c>
       <c r="D36" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2510,15 +2510,15 @@
       </c>
       <c r="E36" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004898034_Quote</v>
+        <v>IT0000366655_Quote</v>
       </c>
       <c r="F36" s="10">
         <f>_xll.qlQuoteValue(E36,Trigger)</f>
-        <v>116.22</v>
+        <v>158.07999999999998</v>
       </c>
       <c r="G36" s="7" t="str">
         <f>_xll.qlBondHelper(,E36,A36,,,Trigger)</f>
-        <v>obj_00a5c#0000</v>
+        <v>obj_007db#0003</v>
       </c>
       <c r="H36" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A36,$H$1)</f>
@@ -2526,24 +2526,24 @@
       </c>
       <c r="I36" s="10">
         <f>_xll.qlBondCleanPrice(A36,H36)</f>
-        <v>122.3499995652174</v>
+        <v>158.08000043956042</v>
       </c>
       <c r="J36" s="10">
         <f t="shared" si="2"/>
-        <v>6.1299995652174033</v>
+        <v>4.3956043782600318E-7</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
-        <v>IT0004356843</v>
+        <v>IT0004953417</v>
       </c>
       <c r="B37" s="8" t="str">
         <f>_xll.qlBondDescription(A37)</f>
-        <v>BTP 2023-08-01 4.75%</v>
+        <v>BTP 2024-03-01 4.5%</v>
       </c>
       <c r="C37" s="11">
         <f>_xll.qlBondMaturityDate(A37)</f>
-        <v>45139</v>
+        <v>45352</v>
       </c>
       <c r="D37" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E37" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004356843_Quote</v>
+        <v>IT0004953417_Quote</v>
       </c>
       <c r="F37" s="10">
         <f>_xll.qlQuoteValue(E37,Trigger)</f>
-        <v>118.465</v>
+        <v>125.45500000000001</v>
       </c>
       <c r="G37" s="7" t="str">
         <f>_xll.qlBondHelper(,E37,A37,,,Trigger)</f>
-        <v>obj_00a75#0000</v>
+        <v>obj_00804#0003</v>
       </c>
       <c r="H37" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A37,$H$1)</f>
@@ -2567,24 +2567,24 @@
       </c>
       <c r="I37" s="10">
         <f>_xll.qlBondCleanPrice(A37,H37)</f>
-        <v>124.62000065217393</v>
+        <v>125.45499608695651</v>
       </c>
       <c r="J37" s="10">
         <f t="shared" si="2"/>
-        <v>6.1550006521739249</v>
+        <v>-3.9130434998924102E-6</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
-        <v>IT0000366655</v>
+        <v>IT0005001547</v>
       </c>
       <c r="B38" s="8" t="str">
         <f>_xll.qlBondDescription(A38)</f>
-        <v>BTP 2023-11-01 9%</v>
+        <v>BTP 2024-09-01 3.75%</v>
       </c>
       <c r="C38" s="11">
         <f>_xll.qlBondMaturityDate(A38)</f>
-        <v>45231</v>
+        <v>45536</v>
       </c>
       <c r="D38" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2592,15 +2592,15 @@
       </c>
       <c r="E38" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0000366655_Quote</v>
+        <v>IT0005001547_Quote</v>
       </c>
       <c r="F38" s="10">
         <f>_xll.qlQuoteValue(E38,Trigger)</f>
-        <v>153.465</v>
+        <v>120.00999999999999</v>
       </c>
       <c r="G38" s="7" t="str">
         <f>_xll.qlBondHelper(,E38,A38,,,Trigger)</f>
-        <v>obj_00a72#0000</v>
+        <v>obj_007ee#0003</v>
       </c>
       <c r="H38" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A38,$H$1)</f>
@@ -2608,24 +2608,24 @@
       </c>
       <c r="I38" s="10">
         <f>_xll.qlBondCleanPrice(A38,H38)</f>
-        <v>157.17499913043477</v>
+        <v>120.0100017391304</v>
       </c>
       <c r="J38" s="10">
         <f t="shared" si="2"/>
-        <v>3.7099991304347668</v>
+        <v>1.7391304112379657E-6</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
-        <v>IT0004953417</v>
+        <v>IT0005045270</v>
       </c>
       <c r="B39" s="8" t="str">
         <f>_xll.qlBondDescription(A39)</f>
-        <v>BTP 2024-03-01 4.5%</v>
+        <v>BTP 2024-12-01 2.5%</v>
       </c>
       <c r="C39" s="11">
         <f>_xll.qlBondMaturityDate(A39)</f>
-        <v>45352</v>
+        <v>45627</v>
       </c>
       <c r="D39" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2633,15 +2633,15 @@
       </c>
       <c r="E39" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004953417_Quote</v>
+        <v>IT0005045270_Quote</v>
       </c>
       <c r="F39" s="10">
         <f>_xll.qlQuoteValue(E39,Trigger)</f>
-        <v>116.58</v>
+        <v>109.94</v>
       </c>
       <c r="G39" s="7" t="str">
         <f>_xll.qlBondHelper(,E39,A39,,,Trigger)</f>
-        <v>obj_00a57#0000</v>
+        <v>obj_007d8#0003</v>
       </c>
       <c r="H39" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A39,$H$1)</f>
@@ -2649,24 +2649,24 @@
       </c>
       <c r="I39" s="10">
         <f>_xll.qlBondCleanPrice(A39,H39)</f>
-        <v>123.16499604395608</v>
+        <v>109.93999950819672</v>
       </c>
       <c r="J39" s="10">
         <f t="shared" si="2"/>
-        <v>6.5849960439560817</v>
+        <v>-4.9180327721387584E-7</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
-        <v>IT0005001547</v>
+        <v>IT0004513641</v>
       </c>
       <c r="B40" s="8" t="str">
         <f>_xll.qlBondDescription(A40)</f>
-        <v>BTP 2024-09-01 3.75%</v>
+        <v>BTP 2025-03-01 5%</v>
       </c>
       <c r="C40" s="11">
         <f>_xll.qlBondMaturityDate(A40)</f>
-        <v>45536</v>
+        <v>45717</v>
       </c>
       <c r="D40" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2674,15 +2674,15 @@
       </c>
       <c r="E40" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005001547_Quote</v>
+        <v>IT0004513641_Quote</v>
       </c>
       <c r="F40" s="10">
         <f>_xll.qlQuoteValue(E40,Trigger)</f>
-        <v>109.91</v>
+        <v>131.125</v>
       </c>
       <c r="G40" s="7" t="str">
         <f>_xll.qlBondHelper(,E40,A40,,,Trigger)</f>
-        <v>obj_00a43#0000</v>
+        <v>obj_007ed#0003</v>
       </c>
       <c r="H40" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A40,$H$1)</f>
@@ -2690,24 +2690,24 @@
       </c>
       <c r="I40" s="10">
         <f>_xll.qlBondCleanPrice(A40,H40)</f>
-        <v>117.6749967032967</v>
+        <v>131.12499565217391</v>
       </c>
       <c r="J40" s="10">
         <f t="shared" si="2"/>
-        <v>7.7649967032967027</v>
+        <v>-4.3478260920437606E-6</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
-        <v>IT0005045270</v>
+        <v>IT0005090318</v>
       </c>
       <c r="B41" s="8" t="str">
         <f>_xll.qlBondDescription(A41)</f>
-        <v>BTP 2024-12-01 2.5%</v>
+        <v>BTP 2025-06-01 1.5%</v>
       </c>
       <c r="C41" s="11">
         <f>_xll.qlBondMaturityDate(A41)</f>
-        <v>45627</v>
+        <v>45809</v>
       </c>
       <c r="D41" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2715,15 +2715,15 @@
       </c>
       <c r="E41" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005045270_Quote</v>
+        <v>IT0005090318_Quote</v>
       </c>
       <c r="F41" s="10">
         <f>_xll.qlQuoteValue(E41,Trigger)</f>
-        <v>99.37</v>
+        <v>101.38</v>
       </c>
       <c r="G41" s="7" t="str">
         <f>_xll.qlBondHelper(,E41,A41,,,Trigger)</f>
-        <v>obj_00a66#0000</v>
+        <v>obj_007ec#0003</v>
       </c>
       <c r="H41" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A41,$H$1)</f>
@@ -2731,24 +2731,24 @@
       </c>
       <c r="I41" s="10">
         <f>_xll.qlBondCleanPrice(A41,H41)</f>
-        <v>107.36500174863387</v>
+        <v>101.37999770491801</v>
       </c>
       <c r="J41" s="10">
         <f t="shared" si="2"/>
-        <v>7.995001748633868</v>
+        <v>-2.2950819840161785E-6</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
-        <v>IT0004513641</v>
+        <v>IT0005127086</v>
       </c>
       <c r="B42" s="8" t="str">
         <f>_xll.qlBondDescription(A42)</f>
-        <v>BTP 2025-03-01 5%</v>
+        <v>BTP 2025-12-01 2%</v>
       </c>
       <c r="C42" s="11">
         <f>_xll.qlBondMaturityDate(A42)</f>
-        <v>45717</v>
+        <v>45992</v>
       </c>
       <c r="D42" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2756,15 +2756,15 @@
       </c>
       <c r="E42" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004513641_Quote</v>
+        <v>IT0005127086_Quote</v>
       </c>
       <c r="F42" s="10">
         <f>_xll.qlQuoteValue(E42,Trigger)</f>
-        <v>120.565</v>
+        <v>105.19499999999999</v>
       </c>
       <c r="G42" s="7" t="str">
         <f>_xll.qlBondHelper(,E42,A42,,,Trigger)</f>
-        <v>obj_00a74#0000</v>
+        <v>obj_007d0#0003</v>
       </c>
       <c r="H42" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A42,$H$1)</f>
@@ -2772,24 +2772,24 @@
       </c>
       <c r="I42" s="10">
         <f>_xll.qlBondCleanPrice(A42,H42)</f>
-        <v>129.01999560439563</v>
+        <v>105.19500360655738</v>
       </c>
       <c r="J42" s="10">
         <f t="shared" si="2"/>
-        <v>8.4549956043956342</v>
+        <v>3.6065573851828958E-6</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <v>IT0005090318</v>
+        <v>IT0004644735</v>
       </c>
       <c r="B43" s="8" t="str">
         <f>_xll.qlBondDescription(A43)</f>
-        <v>BTP 2025-06-01 1.5%</v>
+        <v>BTP 2026-03-01 4.5%</v>
       </c>
       <c r="C43" s="11">
         <f>_xll.qlBondMaturityDate(A43)</f>
-        <v>45809</v>
+        <v>46082</v>
       </c>
       <c r="D43" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2797,15 +2797,15 @@
       </c>
       <c r="E43" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005090318_Quote</v>
+        <v>IT0004644735_Quote</v>
       </c>
       <c r="F43" s="10">
         <f>_xll.qlQuoteValue(E43,Trigger)</f>
-        <v>115.81</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="G43" s="7" t="str">
         <f>_xll.qlBondHelper(,E43,A43,,,Trigger)</f>
-        <v>obj_00a68#0000</v>
+        <v>obj_00805#0003</v>
       </c>
       <c r="H43" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A43,$H$1)</f>
@@ -2813,24 +2813,24 @@
       </c>
       <c r="I43" s="10">
         <f>_xll.qlBondCleanPrice(A43,H43)</f>
-        <v>98.664997049180329</v>
+        <v>128.29999608695655</v>
       </c>
       <c r="J43" s="10">
         <f t="shared" si="2"/>
-        <v>-17.145002950819674</v>
+        <v>-3.913043457259846E-6</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
-        <v>IT0005127086</v>
+        <v>IT0005170839</v>
       </c>
       <c r="B44" s="8" t="str">
         <f>_xll.qlBondDescription(A44)</f>
-        <v>BTP 2025-12-01 2%</v>
+        <v>BTP 2026-06-01 1.6%</v>
       </c>
       <c r="C44" s="11">
         <f>_xll.qlBondMaturityDate(A44)</f>
-        <v>45992</v>
+        <v>46174</v>
       </c>
       <c r="D44" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2838,15 +2838,15 @@
       </c>
       <c r="E44" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0005127086_Quote</v>
+        <v>IT0005170839_Quote</v>
       </c>
       <c r="F44" s="10">
         <f>_xll.qlQuoteValue(E44,Trigger)</f>
-        <v>144.19999999999999</v>
+        <v>101.28</v>
       </c>
       <c r="G44" s="7" t="str">
         <f>_xll.qlBondHelper(,E44,A44,,,Trigger)</f>
-        <v>obj_00a50#0000</v>
+        <v>obj_007f8#0003</v>
       </c>
       <c r="H44" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A44,$H$1)</f>
@@ -2854,24 +2854,24 @@
       </c>
       <c r="I44" s="10">
         <f>_xll.qlBondCleanPrice(A44,H44)</f>
-        <v>102.35999715846994</v>
+        <v>101.28000267759562</v>
       </c>
       <c r="J44" s="10">
         <f t="shared" si="2"/>
-        <v>-41.840002841530051</v>
+        <v>2.6775956172286897E-6</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
-        <v>IT0004644735</v>
+        <v>IT0001086567</v>
       </c>
       <c r="B45" s="8" t="str">
         <f>_xll.qlBondDescription(A45)</f>
-        <v>BTP 2026-03-01 4.5%</v>
+        <v>BTP 2026-11-01 7.25%</v>
       </c>
       <c r="C45" s="11">
         <f>_xll.qlBondMaturityDate(A45)</f>
-        <v>46082</v>
+        <v>46327</v>
       </c>
       <c r="D45" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2879,15 +2879,15 @@
       </c>
       <c r="E45" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004644735_Quote</v>
+        <v>IT0001086567_Quote</v>
       </c>
       <c r="F45" s="10">
         <f>_xll.qlQuoteValue(E45,Trigger)</f>
-        <v>137.07999999999998</v>
+        <v>155.595</v>
       </c>
       <c r="G45" s="7" t="str">
         <f>_xll.qlBondHelper(,E45,A45,,,Trigger)</f>
-        <v>obj_00a78#0000</v>
+        <v>obj_007fa#0003</v>
       </c>
       <c r="H45" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A45,$H$1)</f>
@@ -2895,24 +2895,24 @@
       </c>
       <c r="I45" s="10">
         <f>_xll.qlBondCleanPrice(A45,H45)</f>
-        <v>125.89499604395606</v>
+        <v>155.59499813186812</v>
       </c>
       <c r="J45" s="10">
         <f t="shared" si="2"/>
-        <v>-11.185003956043928</v>
+        <v>-1.8681318749713682E-6</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
-        <v>IT0001086567</v>
+        <v>IT0001174611</v>
       </c>
       <c r="B46" s="8" t="str">
         <f>_xll.qlBondDescription(A46)</f>
-        <v>BTP 2026-11-01 7.25%</v>
+        <v>BTP 2027-11-01 6.5%</v>
       </c>
       <c r="C46" s="11">
         <f>_xll.qlBondMaturityDate(A46)</f>
-        <v>46327</v>
+        <v>46692</v>
       </c>
       <c r="D46" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2920,15 +2920,15 @@
       </c>
       <c r="E46" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0001086567_Quote</v>
+        <v>IT0001174611_Quote</v>
       </c>
       <c r="F46" s="10">
         <f>_xll.qlQuoteValue(E46,Trigger)</f>
-        <v>117.80500000000001</v>
+        <v>150.15</v>
       </c>
       <c r="G46" s="7" t="str">
         <f>_xll.qlBondHelper(,E46,A46,,,Trigger)</f>
-        <v>obj_00a4e#0000</v>
+        <v>obj_007f3#0003</v>
       </c>
       <c r="H46" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A46,$H$1)</f>
@@ -2936,24 +2936,24 @@
       </c>
       <c r="I46" s="10">
         <f>_xll.qlBondCleanPrice(A46,H46)</f>
-        <v>153.92000152173915</v>
+        <v>150.15000142857141</v>
       </c>
       <c r="J46" s="10">
         <f t="shared" si="2"/>
-        <v>36.115001521739146</v>
+        <v>1.4285714087236556E-6</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
-        <v>IT0001174611</v>
+        <v>IT0004889033</v>
       </c>
       <c r="B47" s="8" t="str">
         <f>_xll.qlBondDescription(A47)</f>
-        <v>BTP 2027-11-01 6.5%</v>
+        <v>BTP 2028-09-01 4.75%</v>
       </c>
       <c r="C47" s="11">
         <f>_xll.qlBondMaturityDate(A47)</f>
-        <v>46692</v>
+        <v>46997</v>
       </c>
       <c r="D47" s="8" t="b">
         <f t="shared" si="0"/>
@@ -2961,15 +2961,15 @@
       </c>
       <c r="E47" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0001174611_Quote</v>
+        <v>IT0004889033_Quote</v>
       </c>
       <c r="F47" s="10">
         <f>_xll.qlQuoteValue(E47,Trigger)</f>
-        <v>124.14500000000001</v>
+        <v>133.17500000000001</v>
       </c>
       <c r="G47" s="7" t="str">
         <f>_xll.qlBondHelper(,E47,A47,,,Trigger)</f>
-        <v>obj_00a44#0000</v>
+        <v>obj_007d7#0003</v>
       </c>
       <c r="H47" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A47,$H$1)</f>
@@ -2977,24 +2977,24 @@
       </c>
       <c r="I47" s="10">
         <f>_xll.qlBondCleanPrice(A47,H47)</f>
-        <v>148.39999826086958</v>
+        <v>133.17500086956522</v>
       </c>
       <c r="J47" s="10">
         <f t="shared" si="2"/>
-        <v>24.25499826086957</v>
+        <v>8.6956521272441023E-7</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
-        <v>IT0004889033</v>
+        <v>IT0001278511</v>
       </c>
       <c r="B48" s="8" t="str">
         <f>_xll.qlBondDescription(A48)</f>
-        <v>BTP 2028-09-01 4.75%</v>
+        <v>BTP 2029-11-01 5.25%</v>
       </c>
       <c r="C48" s="11">
         <f>_xll.qlBondMaturityDate(A48)</f>
-        <v>46997</v>
+        <v>47423</v>
       </c>
       <c r="D48" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3002,15 +3002,15 @@
       </c>
       <c r="E48" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0004889033_Quote</v>
+        <v>IT0001278511_Quote</v>
       </c>
       <c r="F48" s="10">
         <f>_xll.qlQuoteValue(E48,Trigger)</f>
-        <v>103.58500000000001</v>
+        <v>140.64499999999998</v>
       </c>
       <c r="G48" s="7" t="str">
         <f>_xll.qlBondHelper(,E48,A48,,,Trigger)</f>
-        <v>obj_00a49#0000</v>
+        <v>obj_007f6#0003</v>
       </c>
       <c r="H48" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A48,$H$1)</f>
@@ -3018,24 +3018,24 @@
       </c>
       <c r="I48" s="10">
         <f>_xll.qlBondCleanPrice(A48,H48)</f>
-        <v>130.77999582417578</v>
+        <v>140.644996923077</v>
       </c>
       <c r="J48" s="10">
         <f t="shared" si="2"/>
-        <v>27.194995824175777</v>
+        <v>-3.076922979516894E-6</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="str">
-        <v>IT0001278511</v>
+        <v>IT0005024234</v>
       </c>
       <c r="B49" s="8" t="str">
         <f>_xll.qlBondDescription(A49)</f>
-        <v>BTP 2029-11-01 5.25%</v>
+        <v>BTP 2030-03-01 3.5%</v>
       </c>
       <c r="C49" s="11">
         <f>_xll.qlBondMaturityDate(A49)</f>
-        <v>47423</v>
+        <v>47543</v>
       </c>
       <c r="D49" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3043,15 +3043,15 @@
       </c>
       <c r="E49" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>IT0001278511_Quote</v>
+        <v>IT0005024234_Quote</v>
       </c>
       <c r="F49" s="10">
         <f>_xll.qlQuoteValue(E49,Trigger)</f>
-        <v>134.625</v>
+        <v>119.715</v>
       </c>
       <c r="G49" s="7" t="str">
         <f>_xll.qlBondHelper(,E49,A49,,,Trigger)</f>
-        <v>obj_00a62#0000</v>
+        <v>obj_007dd#0003</v>
       </c>
       <c r="H49" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A49,$H$1)</f>
@@ -3059,24 +3059,24 @@
       </c>
       <c r="I49" s="10">
         <f>_xll.qlBondCleanPrice(A49,H49)</f>
-        <v>138.29500282608703</v>
+        <v>119.71499695652176</v>
       </c>
       <c r="J49" s="10">
         <f t="shared" si="2"/>
-        <v>3.6700028260870283</v>
+        <v>-3.0434782445354358E-6</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="str">
-        <v>IT0005024234</v>
+        <v>IT0001444378</v>
       </c>
       <c r="B50" s="8" t="str">
         <f>_xll.qlBondDescription(A50)</f>
-        <v>BTP 2030-03-01 3.5%</v>
+        <v>BTP 2031-05-01 6%</v>
       </c>
       <c r="C50" s="11">
         <f>_xll.qlBondMaturityDate(A50)</f>
-        <v>47543</v>
+        <v>47969</v>
       </c>
       <c r="D50" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3084,15 +3084,15 @@
       </c>
       <c r="E50" s="8" t="str">
         <f t="shared" ref="E50:E70" si="3">A50&amp;$E$1</f>
-        <v>IT0005024234_Quote</v>
+        <v>IT0001444378_Quote</v>
       </c>
       <c r="F50" s="10">
         <f>_xll.qlQuoteValue(E50,Trigger)</f>
-        <v>132.11500000000001</v>
+        <v>151.86000000000001</v>
       </c>
       <c r="G50" s="7" t="str">
         <f>_xll.qlBondHelper(,E50,A50,,,Trigger)</f>
-        <v>obj_00a46#0000</v>
+        <v>obj_007d3#0003</v>
       </c>
       <c r="H50" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A50,$H$1)</f>
@@ -3100,24 +3100,24 @@
       </c>
       <c r="I50" s="10">
         <f>_xll.qlBondCleanPrice(A50,H50)</f>
-        <v>116.81499692307693</v>
+        <v>151.86000362637563</v>
       </c>
       <c r="J50" s="10">
         <f t="shared" si="2"/>
-        <v>-15.300003076923076</v>
+        <v>3.6263756157950411E-6</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="str">
-        <v>IT0001444378</v>
+        <v>IT0005094088</v>
       </c>
       <c r="B51" s="8" t="str">
         <f>_xll.qlBondDescription(A51)</f>
-        <v>BTP 2031-05-01 6%</v>
+        <v>BTP 2032-03-01 1.65%</v>
       </c>
       <c r="C51" s="11">
         <f>_xll.qlBondMaturityDate(A51)</f>
-        <v>47969</v>
+        <v>48274</v>
       </c>
       <c r="D51" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3125,15 +3125,15 @@
       </c>
       <c r="E51" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>IT0001444378_Quote</v>
+        <v>IT0005094088_Quote</v>
       </c>
       <c r="F51" s="10">
         <f>_xll.qlQuoteValue(E51,Trigger)</f>
-        <v>121.45500000000001</v>
+        <v>96.27000000000001</v>
       </c>
       <c r="G51" s="7" t="str">
         <f>_xll.qlBondHelper(,E51,A51,,,Trigger)</f>
-        <v>obj_00a47#0000</v>
+        <v>obj_007de#0003</v>
       </c>
       <c r="H51" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A51,$H$1)</f>
@@ -3141,24 +3141,24 @@
       </c>
       <c r="I51" s="10">
         <f>_xll.qlBondCleanPrice(A51,H51)</f>
-        <v>149.93499608695703</v>
+        <v>96.269999565217418</v>
       </c>
       <c r="J51" s="10">
         <f t="shared" si="2"/>
-        <v>28.479996086957016</v>
+        <v>-4.347825921513504E-7</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="str">
-        <v>IT0005094088</v>
+        <v>IT0003256820</v>
       </c>
       <c r="B52" s="8" t="str">
         <f>_xll.qlBondDescription(A52)</f>
-        <v>BTP 2032-03-01 1.65%</v>
+        <v>BTP 2033-02-01 5.75%</v>
       </c>
       <c r="C52" s="11">
         <f>_xll.qlBondMaturityDate(A52)</f>
-        <v>48274</v>
+        <v>48611</v>
       </c>
       <c r="D52" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3166,15 +3166,15 @@
       </c>
       <c r="E52" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>IT0005094088_Quote</v>
+        <v>IT0003256820_Quote</v>
       </c>
       <c r="F52" s="10">
         <f>_xll.qlQuoteValue(E52,Trigger)</f>
-        <v>106.31</v>
+        <v>151.35</v>
       </c>
       <c r="G52" s="7" t="str">
         <f>_xll.qlBondHelper(,E52,A52,,,Trigger)</f>
-        <v>obj_00a56#0000</v>
+        <v>obj_00800#0003</v>
       </c>
       <c r="H52" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A52,$H$1)</f>
@@ -3182,24 +3182,24 @@
       </c>
       <c r="I52" s="10">
         <f>_xll.qlBondCleanPrice(A52,H52)</f>
-        <v>93.08000054945056</v>
+        <v>151.34999802197868</v>
       </c>
       <c r="J52" s="10">
         <f t="shared" si="2"/>
-        <v>-13.229999450549442</v>
+        <v>-1.9780213165176974E-6</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="str">
-        <v>IT0003256820</v>
+        <v>IT0003535157</v>
       </c>
       <c r="B53" s="8" t="str">
         <f>_xll.qlBondDescription(A53)</f>
-        <v>BTP 2033-02-01 5.75%</v>
+        <v>BTP 2034-08-01 5%</v>
       </c>
       <c r="C53" s="11">
         <f>_xll.qlBondMaturityDate(A53)</f>
-        <v>48611</v>
+        <v>49157</v>
       </c>
       <c r="D53" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3207,15 +3207,15 @@
       </c>
       <c r="E53" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>IT0003256820_Quote</v>
+        <v>IT0003535157_Quote</v>
       </c>
       <c r="F53" s="10">
         <f>_xll.qlQuoteValue(E53,Trigger)</f>
-        <v>120.33500000000001</v>
+        <v>142.20499999999998</v>
       </c>
       <c r="G53" s="7" t="str">
         <f>_xll.qlBondHelper(,E53,A53,,,Trigger)</f>
-        <v>obj_00a4a#0000</v>
+        <v>obj_007e0#0003</v>
       </c>
       <c r="H53" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A53,$H$1)</f>
@@ -3223,24 +3223,24 @@
       </c>
       <c r="I53" s="10">
         <f>_xll.qlBondCleanPrice(A53,H53)</f>
-        <v>148.73999500000048</v>
+        <v>142.20500175824179</v>
       </c>
       <c r="J53" s="10">
         <f t="shared" si="2"/>
-        <v>28.404995000000469</v>
+        <v>1.7582418081474316E-6</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="str">
-        <v>IT0003535157</v>
+        <v>IT0003934657</v>
       </c>
       <c r="B54" s="8" t="str">
         <f>_xll.qlBondDescription(A54)</f>
-        <v>BTP 2034-08-01 5%</v>
+        <v>BTP 2037-02-01 4%</v>
       </c>
       <c r="C54" s="11">
         <f>_xll.qlBondMaturityDate(A54)</f>
-        <v>49157</v>
+        <v>50072</v>
       </c>
       <c r="D54" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3248,15 +3248,15 @@
       </c>
       <c r="E54" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>IT0003535157_Quote</v>
+        <v>IT0003934657_Quote</v>
       </c>
       <c r="F54" s="10">
         <f>_xll.qlQuoteValue(E54,Trigger)</f>
-        <v>119.51</v>
+        <v>127.12</v>
       </c>
       <c r="G54" s="7" t="str">
         <f>_xll.qlBondHelper(,E54,A54,,,Trigger)</f>
-        <v>obj_00a79#0000</v>
+        <v>obj_007cf#0003</v>
       </c>
       <c r="H54" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A54,$H$1)</f>
@@ -3264,24 +3264,24 @@
       </c>
       <c r="I54" s="10">
         <f>_xll.qlBondCleanPrice(A54,H54)</f>
-        <v>139.17500173913055</v>
+        <v>127.12000340658106</v>
       </c>
       <c r="J54" s="10">
         <f t="shared" si="2"/>
-        <v>19.665001739130545</v>
+        <v>3.4065810581296319E-6</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="str">
-        <v>IT0003934657</v>
+        <v>IT0004286966</v>
       </c>
       <c r="B55" s="8" t="str">
         <f>_xll.qlBondDescription(A55)</f>
-        <v>BTP 2037-02-01 4%</v>
+        <v>BTP 2039-08-01 5%</v>
       </c>
       <c r="C55" s="11">
         <f>_xll.qlBondMaturityDate(A55)</f>
-        <v>50072</v>
+        <v>50983</v>
       </c>
       <c r="D55" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3289,15 +3289,15 @@
       </c>
       <c r="E55" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>IT0003934657_Quote</v>
+        <v>IT0004286966_Quote</v>
       </c>
       <c r="F55" s="10">
         <f>_xll.qlQuoteValue(E55,Trigger)</f>
-        <v>115.77500000000001</v>
+        <v>145.55000000000001</v>
       </c>
       <c r="G55" s="7" t="str">
         <f>_xll.qlBondHelper(,E55,A55,,,Trigger)</f>
-        <v>obj_00a60#0000</v>
+        <v>obj_007e2#0003</v>
       </c>
       <c r="H55" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A55,$H$1)</f>
@@ -3305,24 +3305,24 @@
       </c>
       <c r="I55" s="10">
         <f>_xll.qlBondCleanPrice(A55,H55)</f>
-        <v>124.03499739127793</v>
+        <v>145.55000175824176</v>
       </c>
       <c r="J55" s="10">
         <f t="shared" si="2"/>
-        <v>8.2599973912779205</v>
+        <v>1.7582417513040127E-6</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="str">
-        <v>IT0004286966</v>
+        <v>IT0004532559</v>
       </c>
       <c r="B56" s="8" t="str">
         <f>_xll.qlBondDescription(A56)</f>
-        <v>BTP 2039-08-01 5%</v>
+        <v>BTP 2040-09-01 5%</v>
       </c>
       <c r="C56" s="11">
         <f>_xll.qlBondMaturityDate(A56)</f>
-        <v>50983</v>
+        <v>51380</v>
       </c>
       <c r="D56" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3330,15 +3330,15 @@
       </c>
       <c r="E56" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>IT0004286966_Quote</v>
-      </c>
-      <c r="F56" s="10" t="e">
+        <v>IT0004532559_Quote</v>
+      </c>
+      <c r="F56" s="10">
         <f>_xll.qlQuoteValue(E56,Trigger)</f>
-        <v>#NUM!</v>
+        <v>145.285</v>
       </c>
       <c r="G56" s="7" t="str">
         <f>_xll.qlBondHelper(,E56,A56,,,Trigger)</f>
-        <v>obj_00a6c#0000</v>
+        <v>obj_00806#0003</v>
       </c>
       <c r="H56" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A56,$H$1)</f>
@@ -3346,24 +3346,24 @@
       </c>
       <c r="I56" s="10">
         <f>_xll.qlBondCleanPrice(A56,H56)</f>
-        <v>142.52500173913037</v>
-      </c>
-      <c r="J56" s="10" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>145.28499565217402</v>
+      </c>
+      <c r="J56" s="10">
+        <f t="shared" si="2"/>
+        <v>-4.3478259783569229E-6</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
-        <v>IT0004532559</v>
+        <v>IT0004923998</v>
       </c>
       <c r="B57" s="8" t="str">
         <f>_xll.qlBondDescription(A57)</f>
-        <v>BTP 2040-09-01 5%</v>
+        <v>BTP 2044-09-01 4.75%</v>
       </c>
       <c r="C57" s="11">
         <f>_xll.qlBondMaturityDate(A57)</f>
-        <v>51380</v>
+        <v>52841</v>
       </c>
       <c r="D57" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3371,15 +3371,15 @@
       </c>
       <c r="E57" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>IT0004532559_Quote</v>
-      </c>
-      <c r="F57" s="10" t="e">
+        <v>IT0004923998_Quote</v>
+      </c>
+      <c r="F57" s="10">
         <f>_xll.qlQuoteValue(E57,Trigger)</f>
-        <v>#NUM!</v>
+        <v>143.80500000000001</v>
       </c>
       <c r="G57" s="7" t="str">
         <f>_xll.qlBondHelper(,E57,A57,,,Trigger)</f>
-        <v>obj_00a52#0000</v>
+        <v>obj_007d4#0003</v>
       </c>
       <c r="H57" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A57,$H$1)</f>
@@ -3387,24 +3387,24 @@
       </c>
       <c r="I57" s="10">
         <f>_xll.qlBondCleanPrice(A57,H57)</f>
-        <v>142.40999560439568</v>
-      </c>
-      <c r="J57" s="10" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>143.8050008695694</v>
+      </c>
+      <c r="J57" s="10">
+        <f t="shared" si="2"/>
+        <v>8.695693907156965E-7</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="str">
-        <v>IT0004923998</v>
+        <v>IT0005083057</v>
       </c>
       <c r="B58" s="8" t="str">
         <f>_xll.qlBondDescription(A58)</f>
-        <v>BTP 2044-09-01 4.75%</v>
+        <v>BTP 2046-09-01 3.25%</v>
       </c>
       <c r="C58" s="11">
         <f>_xll.qlBondMaturityDate(A58)</f>
-        <v>52841</v>
+        <v>53571</v>
       </c>
       <c r="D58" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3412,15 +3412,15 @@
       </c>
       <c r="E58" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>IT0004923998_Quote</v>
-      </c>
-      <c r="F58" s="10" t="e">
+        <v>IT0005083057_Quote</v>
+      </c>
+      <c r="F58" s="10">
         <f>_xll.qlQuoteValue(E58,Trigger)</f>
-        <v>#NUM!</v>
+        <v>113.53</v>
       </c>
       <c r="G58" s="7" t="str">
         <f>_xll.qlBondHelper(,E58,A58,,,Trigger)</f>
-        <v>obj_00a5a#0000</v>
+        <v>obj_007e8#0003</v>
       </c>
       <c r="H58" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A58,$H$1)</f>
@@ -3428,24 +3428,24 @@
       </c>
       <c r="I58" s="10">
         <f>_xll.qlBondCleanPrice(A58,H58)</f>
-        <v>140.84499582417581</v>
-      </c>
-      <c r="J58" s="10" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>113.53000217391306</v>
+      </c>
+      <c r="J58" s="10">
+        <f t="shared" si="2"/>
+        <v>2.173913060232735E-6</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="str">
-        <v>IT0005083057</v>
+        <v>IT0005162828</v>
       </c>
       <c r="B59" s="8" t="str">
         <f>_xll.qlBondDescription(A59)</f>
-        <v>BTP 2046-09-01 3.25%</v>
+        <v>BTP 2047-03-01 2.7%</v>
       </c>
       <c r="C59" s="11">
         <f>_xll.qlBondMaturityDate(A59)</f>
-        <v>53571</v>
+        <v>53752</v>
       </c>
       <c r="D59" s="8" t="b">
         <f t="shared" si="0"/>
@@ -3453,15 +3453,15 @@
       </c>
       <c r="E59" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>IT0005083057_Quote</v>
-      </c>
-      <c r="F59" s="10" t="e">
+        <v>IT0005162828_Quote</v>
+      </c>
+      <c r="F59" s="10">
         <f>_xll.qlQuoteValue(E59,Trigger)</f>
-        <v>#NUM!</v>
+        <v>101.39</v>
       </c>
       <c r="G59" s="7" t="str">
         <f>_xll.qlBondHelper(,E59,A59,,,Trigger)</f>
-        <v>obj_00a42#0000</v>
+        <v>obj_007f5#0003</v>
       </c>
       <c r="H59" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(A59,$H$1)</f>
@@ -3469,11 +3469,11 @@
       </c>
       <c r="I59" s="10">
         <f>_xll.qlBondCleanPrice(A59,H59)</f>
-        <v>110.82499714285716</v>
-      </c>
-      <c r="J59" s="10" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>101.38999565217392</v>
+      </c>
+      <c r="J59" s="10">
+        <f t="shared" si="2"/>
+        <v>-4.3478260778329059E-6</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -3940,7 +3940,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3956,8 +3958,8 @@
     <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8" style="2"/>
   </cols>
@@ -3984,7 +3986,7 @@
       </c>
       <c r="H1" s="3" t="str">
         <f>_xll.qlBondEngine(,L2)</f>
-        <v>obj_00a7d#0002</v>
+        <v>obj_00808#0005</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -3999,16 +4001,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f t="array" ref="A2:A53">_xll.qlBondAlive("StrippableBTPs",Trigger)</f>
-        <v>IT0004656275</v>
+        <f t="array" ref="A2:A70">_xll.qlBondAlive("StrippableBTPs",Trigger)</f>
+        <v>IT0004712748</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>_xll.qlBondDescription($A2,Trigger)</f>
-        <v>BTP 2015-11-01 3%</v>
+        <v>BTP 2016-04-15 3.75%</v>
       </c>
       <c r="C2" s="11">
         <f>_xll.qlBondMaturityDate($A2,Trigger)</f>
-        <v>42309</v>
+        <v>42475</v>
       </c>
       <c r="D2" s="8" t="b">
         <f>NOT(ISERROR(A2))</f>
@@ -4016,15 +4018,15 @@
       </c>
       <c r="E2" s="8" t="str">
         <f>$A2&amp;$E$1</f>
-        <v>IT0004656275_Quote</v>
+        <v>IT0004712748_Quote</v>
       </c>
       <c r="F2" s="10">
         <f>_xll.qlQuoteValue(E2,Trigger)</f>
-        <v>100.40799999999999</v>
+        <v>100.4085</v>
       </c>
       <c r="G2" s="7" t="str">
         <f>_xll.qlBondHelper(,E2,$A2,,,Trigger)</f>
-        <v>obj_00a34#0000</v>
+        <v>obj_007c2#0004</v>
       </c>
       <c r="H2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A2,$H$1)</f>
@@ -4032,45 +4034,45 @@
       </c>
       <c r="I2" s="10">
         <f>_xll.qlBondCleanPrice($A2,H2)</f>
-        <v>100.14150304347824</v>
+        <v>100.40850163934425</v>
       </c>
       <c r="J2" s="10">
         <f t="shared" ref="J2:J8" si="0">I2-F2</f>
-        <v>-0.26649695652174898</v>
+        <v>1.639344247905683E-6</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="3" t="str">
-        <f>_xll.qlPiecewiseYieldCurve(L1,_xll.qlBondSettlementDays(A14),"TARGET",_xll.ohFilter(G2:G48,D2:D48),,,,,TraitsID,InterpolatorID)</f>
-        <v>BtpStrippable#0002</v>
+        <f>_xll.qlPiecewiseYieldCurve(L1,_xll.qlBondSettlementDays(A14),"TARGET",_xll.ohFilter(G2:G70,D2:D70),,,,,TraitsID,InterpolatorID)</f>
+        <v>BtpStrippable#0005</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <v>IT0004712748</v>
+        <v>IT0004019581</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>_xll.qlBondDescription($A3,Trigger)</f>
-        <v>BTP 2016-04-15 3.75%</v>
+        <v>BTP 2016-08-01 3.75%</v>
       </c>
       <c r="C3" s="11">
         <f>_xll.qlBondMaturityDate($A3,Trigger)</f>
-        <v>42475</v>
+        <v>42583</v>
       </c>
       <c r="D3" s="8" t="b">
         <f t="shared" ref="D3:D48" si="1">NOT(ISERROR(A3))</f>
         <v>1</v>
       </c>
       <c r="E3" s="8" t="str">
-        <f t="shared" ref="E3:E48" si="2">$A3&amp;$E$1</f>
-        <v>IT0004712748_Quote</v>
+        <f t="shared" ref="E3:E66" si="2">$A3&amp;$E$1</f>
+        <v>IT0004019581_Quote</v>
       </c>
       <c r="F3" s="10">
         <f>_xll.qlQuoteValue(E3,Trigger)</f>
-        <v>100.76649999999999</v>
+        <v>101.54849999999999</v>
       </c>
       <c r="G3" s="7" t="str">
         <f>_xll.qlBondHelper(,E3,$A3,,,Trigger)</f>
-        <v>obj_00a37#0000</v>
+        <v>obj_007be#0004</v>
       </c>
       <c r="H3" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A3,$H$1)</f>
@@ -4078,26 +4080,26 @@
       </c>
       <c r="I3" s="10">
         <f>_xll.qlBondCleanPrice($A3,H3)</f>
-        <v>101.88100000000003</v>
+        <v>101.5485013186813</v>
       </c>
       <c r="J3" s="10">
         <f t="shared" si="0"/>
-        <v>1.1145000000000351</v>
+        <v>1.3186813134780095E-6</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <v>IT0004019581</v>
+        <v>IT0004761950</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>_xll.qlBondDescription($A4,Trigger)</f>
-        <v>BTP 2016-08-01 3.75%</v>
+        <v>BTP 2016-09-15 4.75%</v>
       </c>
       <c r="C4" s="11">
         <f>_xll.qlBondMaturityDate($A4,Trigger)</f>
-        <v>42583</v>
+        <v>42628</v>
       </c>
       <c r="D4" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4105,15 +4107,15 @@
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004019581_Quote</v>
+        <v>IT0004761950_Quote</v>
       </c>
       <c r="F4" s="10">
         <f>_xll.qlQuoteValue(E4,Trigger)</f>
-        <v>101.59700000000001</v>
+        <v>102.5</v>
       </c>
       <c r="G4" s="7" t="str">
         <f>_xll.qlBondHelper(,E4,$A4,,,Trigger)</f>
-        <v>obj_00a38#0000</v>
+        <v>obj_007a7#0004</v>
       </c>
       <c r="H4" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A4,$H$1)</f>
@@ -4121,11 +4123,11 @@
       </c>
       <c r="I4" s="10">
         <f>_xll.qlBondCleanPrice($A4,H4)</f>
-        <v>102.97249630434783</v>
+        <v>102.50000329670333</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>1.3754963043478199</v>
+        <v>3.296703326327588E-6</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="17" t="str">
@@ -4135,15 +4137,15 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <v>IT0004761950</v>
+        <v>IT0004164775</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>_xll.qlBondDescription($A5,Trigger)</f>
-        <v>BTP 2016-09-15 4.75%</v>
+        <v>BTP 2017-02-01 4%</v>
       </c>
       <c r="C5" s="11">
         <f>_xll.qlBondMaturityDate($A5,Trigger)</f>
-        <v>42628</v>
+        <v>42767</v>
       </c>
       <c r="D5" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4151,15 +4153,15 @@
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004761950_Quote</v>
+        <v>IT0004164775_Quote</v>
       </c>
       <c r="F5" s="10">
         <f>_xll.qlQuoteValue(E5,Trigger)</f>
-        <v>102.961</v>
+        <v>103.67</v>
       </c>
       <c r="G5" s="7" t="str">
         <f>_xll.qlBondHelper(,E5,$A5,,,Trigger)</f>
-        <v>obj_00a26#0000</v>
+        <v>obj_007a0#0004</v>
       </c>
       <c r="H5" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A5,$H$1)</f>
@@ -4167,26 +4169,26 @@
       </c>
       <c r="I5" s="10">
         <f>_xll.qlBondCleanPrice($A5,H5)</f>
-        <v>104.33250351648353</v>
+        <v>103.67000340659344</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="0"/>
-        <v>1.3715035164835285</v>
+        <v>3.4065934357840888E-6</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <v>IT0004164775</v>
+        <v>IT0004793474</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>_xll.qlBondDescription($A6,Trigger)</f>
-        <v>BTP 2017-02-01 4%</v>
+        <v>BTP 2017-05-01 4.75%</v>
       </c>
       <c r="C6" s="11">
         <f>_xll.qlBondMaturityDate($A6,Trigger)</f>
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="D6" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4194,15 +4196,15 @@
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004164775_Quote</v>
+        <v>IT0004793474_Quote</v>
       </c>
       <c r="F6" s="10">
         <f>_xll.qlQuoteValue(E6,Trigger)</f>
-        <v>102.4135</v>
+        <v>105.52250000000001</v>
       </c>
       <c r="G6" s="7" t="str">
         <f>_xll.qlBondHelper(,E6,$A6,,,Trigger)</f>
-        <v>obj_00a36#0000</v>
+        <v>obj_007b2#0004</v>
       </c>
       <c r="H6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A6,$H$1)</f>
@@ -4210,26 +4212,26 @@
       </c>
       <c r="I6" s="10">
         <f>_xll.qlBondCleanPrice($A6,H6)</f>
-        <v>105.10849739130435</v>
+        <v>105.52249912087913</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="0"/>
-        <v>2.694997391304355</v>
+        <v>-8.7912087565200636E-7</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <v>IT0004793474</v>
+        <v>IT0005023459</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>_xll.qlBondDescription($A7,Trigger)</f>
-        <v>BTP 2017-05-01 4.75%</v>
+        <v>BTP 2017-05-15 1.15%</v>
       </c>
       <c r="C7" s="11">
         <f>_xll.qlBondMaturityDate($A7,Trigger)</f>
-        <v>42856</v>
+        <v>42870</v>
       </c>
       <c r="D7" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4237,15 +4239,15 @@
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004793474_Quote</v>
+        <v>IT0005023459_Quote</v>
       </c>
       <c r="F7" s="10">
         <f>_xll.qlQuoteValue(E7,Trigger)</f>
-        <v>104.404</v>
+        <v>101.4405</v>
       </c>
       <c r="G7" s="7" t="str">
         <f>_xll.qlBondHelper(,E7,$A7,,,Trigger)</f>
-        <v>obj_00a3c#0000</v>
+        <v>obj_007cb#0004</v>
       </c>
       <c r="H7" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A7,$H$1)</f>
@@ -4253,26 +4255,26 @@
       </c>
       <c r="I7" s="10">
         <f>_xll.qlBondCleanPrice($A7,H7)</f>
-        <v>107.22000065217391</v>
+        <v>101.44050417582416</v>
       </c>
       <c r="J7" s="10">
         <f t="shared" si="0"/>
-        <v>2.816000652173912</v>
+        <v>4.1758241593470302E-6</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <v>IT0005023459</v>
+        <v>IT0004820426</v>
       </c>
       <c r="B8" s="8" t="str">
         <f>_xll.qlBondDescription($A8,Trigger)</f>
-        <v>BTP 2017-05-15 1.15%</v>
+        <v>BTP 2017-06-01 4.75%</v>
       </c>
       <c r="C8" s="11">
         <f>_xll.qlBondMaturityDate($A8,Trigger)</f>
-        <v>42870</v>
+        <v>42887</v>
       </c>
       <c r="D8" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4280,15 +4282,15 @@
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0005023459_Quote</v>
+        <v>IT0004820426_Quote</v>
       </c>
       <c r="F8" s="10">
         <f>_xll.qlQuoteValue(E8,Trigger)</f>
-        <v>102.27500000000001</v>
+        <v>105.9285</v>
       </c>
       <c r="G8" s="7" t="str">
         <f>_xll.qlBondHelper(,E8,$A8,,,Trigger)</f>
-        <v>obj_00a13#0000</v>
+        <v>obj_007c3#0004</v>
       </c>
       <c r="H8" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A8,$H$1)</f>
@@ -4296,25 +4298,25 @@
       </c>
       <c r="I8" s="10">
         <f>_xll.qlBondCleanPrice($A8,H8)</f>
-        <v>101.70000499999999</v>
+        <v>105.92849606557377</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="0"/>
-        <v>-0.57499500000001547</v>
+        <v>-3.9344262319218615E-6</v>
       </c>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <v>IT0004820426</v>
+        <v>IT0003242747</v>
       </c>
       <c r="B9" s="8" t="str">
         <f>_xll.qlBondDescription($A9,Trigger)</f>
-        <v>BTP 2017-06-01 4.75%</v>
+        <v>BTP 2017-08-01 5.25%</v>
       </c>
       <c r="C9" s="11">
         <f>_xll.qlBondMaturityDate($A9,Trigger)</f>
-        <v>42887</v>
+        <v>42948</v>
       </c>
       <c r="D9" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4322,15 +4324,15 @@
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004820426_Quote</v>
+        <v>IT0003242747_Quote</v>
       </c>
       <c r="F9" s="10">
         <f>_xll.qlQuoteValue(E9,Trigger)</f>
-        <v>105.19</v>
+        <v>107.4515</v>
       </c>
       <c r="G9" s="7" t="str">
         <f>_xll.qlBondHelper(,E9,$A9,,,Trigger)</f>
-        <v>obj_00a23#0000</v>
+        <v>obj_007b3#0004</v>
       </c>
       <c r="H9" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A9,$H$1)</f>
@@ -4338,25 +4340,25 @@
       </c>
       <c r="I9" s="10">
         <f>_xll.qlBondCleanPrice($A9,H9)</f>
-        <v>107.57499732240437</v>
+        <v>107.45150384615386</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" ref="J9:J35" si="3">I9-F9</f>
-        <v>2.3849973224043737</v>
+        <v>3.8461538593992373E-6</v>
       </c>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <v>IT0003242747</v>
+        <v>IT0004867070</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>_xll.qlBondDescription($A10,Trigger)</f>
-        <v>BTP 2017-08-01 5.25%</v>
+        <v>BTP 2017-11-01 3.5%</v>
       </c>
       <c r="C10" s="11">
         <f>_xll.qlBondMaturityDate($A10,Trigger)</f>
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="D10" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4364,15 +4366,15 @@
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0003242747_Quote</v>
+        <v>IT0004867070_Quote</v>
       </c>
       <c r="F10" s="10">
         <f>_xll.qlQuoteValue(E10,Trigger)</f>
-        <v>107.31</v>
+        <v>105.89</v>
       </c>
       <c r="G10" s="7" t="str">
         <f>_xll.qlBondHelper(,E10,$A10,,,Trigger)</f>
-        <v>obj_00a2c#0000</v>
+        <v>obj_007ca#0004</v>
       </c>
       <c r="H10" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A10,$H$1)</f>
@@ -4380,25 +4382,25 @@
       </c>
       <c r="I10" s="10">
         <f>_xll.qlBondCleanPrice($A10,H10)</f>
-        <v>109.26500282608696</v>
+        <v>105.89000461538464</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="3"/>
-        <v>1.9550028260869539</v>
+        <v>4.6153846398055975E-6</v>
       </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <v>IT0004867070</v>
+        <v>IT0005058463</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>_xll.qlBondDescription($A11,Trigger)</f>
-        <v>BTP 2017-11-01 3.5%</v>
+        <v>BTP 2018-01-15 0.75%</v>
       </c>
       <c r="C11" s="11">
         <f>_xll.qlBondMaturityDate($A11,Trigger)</f>
-        <v>43040</v>
+        <v>43115</v>
       </c>
       <c r="D11" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4406,15 +4408,15 @@
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004867070_Quote</v>
+        <v>IT0005058463_Quote</v>
       </c>
       <c r="F11" s="10">
         <f>_xll.qlQuoteValue(E11,Trigger)</f>
-        <v>103.72499999999999</v>
+        <v>101.53</v>
       </c>
       <c r="G11" s="7" t="str">
         <f>_xll.qlBondHelper(,E11,$A11,,,Trigger)</f>
-        <v>obj_00a1b#0000</v>
+        <v>obj_007a1#0004</v>
       </c>
       <c r="H11" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A11,$H$1)</f>
@@ -4422,25 +4424,25 @@
       </c>
       <c r="I11" s="10">
         <f>_xll.qlBondCleanPrice($A11,H11)</f>
-        <v>106.91499521739131</v>
+        <v>101.53000373626372</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="3"/>
-        <v>3.1899952173913135</v>
+        <v>3.736263721521027E-6</v>
       </c>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <v>IT0005058463</v>
+        <v>IT0004273493</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>_xll.qlBondDescription($A12,Trigger)</f>
-        <v>BTP 2018-01-15 0.75%</v>
+        <v>BTP 2018-02-01 4.5%</v>
       </c>
       <c r="C12" s="11">
         <f>_xll.qlBondMaturityDate($A12,Trigger)</f>
-        <v>43115</v>
+        <v>43132</v>
       </c>
       <c r="D12" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4448,15 +4450,15 @@
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0005058463_Quote</v>
+        <v>IT0004273493_Quote</v>
       </c>
       <c r="F12" s="10">
         <f>_xll.qlQuoteValue(E12,Trigger)</f>
-        <v>101.19</v>
+        <v>108.655</v>
       </c>
       <c r="G12" s="7" t="str">
         <f>_xll.qlBondHelper(,E12,$A12,,,Trigger)</f>
-        <v>obj_00a24#0000</v>
+        <v>obj_007a4#0004</v>
       </c>
       <c r="H12" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A12,$H$1)</f>
@@ -4464,25 +4466,25 @@
       </c>
       <c r="I12" s="10">
         <f>_xll.qlBondCleanPrice($A12,H12)</f>
-        <v>101.30000000000001</v>
+        <v>108.65499758241758</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="3"/>
-        <v>0.11000000000001364</v>
+        <v>-2.4175824222538722E-6</v>
       </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <v>IT0004273493</v>
+        <v>IT0004907843</v>
       </c>
       <c r="B13" s="8" t="str">
         <f>_xll.qlBondDescription($A13,Trigger)</f>
-        <v>BTP 2018-02-01 4.5%</v>
+        <v>BTP 2018-06-01 3.5%</v>
       </c>
       <c r="C13" s="11">
         <f>_xll.qlBondMaturityDate($A13,Trigger)</f>
-        <v>43132</v>
+        <v>43252</v>
       </c>
       <c r="D13" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4490,15 +4492,15 @@
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004273493_Quote</v>
+        <v>IT0004907843_Quote</v>
       </c>
       <c r="F13" s="10">
         <f>_xll.qlQuoteValue(E13,Trigger)</f>
-        <v>106.86499999999999</v>
+        <v>107.88500000000001</v>
       </c>
       <c r="G13" s="7" t="str">
         <f>_xll.qlBondHelper(,E13,$A13,,,Trigger)</f>
-        <v>obj_00a21#0000</v>
+        <v>obj_007b5#0004</v>
       </c>
       <c r="H13" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A13,$H$1)</f>
@@ -4506,25 +4508,25 @@
       </c>
       <c r="I13" s="10">
         <f>_xll.qlBondCleanPrice($A13,H13)</f>
-        <v>109.89999956521741</v>
+        <v>107.88500131147541</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="3"/>
-        <v>3.0349995652174186</v>
+        <v>1.3114754011667173E-6</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <v>IT0004907843</v>
+        <v>IT0004361041</v>
       </c>
       <c r="B14" s="8" t="str">
         <f>_xll.qlBondDescription($A14,Trigger)</f>
-        <v>BTP 2018-06-01 3.5%</v>
+        <v>BTP 2018-08-01 4.5%</v>
       </c>
       <c r="C14" s="11">
         <f>_xll.qlBondMaturityDate($A14,Trigger)</f>
-        <v>43252</v>
+        <v>43313</v>
       </c>
       <c r="D14" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4532,15 +4534,15 @@
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004907843_Quote</v>
+        <v>IT0004361041_Quote</v>
       </c>
       <c r="F14" s="10">
         <f>_xll.qlQuoteValue(E14,Trigger)</f>
-        <v>109.53</v>
+        <v>110.83</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>_xll.qlBondHelper(,E14,$A14,,,Trigger)</f>
-        <v>obj_00a40#0000</v>
+        <v>obj_007a8#0004</v>
       </c>
       <c r="H14" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A14,$H$1)</f>
@@ -4548,25 +4550,25 @@
       </c>
       <c r="I14" s="10">
         <f>_xll.qlBondCleanPrice($A14,H14)</f>
-        <v>108.50999644808742</v>
+        <v>110.82999758241759</v>
       </c>
       <c r="J14" s="10">
         <f t="shared" si="3"/>
-        <v>-1.0200035519125805</v>
+        <v>-2.4175824080430175E-6</v>
       </c>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <v>IT0004361041</v>
+        <v>IT0004957574</v>
       </c>
       <c r="B15" s="8" t="str">
         <f>_xll.qlBondDescription($A15,Trigger)</f>
-        <v>BTP 2018-08-01 4.5%</v>
+        <v>BTP 2018-12-01 3.5%</v>
       </c>
       <c r="C15" s="11">
         <f>_xll.qlBondMaturityDate($A15,Trigger)</f>
-        <v>43313</v>
+        <v>43435</v>
       </c>
       <c r="D15" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4574,15 +4576,15 @@
       </c>
       <c r="E15" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004361041_Quote</v>
+        <v>IT0004957574_Quote</v>
       </c>
       <c r="F15" s="10">
         <f>_xll.qlQuoteValue(E15,Trigger)</f>
-        <v>111.535</v>
+        <v>109.55500000000001</v>
       </c>
       <c r="G15" s="7" t="str">
         <f>_xll.qlBondHelper(,E15,$A15,,,Trigger)</f>
-        <v>obj_00a3f#0000</v>
+        <v>obj_007cc#0004</v>
       </c>
       <c r="H15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A15,$H$1)</f>
@@ -4590,25 +4592,25 @@
       </c>
       <c r="I15" s="10">
         <f>_xll.qlBondCleanPrice($A15,H15)</f>
-        <v>111.8099995652174</v>
+        <v>109.55500131147541</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="3"/>
-        <v>0.27499956521739932</v>
+        <v>1.3114754011667173E-6</v>
       </c>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <v>IT0004957574</v>
+        <v>IT0003493258</v>
       </c>
       <c r="B16" s="8" t="str">
         <f>_xll.qlBondDescription($A16,Trigger)</f>
-        <v>BTP 2018-12-01 3.5%</v>
+        <v>BTP 2019-02-01 4.25%</v>
       </c>
       <c r="C16" s="11">
         <f>_xll.qlBondMaturityDate($A16,Trigger)</f>
-        <v>43435</v>
+        <v>43497</v>
       </c>
       <c r="D16" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4616,15 +4618,15 @@
       </c>
       <c r="E16" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004957574_Quote</v>
+        <v>IT0003493258_Quote</v>
       </c>
       <c r="F16" s="10">
         <f>_xll.qlQuoteValue(E16,Trigger)</f>
-        <v>107.315</v>
+        <v>112.22999999999999</v>
       </c>
       <c r="G16" s="7" t="str">
         <f>_xll.qlBondHelper(,E16,$A16,,,Trigger)</f>
-        <v>obj_00a19#0000</v>
+        <v>obj_007ab#0004</v>
       </c>
       <c r="H16" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A16,$H$1)</f>
@@ -4632,25 +4634,25 @@
       </c>
       <c r="I16" s="10">
         <f>_xll.qlBondCleanPrice($A16,H16)</f>
-        <v>109.89499644808741</v>
+        <v>112.2299954945055</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="3"/>
-        <v>2.5799964480874138</v>
+        <v>-4.5054944877165326E-6</v>
       </c>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
-        <v>IT0003493258</v>
+        <v>IT0004423957</v>
       </c>
       <c r="B17" s="8" t="str">
         <f>_xll.qlBondDescription($A17,Trigger)</f>
-        <v>BTP 2019-02-01 4.25%</v>
+        <v>BTP 2019-03-01 4.5%</v>
       </c>
       <c r="C17" s="11">
         <f>_xll.qlBondMaturityDate($A17,Trigger)</f>
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="D17" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4658,15 +4660,15 @@
       </c>
       <c r="E17" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0003493258_Quote</v>
+        <v>IT0004423957_Quote</v>
       </c>
       <c r="F17" s="10">
         <f>_xll.qlQuoteValue(E17,Trigger)</f>
-        <v>110.795</v>
+        <v>113.27500000000001</v>
       </c>
       <c r="G17" s="7" t="str">
         <f>_xll.qlBondHelper(,E17,$A17,,,Trigger)</f>
-        <v>obj_00a20#0000</v>
+        <v>obj_007bb#0004</v>
       </c>
       <c r="H17" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A17,$H$1)</f>
@@ -4674,25 +4676,25 @@
       </c>
       <c r="I17" s="10">
         <f>_xll.qlBondCleanPrice($A17,H17)</f>
-        <v>112.68999847826088</v>
+        <v>113.27499608695653</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="3"/>
-        <v>1.8949984782608738</v>
+        <v>-3.9130434714707008E-6</v>
       </c>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
-        <v>IT0004423957</v>
+        <v>IT0004992308</v>
       </c>
       <c r="B18" s="8" t="str">
         <f>_xll.qlBondDescription($A18,Trigger)</f>
-        <v>BTP 2019-03-01 4.5%</v>
+        <v>BTP 2019-05-01 2.5%</v>
       </c>
       <c r="C18" s="11">
         <f>_xll.qlBondMaturityDate($A18,Trigger)</f>
-        <v>43525</v>
+        <v>43586</v>
       </c>
       <c r="D18" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4700,15 +4702,15 @@
       </c>
       <c r="E18" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004423957_Quote</v>
+        <v>IT0004992308_Quote</v>
       </c>
       <c r="F18" s="10">
         <f>_xll.qlQuoteValue(E18,Trigger)</f>
-        <v>108.11500000000001</v>
+        <v>107.595</v>
       </c>
       <c r="G18" s="7" t="str">
         <f>_xll.qlBondHelper(,E18,$A18,,,Trigger)</f>
-        <v>obj_00a29#0000</v>
+        <v>obj_0079f#0004</v>
       </c>
       <c r="H18" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A18,$H$1)</f>
@@ -4716,25 +4718,25 @@
       </c>
       <c r="I18" s="10">
         <f>_xll.qlBondCleanPrice($A18,H18)</f>
-        <v>113.78499604395606</v>
+        <v>107.59499901098901</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="3"/>
-        <v>5.6699960439560471</v>
+        <v>-9.8901098510850716E-7</v>
       </c>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <v>IT0004489610</v>
+        <v>IT0005030504</v>
       </c>
       <c r="B19" s="8" t="str">
         <f>_xll.qlBondDescription($A19,Trigger)</f>
-        <v>BTP 2019-09-01 4.25%</v>
+        <v>BTP 2019-08-01 1.5%</v>
       </c>
       <c r="C19" s="11">
         <f>_xll.qlBondMaturityDate($A19,Trigger)</f>
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="D19" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4742,15 +4744,15 @@
       </c>
       <c r="E19" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004489610_Quote</v>
+        <v>IT0005030504_Quote</v>
       </c>
       <c r="F19" s="10">
         <f>_xll.qlQuoteValue(E19,Trigger)</f>
-        <v>112.50999999999999</v>
+        <v>104.67</v>
       </c>
       <c r="G19" s="7" t="str">
         <f>_xll.qlBondHelper(,E19,$A19,,,Trigger)</f>
-        <v>obj_00a3e#0000</v>
+        <v>obj_007c6#0004</v>
       </c>
       <c r="H19" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A19,$H$1)</f>
@@ -4758,26 +4760,26 @@
       </c>
       <c r="I19" s="10">
         <f>_xll.qlBondCleanPrice($A19,H19)</f>
-        <v>114.37499626373624</v>
+        <v>104.67000252747252</v>
       </c>
       <c r="J19" s="10">
         <f t="shared" si="3"/>
-        <v>1.8649962637362449</v>
+        <v>2.5274725174995183E-6</v>
       </c>
       <c r="K19" s="5"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
-        <v>IT0003644769</v>
+        <v>IT0004489610</v>
       </c>
       <c r="B20" s="8" t="str">
         <f>_xll.qlBondDescription($A20,Trigger)</f>
-        <v>BTP 2020-02-01 4.5%</v>
+        <v>BTP 2019-09-01 4.25%</v>
       </c>
       <c r="C20" s="11">
         <f>_xll.qlBondMaturityDate($A20,Trigger)</f>
-        <v>43862</v>
+        <v>43709</v>
       </c>
       <c r="D20" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4785,15 +4787,15 @@
       </c>
       <c r="E20" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0003644769_Quote</v>
+        <v>IT0004489610_Quote</v>
       </c>
       <c r="F20" s="10">
         <f>_xll.qlQuoteValue(E20,Trigger)</f>
-        <v>105.21000000000001</v>
+        <v>114.22499999999999</v>
       </c>
       <c r="G20" s="7" t="str">
         <f>_xll.qlBondHelper(,E20,$A20,,,Trigger)</f>
-        <v>obj_00a3a#0000</v>
+        <v>obj_007bf#0004</v>
       </c>
       <c r="H20" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A20,$H$1)</f>
@@ -4801,26 +4803,26 @@
       </c>
       <c r="I20" s="10">
         <f>_xll.qlBondCleanPrice($A20,H20)</f>
-        <v>116.51499956521737</v>
+        <v>114.22500130434783</v>
       </c>
       <c r="J20" s="10">
         <f t="shared" si="3"/>
-        <v>11.304999565217358</v>
+        <v>1.3043478332974701E-6</v>
       </c>
       <c r="K20" s="5"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <v>IT0004536949</v>
+        <v>IT0005069395</v>
       </c>
       <c r="B21" s="8" t="str">
         <f>_xll.qlBondDescription($A21,Trigger)</f>
-        <v>BTP 2020-03-01 4.25%</v>
+        <v>BTP 2019-12-01 1.05%</v>
       </c>
       <c r="C21" s="11">
         <f>_xll.qlBondMaturityDate($A21,Trigger)</f>
-        <v>43891</v>
+        <v>43800</v>
       </c>
       <c r="D21" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4828,15 +4830,15 @@
       </c>
       <c r="E21" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004536949_Quote</v>
+        <v>IT0005069395_Quote</v>
       </c>
       <c r="F21" s="10">
         <f>_xll.qlQuoteValue(E21,Trigger)</f>
-        <v>100.63</v>
+        <v>103.27500000000001</v>
       </c>
       <c r="G21" s="7" t="str">
         <f>_xll.qlBondHelper(,E21,$A21,,,Trigger)</f>
-        <v>obj_00a15#0000</v>
+        <v>obj_007c9#0004</v>
       </c>
       <c r="H21" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A21,$H$1)</f>
@@ -4844,26 +4846,26 @@
       </c>
       <c r="I21" s="10">
         <f>_xll.qlBondCleanPrice($A21,H21)</f>
-        <v>115.72999626373625</v>
+        <v>103.27499639344265</v>
       </c>
       <c r="J21" s="10">
         <f t="shared" si="3"/>
-        <v>15.099996263736259</v>
+        <v>-3.6065573567611864E-6</v>
       </c>
       <c r="K21" s="5"/>
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <v>IT0004594930</v>
+        <v>IT0003644769</v>
       </c>
       <c r="B22" s="8" t="str">
         <f>_xll.qlBondDescription($A22,Trigger)</f>
-        <v>BTP 2020-09-01 4%</v>
+        <v>BTP 2020-02-01 4.5%</v>
       </c>
       <c r="C22" s="11">
         <f>_xll.qlBondMaturityDate($A22,Trigger)</f>
-        <v>44075</v>
+        <v>43862</v>
       </c>
       <c r="D22" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4871,15 +4873,15 @@
       </c>
       <c r="E22" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004594930_Quote</v>
+        <v>IT0003644769_Quote</v>
       </c>
       <c r="F22" s="10">
         <f>_xll.qlQuoteValue(E22,Trigger)</f>
-        <v>115.31</v>
+        <v>116.705</v>
       </c>
       <c r="G22" s="7" t="str">
         <f>_xll.qlBondHelper(,E22,$A22,,,Trigger)</f>
-        <v>obj_00a22#0000</v>
+        <v>obj_007ad#0004</v>
       </c>
       <c r="H22" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A22,$H$1)</f>
@@ -4887,26 +4889,26 @@
       </c>
       <c r="I22" s="10">
         <f>_xll.qlBondCleanPrice($A22,H22)</f>
-        <v>115.59999648351646</v>
+        <v>116.70499758241759</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="3"/>
-        <v>0.28999648351646101</v>
+        <v>-2.4175824080430175E-6</v>
       </c>
       <c r="K22" s="5"/>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <v>IT0004634132</v>
+        <v>IT0004536949</v>
       </c>
       <c r="B23" s="8" t="str">
         <f>_xll.qlBondDescription($A23,Trigger)</f>
-        <v>BTP 2021-03-01 3.75%</v>
+        <v>BTP 2020-03-01 4.25%</v>
       </c>
       <c r="C23" s="11">
         <f>_xll.qlBondMaturityDate($A23,Trigger)</f>
-        <v>44256</v>
+        <v>43891</v>
       </c>
       <c r="D23" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4914,15 +4916,15 @@
       </c>
       <c r="E23" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004634132_Quote</v>
+        <v>IT0004536949_Quote</v>
       </c>
       <c r="F23" s="10">
         <f>_xll.qlQuoteValue(E23,Trigger)</f>
-        <v>114.125</v>
+        <v>115.985</v>
       </c>
       <c r="G23" s="7" t="str">
         <f>_xll.qlBondHelper(,E23,$A23,,,Trigger)</f>
-        <v>obj_00a1d#0000</v>
+        <v>obj_007c7#0004</v>
       </c>
       <c r="H23" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A23,$H$1)</f>
@@ -4930,26 +4932,26 @@
       </c>
       <c r="I23" s="10">
         <f>_xll.qlBondCleanPrice($A23,H23)</f>
-        <v>115.02999670329672</v>
+        <v>115.9850013043478</v>
       </c>
       <c r="J23" s="10">
         <f t="shared" si="3"/>
-        <v>0.90499670329671744</v>
+        <v>1.3043478048757606E-6</v>
       </c>
       <c r="K23" s="5"/>
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <v>IT0004966401</v>
+        <v>IT0005107708</v>
       </c>
       <c r="B24" s="8" t="str">
         <f>_xll.qlBondDescription($A24,Trigger)</f>
-        <v>BTP 2021-05-01 3.75%</v>
+        <v>BTP 2020-05-01 0.7%</v>
       </c>
       <c r="C24" s="11">
         <f>_xll.qlBondMaturityDate($A24,Trigger)</f>
-        <v>44317</v>
+        <v>43952</v>
       </c>
       <c r="D24" s="8" t="b">
         <f t="shared" si="1"/>
@@ -4957,15 +4959,15 @@
       </c>
       <c r="E24" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004966401_Quote</v>
+        <v>IT0005107708_Quote</v>
       </c>
       <c r="F24" s="10">
         <f>_xll.qlQuoteValue(E24,Trigger)</f>
-        <v>113.185</v>
+        <v>101.81</v>
       </c>
       <c r="G24" s="7" t="str">
         <f>_xll.qlBondHelper(,E24,$A24,,,Trigger)</f>
-        <v>obj_00a3b#0000</v>
+        <v>obj_007a3#0004</v>
       </c>
       <c r="H24" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A24,$H$1)</f>
@@ -4973,26 +4975,26 @@
       </c>
       <c r="I24" s="10">
         <f>_xll.qlBondCleanPrice($A24,H24)</f>
-        <v>115.1599963043478</v>
+        <v>101.80999692307691</v>
       </c>
       <c r="J24" s="10">
         <f t="shared" si="3"/>
-        <v>1.9749963043477976</v>
+        <v>-3.0769230932037317E-6</v>
       </c>
       <c r="K24" s="5"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <v>IT0004009673</v>
+        <v>IT0004594930</v>
       </c>
       <c r="B25" s="8" t="str">
         <f>_xll.qlBondDescription($A25,Trigger)</f>
-        <v>BTP 2021-08-01 3.75%</v>
+        <v>BTP 2020-09-01 4%</v>
       </c>
       <c r="C25" s="11">
         <f>_xll.qlBondMaturityDate($A25,Trigger)</f>
-        <v>44409</v>
+        <v>44075</v>
       </c>
       <c r="D25" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5000,15 +5002,15 @@
       </c>
       <c r="E25" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004009673_Quote</v>
+        <v>IT0004594930_Quote</v>
       </c>
       <c r="F25" s="10">
         <f>_xll.qlQuoteValue(E25,Trigger)</f>
-        <v>111.78</v>
+        <v>116.38499999999999</v>
       </c>
       <c r="G25" s="7" t="str">
         <f>_xll.qlBondHelper(,E25,$A25,,,Trigger)</f>
-        <v>obj_00a16#0000</v>
+        <v>obj_007bd#0004</v>
       </c>
       <c r="H25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A25,$H$1)</f>
@@ -5016,25 +5018,25 @@
       </c>
       <c r="I25" s="10">
         <f>_xll.qlBondCleanPrice($A25,H25)</f>
-        <v>115.37499630434782</v>
+        <v>116.38499652173914</v>
       </c>
       <c r="J25" s="10">
         <f t="shared" si="3"/>
-        <v>3.5949963043478164</v>
+        <v>-3.4782608508976409E-6</v>
       </c>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <v>IT0004695075</v>
+        <v>IT0004634132</v>
       </c>
       <c r="B26" s="8" t="str">
         <f>_xll.qlBondDescription($A26,Trigger)</f>
-        <v>BTP 2021-09-01 4.75%</v>
+        <v>BTP 2021-03-01 3.75%</v>
       </c>
       <c r="C26" s="11">
         <f>_xll.qlBondMaturityDate($A26,Trigger)</f>
-        <v>44440</v>
+        <v>44256</v>
       </c>
       <c r="D26" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5042,15 +5044,15 @@
       </c>
       <c r="E26" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004695075_Quote</v>
+        <v>IT0004634132_Quote</v>
       </c>
       <c r="F26" s="10">
         <f>_xll.qlQuoteValue(E26,Trigger)</f>
-        <v>111.42</v>
+        <v>116.265</v>
       </c>
       <c r="G26" s="7" t="str">
         <f>_xll.qlBondHelper(,E26,$A26,,,Trigger)</f>
-        <v>obj_00a32#0000</v>
+        <v>obj_007b6#0004</v>
       </c>
       <c r="H26" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A26,$H$1)</f>
@@ -5058,25 +5060,25 @@
       </c>
       <c r="I26" s="10">
         <f>_xll.qlBondCleanPrice($A26,H26)</f>
-        <v>121.16999582417581</v>
+        <v>116.26500173913043</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="3"/>
-        <v>9.7499958241758122</v>
+        <v>1.7391304254488205E-6</v>
       </c>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <v>IT0004759673</v>
+        <v>IT0004966401</v>
       </c>
       <c r="B27" s="8" t="str">
         <f>_xll.qlBondDescription($A27,Trigger)</f>
-        <v>BTP 2022-03-01 5%</v>
+        <v>BTP 2021-05-01 3.75%</v>
       </c>
       <c r="C27" s="11">
         <f>_xll.qlBondMaturityDate($A27,Trigger)</f>
-        <v>44621</v>
+        <v>44317</v>
       </c>
       <c r="D27" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5084,15 +5086,15 @@
       </c>
       <c r="E27" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004759673_Quote</v>
+        <v>IT0004966401_Quote</v>
       </c>
       <c r="F27" s="10">
         <f>_xll.qlQuoteValue(E27,Trigger)</f>
-        <v>117.82</v>
+        <v>116.515</v>
       </c>
       <c r="G27" s="7" t="str">
         <f>_xll.qlBondHelper(,E27,$A27,,,Trigger)</f>
-        <v>obj_00a2d#0000</v>
+        <v>obj_007ba#0004</v>
       </c>
       <c r="H27" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A27,$H$1)</f>
@@ -5100,25 +5102,25 @@
       </c>
       <c r="I27" s="10">
         <f>_xll.qlBondCleanPrice($A27,H27)</f>
-        <v>123.88999560439561</v>
+        <v>116.51500351648353</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="3"/>
-        <v>6.0699956043956149</v>
+        <v>3.5164835310297349E-6</v>
       </c>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <v>IT0004801541</v>
+        <v>IT0004009673</v>
       </c>
       <c r="B28" s="8" t="str">
         <f>_xll.qlBondDescription($A28,Trigger)</f>
-        <v>BTP 2022-09-01 5.5%</v>
+        <v>BTP 2021-08-01 3.75%</v>
       </c>
       <c r="C28" s="11">
         <f>_xll.qlBondMaturityDate($A28,Trigger)</f>
-        <v>44805</v>
+        <v>44409</v>
       </c>
       <c r="D28" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5126,15 +5128,15 @@
       </c>
       <c r="E28" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004801541_Quote</v>
+        <v>IT0004009673_Quote</v>
       </c>
       <c r="F28" s="10">
         <f>_xll.qlQuoteValue(E28,Trigger)</f>
-        <v>119.69499999999999</v>
+        <v>117.035</v>
       </c>
       <c r="G28" s="7" t="str">
         <f>_xll.qlBondHelper(,E28,$A28,,,Trigger)</f>
-        <v>obj_00a1a#0000</v>
+        <v>obj_007b8#0004</v>
       </c>
       <c r="H28" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A28,$H$1)</f>
@@ -5142,25 +5144,25 @@
       </c>
       <c r="I28" s="10">
         <f>_xll.qlBondCleanPrice($A28,H28)</f>
-        <v>128.01999516483517</v>
+        <v>117.0350013186813</v>
       </c>
       <c r="J28" s="10">
         <f t="shared" si="3"/>
-        <v>8.3249951648351725</v>
+        <v>1.3186812992671548E-6</v>
       </c>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <v>IT0004848831</v>
+        <v>IT0004695075</v>
       </c>
       <c r="B29" s="8" t="str">
         <f>_xll.qlBondDescription($A29,Trigger)</f>
-        <v>BTP 2022-11-01 5.5%</v>
+        <v>BTP 2021-09-01 4.75%</v>
       </c>
       <c r="C29" s="11">
         <f>_xll.qlBondMaturityDate($A29,Trigger)</f>
-        <v>44866</v>
+        <v>44440</v>
       </c>
       <c r="D29" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5168,15 +5170,15 @@
       </c>
       <c r="E29" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004848831_Quote</v>
+        <v>IT0004695075_Quote</v>
       </c>
       <c r="F29" s="10">
         <f>_xll.qlQuoteValue(E29,Trigger)</f>
-        <v>123.295</v>
+        <v>122.53999999999999</v>
       </c>
       <c r="G29" s="7" t="str">
         <f>_xll.qlBondHelper(,E29,$A29,,,Trigger)</f>
-        <v>obj_00a1e#0000</v>
+        <v>obj_007b0#0004</v>
       </c>
       <c r="H29" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A29,$H$1)</f>
@@ -5184,25 +5186,25 @@
       </c>
       <c r="I29" s="10">
         <f>_xll.qlBondCleanPrice($A29,H29)</f>
-        <v>128.21500391304346</v>
+        <v>122.54000086956519</v>
       </c>
       <c r="J29" s="10">
         <f t="shared" si="3"/>
-        <v>4.920003913043459</v>
+        <v>8.6956519851355552E-7</v>
       </c>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <v>IT0004898034</v>
+        <v>IT0005028003</v>
       </c>
       <c r="B30" s="8" t="str">
         <f>_xll.qlBondDescription($A30,Trigger)</f>
-        <v>BTP 2023-05-01 4.5%</v>
+        <v>BTP 2021-12-15 2.15%</v>
       </c>
       <c r="C30" s="11">
         <f>_xll.qlBondMaturityDate($A30,Trigger)</f>
-        <v>45047</v>
+        <v>44545</v>
       </c>
       <c r="D30" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5210,15 +5212,15 @@
       </c>
       <c r="E30" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004898034_Quote</v>
+        <v>IT0005028003_Quote</v>
       </c>
       <c r="F30" s="10">
         <f>_xll.qlQuoteValue(E30,Trigger)</f>
-        <v>116.22</v>
+        <v>108.52500000000001</v>
       </c>
       <c r="G30" s="7" t="str">
         <f>_xll.qlBondHelper(,E30,$A30,,,Trigger)</f>
-        <v>obj_00a28#0000</v>
+        <v>obj_007a2#0004</v>
       </c>
       <c r="H30" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A30,$H$1)</f>
@@ -5226,25 +5228,25 @@
       </c>
       <c r="I30" s="10">
         <f>_xll.qlBondCleanPrice($A30,H30)</f>
-        <v>122.34499956521738</v>
+        <v>108.52499693989073</v>
       </c>
       <c r="J30" s="10">
         <f>I30-F30</f>
-        <v>6.1249995652173794</v>
+        <v>-3.0601092788629103E-6</v>
       </c>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <v>IT0004356843</v>
+        <v>IT0004759673</v>
       </c>
       <c r="B31" s="8" t="str">
         <f>_xll.qlBondDescription($A31,Trigger)</f>
-        <v>BTP 2023-08-01 4.75%</v>
+        <v>BTP 2022-03-01 5%</v>
       </c>
       <c r="C31" s="11">
         <f>_xll.qlBondMaturityDate($A31,Trigger)</f>
-        <v>45139</v>
+        <v>44621</v>
       </c>
       <c r="D31" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5252,15 +5254,15 @@
       </c>
       <c r="E31" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004356843_Quote</v>
+        <v>IT0004759673_Quote</v>
       </c>
       <c r="F31" s="10">
         <f>_xll.qlQuoteValue(E31,Trigger)</f>
-        <v>118.465</v>
+        <v>125.13500000000001</v>
       </c>
       <c r="G31" s="7" t="str">
         <f>_xll.qlBondHelper(,E31,$A31,,,Trigger)</f>
-        <v>obj_00a33#0000</v>
+        <v>obj_007b1#0004</v>
       </c>
       <c r="H31" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A31,$H$1)</f>
@@ -5268,25 +5270,25 @@
       </c>
       <c r="I31" s="10">
         <f>_xll.qlBondCleanPrice($A31,H31)</f>
-        <v>124.61000065217391</v>
+        <v>125.13499565217393</v>
       </c>
       <c r="J31" s="10">
         <f>I31-F31</f>
-        <v>6.1450006521739056</v>
+        <v>-4.3478260778329059E-6</v>
       </c>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <v>IT0000366655</v>
+        <v>IT0005086886</v>
       </c>
       <c r="B32" s="8" t="str">
         <f>_xll.qlBondDescription($A32,Trigger)</f>
-        <v>BTP 2023-11-01 9%</v>
+        <v>BTP 2022-04-15 1.35%</v>
       </c>
       <c r="C32" s="11">
         <f>_xll.qlBondMaturityDate($A32,Trigger)</f>
-        <v>45231</v>
+        <v>44666</v>
       </c>
       <c r="D32" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5294,15 +5296,15 @@
       </c>
       <c r="E32" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0000366655_Quote</v>
+        <v>IT0005086886_Quote</v>
       </c>
       <c r="F32" s="10">
         <f>_xll.qlQuoteValue(E32,Trigger)</f>
-        <v>153.465</v>
+        <v>103.72999999999999</v>
       </c>
       <c r="G32" s="7" t="str">
         <f>_xll.qlBondHelper(,E32,$A32,,,Trigger)</f>
-        <v>obj_00a18#0000</v>
+        <v>obj_007ac#0004</v>
       </c>
       <c r="H32" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A32,$H$1)</f>
@@ -5310,25 +5312,25 @@
       </c>
       <c r="I32" s="10">
         <f>_xll.qlBondCleanPrice($A32,H32)</f>
-        <v>157.1699991304348</v>
+        <v>103.73000459016392</v>
       </c>
       <c r="J32" s="10">
         <f t="shared" si="3"/>
-        <v>3.7049991304347998</v>
+        <v>4.5901639253997928E-6</v>
       </c>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
-        <v>IT0004953417</v>
+        <v>IT0004801541</v>
       </c>
       <c r="B33" s="8" t="str">
         <f>_xll.qlBondDescription($A33,Trigger)</f>
-        <v>BTP 2024-03-01 4.5%</v>
+        <v>BTP 2022-09-01 5.5%</v>
       </c>
       <c r="C33" s="11">
         <f>_xll.qlBondMaturityDate($A33,Trigger)</f>
-        <v>45352</v>
+        <v>44805</v>
       </c>
       <c r="D33" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5336,15 +5338,15 @@
       </c>
       <c r="E33" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004953417_Quote</v>
+        <v>IT0004801541_Quote</v>
       </c>
       <c r="F33" s="10">
         <f>_xll.qlQuoteValue(E33,Trigger)</f>
-        <v>116.58</v>
+        <v>129.45999999999998</v>
       </c>
       <c r="G33" s="7" t="str">
         <f>_xll.qlBondHelper(,E33,$A33,,,Trigger)</f>
-        <v>obj_00a17#0000</v>
+        <v>obj_007b4#0004</v>
       </c>
       <c r="H33" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A33,$H$1)</f>
@@ -5352,25 +5354,25 @@
       </c>
       <c r="I33" s="10">
         <f>_xll.qlBondCleanPrice($A33,H33)</f>
-        <v>123.15499604395606</v>
+        <v>129.45999521739128</v>
       </c>
       <c r="J33" s="10">
         <f t="shared" si="3"/>
-        <v>6.5749960439560624</v>
+        <v>-4.7826086984059657E-6</v>
       </c>
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <v>IT0005001547</v>
+        <v>IT0004848831</v>
       </c>
       <c r="B34" s="8" t="str">
         <f>_xll.qlBondDescription($A34,Trigger)</f>
-        <v>BTP 2024-09-01 3.75%</v>
+        <v>BTP 2022-11-01 5.5%</v>
       </c>
       <c r="C34" s="11">
         <f>_xll.qlBondMaturityDate($A34,Trigger)</f>
-        <v>45536</v>
+        <v>44866</v>
       </c>
       <c r="D34" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5378,15 +5380,15 @@
       </c>
       <c r="E34" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0005001547_Quote</v>
+        <v>IT0004848831_Quote</v>
       </c>
       <c r="F34" s="10">
         <f>_xll.qlQuoteValue(E34,Trigger)</f>
-        <v>109.91</v>
+        <v>129.845</v>
       </c>
       <c r="G34" s="7" t="str">
         <f>_xll.qlBondHelper(,E34,$A34,,,Trigger)</f>
-        <v>obj_00a25#0000</v>
+        <v>obj_007a9#0004</v>
       </c>
       <c r="H34" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A34,$H$1)</f>
@@ -5394,25 +5396,25 @@
       </c>
       <c r="I34" s="10">
         <f>_xll.qlBondCleanPrice($A34,H34)</f>
-        <v>117.6749967032967</v>
+        <v>129.84499582417578</v>
       </c>
       <c r="J34" s="10">
         <f t="shared" si="3"/>
-        <v>7.7649967032967027</v>
+        <v>-4.1758242161904491E-6</v>
       </c>
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
-        <v>IT0005045270</v>
+        <v>IT0004898034</v>
       </c>
       <c r="B35" s="8" t="str">
         <f>_xll.qlBondDescription($A35,Trigger)</f>
-        <v>BTP 2024-12-01 2.5%</v>
+        <v>BTP 2023-05-01 4.5%</v>
       </c>
       <c r="C35" s="11">
         <f>_xll.qlBondMaturityDate($A35,Trigger)</f>
-        <v>45627</v>
+        <v>45047</v>
       </c>
       <c r="D35" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5420,15 +5422,15 @@
       </c>
       <c r="E35" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0005045270_Quote</v>
+        <v>IT0004898034_Quote</v>
       </c>
       <c r="F35" s="10">
         <f>_xll.qlQuoteValue(E35,Trigger)</f>
-        <v>99.37</v>
+        <v>124.47499999999999</v>
       </c>
       <c r="G35" s="7" t="str">
         <f>_xll.qlBondHelper(,E35,$A35,,,Trigger)</f>
-        <v>obj_00a2a#0000</v>
+        <v>obj_007c1#0004</v>
       </c>
       <c r="H35" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A35,$H$1)</f>
@@ -5436,25 +5438,25 @@
       </c>
       <c r="I35" s="10">
         <f>_xll.qlBondCleanPrice($A35,H35)</f>
-        <v>107.36500174863387</v>
+        <v>124.4750002197802</v>
       </c>
       <c r="J35" s="10">
         <f t="shared" si="3"/>
-        <v>7.995001748633868</v>
+        <v>2.1978020470214688E-7</v>
       </c>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="str">
-        <v>IT0004513641</v>
+        <v>IT0004356843</v>
       </c>
       <c r="B36" s="8" t="str">
         <f>_xll.qlBondDescription($A36,Trigger)</f>
-        <v>BTP 2025-03-01 5%</v>
+        <v>BTP 2023-08-01 4.75%</v>
       </c>
       <c r="C36" s="11">
         <f>_xll.qlBondMaturityDate($A36,Trigger)</f>
-        <v>45717</v>
+        <v>45139</v>
       </c>
       <c r="D36" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5462,15 +5464,15 @@
       </c>
       <c r="E36" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004513641_Quote</v>
+        <v>IT0004356843_Quote</v>
       </c>
       <c r="F36" s="10">
         <f>_xll.qlQuoteValue(E36,Trigger)</f>
-        <v>120.565</v>
+        <v>126.77500000000001</v>
       </c>
       <c r="G36" s="7" t="str">
         <f>_xll.qlBondHelper(,E36,$A36,,,Trigger)</f>
-        <v>obj_00a27#0000</v>
+        <v>obj_007c4#0004</v>
       </c>
       <c r="H36" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A36,$H$1)</f>
@@ -5478,25 +5480,25 @@
       </c>
       <c r="I36" s="10">
         <f>_xll.qlBondCleanPrice($A36,H36)</f>
-        <v>129.00999560439558</v>
+        <v>126.77499967032966</v>
       </c>
       <c r="J36" s="10">
         <f t="shared" ref="J36:J48" si="4">I36-F36</f>
-        <v>8.4449956043955865</v>
+        <v>-3.296703425803571E-7</v>
       </c>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="str">
-        <v>IT0004644735</v>
+        <v>IT0000366655</v>
       </c>
       <c r="B37" s="8" t="str">
         <f>_xll.qlBondDescription($A37,Trigger)</f>
-        <v>BTP 2026-03-01 4.5%</v>
+        <v>BTP 2023-11-01 9%</v>
       </c>
       <c r="C37" s="11">
         <f>_xll.qlBondMaturityDate($A37,Trigger)</f>
-        <v>46082</v>
+        <v>45231</v>
       </c>
       <c r="D37" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5504,15 +5506,15 @@
       </c>
       <c r="E37" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004644735_Quote</v>
+        <v>IT0000366655_Quote</v>
       </c>
       <c r="F37" s="10">
         <f>_xll.qlQuoteValue(E37,Trigger)</f>
-        <v>137.07999999999998</v>
+        <v>158.07999999999998</v>
       </c>
       <c r="G37" s="7" t="str">
         <f>_xll.qlBondHelper(,E37,$A37,,,Trigger)</f>
-        <v>obj_00a3d#0000</v>
+        <v>obj_007a6#0004</v>
       </c>
       <c r="H37" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A37,$H$1)</f>
@@ -5520,20 +5522,20 @@
       </c>
       <c r="I37" s="10">
         <f>_xll.qlBondCleanPrice($A37,H37)</f>
-        <v>125.88499604395606</v>
+        <v>158.08000043956042</v>
       </c>
       <c r="J37" s="10">
         <f t="shared" si="4"/>
-        <v>-11.195003956043919</v>
+        <v>4.3956043782600318E-7</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="15">
         <f>M37</f>
-        <v>42292</v>
+        <v>42438</v>
       </c>
       <c r="M37" s="14">
         <f t="array" ref="M37:M70">_xll.qlPiecewiseYieldCurveDates(L2)</f>
-        <v>42292</v>
+        <v>42438</v>
       </c>
       <c r="N37" s="13">
         <f t="array" ref="N37:N70">_xll.qlPiecewiseYieldCurveData(L2)</f>
@@ -5542,15 +5544,15 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
-        <v>IT0001086567</v>
+        <v>IT0004953417</v>
       </c>
       <c r="B38" s="8" t="str">
         <f>_xll.qlBondDescription($A38,Trigger)</f>
-        <v>BTP 2026-11-01 7.25%</v>
+        <v>BTP 2024-03-01 4.5%</v>
       </c>
       <c r="C38" s="11">
         <f>_xll.qlBondMaturityDate($A38,Trigger)</f>
-        <v>46327</v>
+        <v>45352</v>
       </c>
       <c r="D38" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5558,15 +5560,15 @@
       </c>
       <c r="E38" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0001086567_Quote</v>
+        <v>IT0004953417_Quote</v>
       </c>
       <c r="F38" s="10">
         <f>_xll.qlQuoteValue(E38,Trigger)</f>
-        <v>117.80500000000001</v>
+        <v>125.45500000000001</v>
       </c>
       <c r="G38" s="7" t="str">
         <f>_xll.qlBondHelper(,E38,$A38,,,Trigger)</f>
-        <v>obj_00a1c#0000</v>
+        <v>obj_007a5#0004</v>
       </c>
       <c r="H38" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A38,$H$1)</f>
@@ -5574,34 +5576,34 @@
       </c>
       <c r="I38" s="10">
         <f>_xll.qlBondCleanPrice($A38,H38)</f>
-        <v>153.91500152173916</v>
+        <v>125.45499608695654</v>
       </c>
       <c r="J38" s="10">
         <f t="shared" si="4"/>
-        <v>36.11000152173915</v>
+        <v>-3.9130434714707008E-6</v>
       </c>
       <c r="L38" s="15">
         <f>M38-M37</f>
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M38" s="14">
-        <v>42310</v>
+        <v>42475</v>
       </c>
       <c r="N38" s="13">
-        <v>1.0000286999357464</v>
+        <v>1.000288605048778</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
-        <v>IT0001174611</v>
+        <v>IT0005001547</v>
       </c>
       <c r="B39" s="8" t="str">
         <f>_xll.qlBondDescription($A39,Trigger)</f>
-        <v>BTP 2027-11-01 6.5%</v>
+        <v>BTP 2024-09-01 3.75%</v>
       </c>
       <c r="C39" s="11">
         <f>_xll.qlBondMaturityDate($A39,Trigger)</f>
-        <v>46692</v>
+        <v>45536</v>
       </c>
       <c r="D39" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5609,15 +5611,15 @@
       </c>
       <c r="E39" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0001174611_Quote</v>
+        <v>IT0005001547_Quote</v>
       </c>
       <c r="F39" s="10">
         <f>_xll.qlQuoteValue(E39,Trigger)</f>
-        <v>124.14500000000001</v>
+        <v>120.00999999999999</v>
       </c>
       <c r="G39" s="7" t="str">
         <f>_xll.qlBondHelper(,E39,$A39,,,Trigger)</f>
-        <v>obj_00a2f#0000</v>
+        <v>obj_007c8#0004</v>
       </c>
       <c r="H39" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A39,$H$1)</f>
@@ -5625,34 +5627,34 @@
       </c>
       <c r="I39" s="10">
         <f>_xll.qlBondCleanPrice($A39,H39)</f>
-        <v>148.39499826086956</v>
+        <v>120.01000173913043</v>
       </c>
       <c r="J39" s="10">
         <f t="shared" si="4"/>
-        <v>24.249998260869546</v>
+        <v>1.7391304396596752E-6</v>
       </c>
       <c r="L39" s="15">
         <f t="shared" ref="L39:L70" si="5">M39-M38</f>
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="M39" s="14">
-        <v>42475</v>
+        <v>42583</v>
       </c>
       <c r="N39" s="13">
-        <v>1.0000588957055216</v>
+        <v>1.00053674914043</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
-        <v>IT0004889033</v>
+        <v>IT0005045270</v>
       </c>
       <c r="B40" s="8" t="str">
         <f>_xll.qlBondDescription($A40,Trigger)</f>
-        <v>BTP 2028-09-01 4.75%</v>
+        <v>BTP 2024-12-01 2.5%</v>
       </c>
       <c r="C40" s="11">
         <f>_xll.qlBondMaturityDate($A40,Trigger)</f>
-        <v>46997</v>
+        <v>45627</v>
       </c>
       <c r="D40" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5660,15 +5662,15 @@
       </c>
       <c r="E40" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004889033_Quote</v>
+        <v>IT0005045270_Quote</v>
       </c>
       <c r="F40" s="10">
         <f>_xll.qlQuoteValue(E40,Trigger)</f>
-        <v>103.58500000000001</v>
+        <v>109.94</v>
       </c>
       <c r="G40" s="7" t="str">
         <f>_xll.qlBondHelper(,E40,$A40,,,Trigger)</f>
-        <v>obj_00a30#0000</v>
+        <v>obj_007c5#0004</v>
       </c>
       <c r="H40" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A40,$H$1)</f>
@@ -5676,34 +5678,34 @@
       </c>
       <c r="I40" s="10">
         <f>_xll.qlBondCleanPrice($A40,H40)</f>
-        <v>130.76999582419279</v>
+        <v>109.93999950819669</v>
       </c>
       <c r="J40" s="10">
         <f t="shared" si="4"/>
-        <v>27.184995824192782</v>
+        <v>-4.9180330563558528E-7</v>
       </c>
       <c r="L40" s="15">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="M40" s="14">
-        <v>42583</v>
+        <v>42628</v>
       </c>
       <c r="N40" s="13">
-        <v>0.99986926397063758</v>
+        <v>1.0004551126563614</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
-        <v>IT0001278511</v>
+        <v>IT0004513641</v>
       </c>
       <c r="B41" s="8" t="str">
         <f>_xll.qlBondDescription($A41,Trigger)</f>
-        <v>BTP 2029-11-01 5.25%</v>
+        <v>BTP 2025-03-01 5%</v>
       </c>
       <c r="C41" s="11">
         <f>_xll.qlBondMaturityDate($A41,Trigger)</f>
-        <v>47423</v>
+        <v>45717</v>
       </c>
       <c r="D41" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5711,15 +5713,15 @@
       </c>
       <c r="E41" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0001278511_Quote</v>
+        <v>IT0004513641_Quote</v>
       </c>
       <c r="F41" s="10">
         <f>_xll.qlQuoteValue(E41,Trigger)</f>
-        <v>134.625</v>
+        <v>131.125</v>
       </c>
       <c r="G41" s="7" t="str">
         <f>_xll.qlBondHelper(,E41,$A41,,,Trigger)</f>
-        <v>obj_00a39#0000</v>
+        <v>obj_007af#0004</v>
       </c>
       <c r="H41" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A41,$H$1)</f>
@@ -5727,34 +5729,34 @@
       </c>
       <c r="I41" s="10">
         <f>_xll.qlBondCleanPrice($A41,H41)</f>
-        <v>138.28000282608696</v>
+        <v>131.12499565217391</v>
       </c>
       <c r="J41" s="10">
         <f t="shared" si="4"/>
-        <v>3.6550028260869567</v>
+        <v>-4.3478260920437606E-6</v>
       </c>
       <c r="L41" s="15">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="M41" s="14">
-        <v>42628</v>
+        <v>42767</v>
       </c>
       <c r="N41" s="13">
-        <v>0.99974463602507069</v>
+        <v>1.0007403912579664</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
-        <v>IT0001444378</v>
+        <v>IT0005090318</v>
       </c>
       <c r="B42" s="8" t="str">
         <f>_xll.qlBondDescription($A42,Trigger)</f>
-        <v>BTP 2031-05-01 6%</v>
+        <v>BTP 2025-06-01 1.5%</v>
       </c>
       <c r="C42" s="11">
         <f>_xll.qlBondMaturityDate($A42,Trigger)</f>
-        <v>47969</v>
+        <v>45809</v>
       </c>
       <c r="D42" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5762,15 +5764,15 @@
       </c>
       <c r="E42" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0001444378_Quote</v>
+        <v>IT0005090318_Quote</v>
       </c>
       <c r="F42" s="10">
         <f>_xll.qlQuoteValue(E42,Trigger)</f>
-        <v>121.45500000000001</v>
+        <v>101.38</v>
       </c>
       <c r="G42" s="7" t="str">
         <f>_xll.qlBondHelper(,E42,$A42,,,Trigger)</f>
-        <v>obj_00a1f#0000</v>
+        <v>obj_007c0#0004</v>
       </c>
       <c r="H42" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A42,$H$1)</f>
@@ -5778,34 +5780,34 @@
       </c>
       <c r="I42" s="10">
         <f>_xll.qlBondCleanPrice($A42,H42)</f>
-        <v>149.93499608695834</v>
+        <v>101.37999770491804</v>
       </c>
       <c r="J42" s="10">
         <f t="shared" si="4"/>
-        <v>28.479996086958323</v>
+        <v>-2.295081955594469E-6</v>
       </c>
       <c r="L42" s="15">
         <f t="shared" si="5"/>
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="M42" s="14">
-        <v>42767</v>
+        <v>42857</v>
       </c>
       <c r="N42" s="13">
-        <v>0.99925380545949016</v>
+        <v>1.0007696308734748</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <v>IT0003256820</v>
+        <v>IT0004644735</v>
       </c>
       <c r="B43" s="8" t="str">
         <f>_xll.qlBondDescription($A43,Trigger)</f>
-        <v>BTP 2033-02-01 5.75%</v>
+        <v>BTP 2026-03-01 4.5%</v>
       </c>
       <c r="C43" s="11">
         <f>_xll.qlBondMaturityDate($A43,Trigger)</f>
-        <v>48611</v>
+        <v>46082</v>
       </c>
       <c r="D43" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5813,15 +5815,15 @@
       </c>
       <c r="E43" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0003256820_Quote</v>
+        <v>IT0004644735_Quote</v>
       </c>
       <c r="F43" s="10">
         <f>_xll.qlQuoteValue(E43,Trigger)</f>
-        <v>120.33500000000001</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="G43" s="7" t="str">
         <f>_xll.qlBondHelper(,E43,$A43,,,Trigger)</f>
-        <v>obj_00a31#0000</v>
+        <v>obj_007b9#0004</v>
       </c>
       <c r="H43" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A43,$H$1)</f>
@@ -5829,34 +5831,34 @@
       </c>
       <c r="I43" s="10">
         <f>_xll.qlBondCleanPrice($A43,H43)</f>
-        <v>148.73499500000983</v>
+        <v>128.29999608695653</v>
       </c>
       <c r="J43" s="10">
         <f t="shared" si="4"/>
-        <v>28.399995000009824</v>
+        <v>-3.9130434856815555E-6</v>
       </c>
       <c r="L43" s="15">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M43" s="14">
-        <v>42857</v>
+        <v>42870</v>
       </c>
       <c r="N43" s="13">
-        <v>0.99879300834483475</v>
+        <v>1.0007783604831373</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
-        <v>IT0003535157</v>
+        <v>IT0001086567</v>
       </c>
       <c r="B44" s="8" t="str">
         <f>_xll.qlBondDescription($A44,Trigger)</f>
-        <v>BTP 2034-08-01 5%</v>
+        <v>BTP 2026-11-01 7.25%</v>
       </c>
       <c r="C44" s="11">
         <f>_xll.qlBondMaturityDate($A44,Trigger)</f>
-        <v>49157</v>
+        <v>46327</v>
       </c>
       <c r="D44" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5864,15 +5866,15 @@
       </c>
       <c r="E44" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0003535157_Quote</v>
+        <v>IT0001086567_Quote</v>
       </c>
       <c r="F44" s="10">
         <f>_xll.qlQuoteValue(E44,Trigger)</f>
-        <v>119.51</v>
+        <v>155.595</v>
       </c>
       <c r="G44" s="7" t="str">
         <f>_xll.qlBondHelper(,E44,$A44,,,Trigger)</f>
-        <v>obj_00a2b#0000</v>
+        <v>obj_007aa#0004</v>
       </c>
       <c r="H44" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A44,$H$1)</f>
@@ -5880,34 +5882,34 @@
       </c>
       <c r="I44" s="10">
         <f>_xll.qlBondCleanPrice($A44,H44)</f>
-        <v>139.17500173913058</v>
+        <v>155.59499813186818</v>
       </c>
       <c r="J44" s="10">
         <f t="shared" si="4"/>
-        <v>19.665001739130574</v>
+        <v>-1.8681318181279494E-6</v>
       </c>
       <c r="L44" s="15">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M44" s="14">
-        <v>42870</v>
+        <v>42887</v>
       </c>
       <c r="N44" s="13">
-        <v>0.99879070510652057</v>
+        <v>1.0008394430161558</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
-        <v>IT0003934657</v>
+        <v>IT0001174611</v>
       </c>
       <c r="B45" s="8" t="str">
         <f>_xll.qlBondDescription($A45,Trigger)</f>
-        <v>BTP 2037-02-01 4%</v>
+        <v>BTP 2027-11-01 6.5%</v>
       </c>
       <c r="C45" s="11">
         <f>_xll.qlBondMaturityDate($A45,Trigger)</f>
-        <v>50072</v>
+        <v>46692</v>
       </c>
       <c r="D45" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5915,15 +5917,15 @@
       </c>
       <c r="E45" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0003934657_Quote</v>
+        <v>IT0001174611_Quote</v>
       </c>
       <c r="F45" s="10">
         <f>_xll.qlQuoteValue(E45,Trigger)</f>
-        <v>115.77500000000001</v>
+        <v>150.15</v>
       </c>
       <c r="G45" s="7" t="str">
         <f>_xll.qlBondHelper(,E45,$A45,,,Trigger)</f>
-        <v>obj_00a41#0000</v>
+        <v>obj_007b7#0004</v>
       </c>
       <c r="H45" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A45,$H$1)</f>
@@ -5931,34 +5933,34 @@
       </c>
       <c r="I45" s="10">
         <f>_xll.qlBondCleanPrice($A45,H45)</f>
-        <v>124.02499739128173</v>
+        <v>150.15000142857147</v>
       </c>
       <c r="J45" s="10">
         <f t="shared" si="4"/>
-        <v>8.2499973912817239</v>
+        <v>1.4285714655670745E-6</v>
       </c>
       <c r="L45" s="15">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="M45" s="14">
-        <v>42887</v>
+        <v>42948</v>
       </c>
       <c r="N45" s="13">
-        <v>0.99844937734617001</v>
+        <v>1.0010406952751085</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
-        <v>IT0004286966</v>
+        <v>IT0004889033</v>
       </c>
       <c r="B46" s="8" t="str">
         <f>_xll.qlBondDescription($A46,Trigger)</f>
-        <v>BTP 2039-08-01 5%</v>
+        <v>BTP 2028-09-01 4.75%</v>
       </c>
       <c r="C46" s="11">
         <f>_xll.qlBondMaturityDate($A46,Trigger)</f>
-        <v>50983</v>
+        <v>46997</v>
       </c>
       <c r="D46" s="8" t="b">
         <f t="shared" si="1"/>
@@ -5966,15 +5968,15 @@
       </c>
       <c r="E46" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004286966_Quote</v>
-      </c>
-      <c r="F46" s="10" t="e">
+        <v>IT0004889033_Quote</v>
+      </c>
+      <c r="F46" s="10">
         <f>_xll.qlQuoteValue(E46,Trigger)</f>
-        <v>#NUM!</v>
+        <v>133.17500000000001</v>
       </c>
       <c r="G46" s="7" t="str">
         <f>_xll.qlBondHelper(,E46,$A46,,,Trigger)</f>
-        <v>obj_00a35#0000</v>
+        <v>obj_007bc#0004</v>
       </c>
       <c r="H46" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A46,$H$1)</f>
@@ -5982,34 +5984,34 @@
       </c>
       <c r="I46" s="10">
         <f>_xll.qlBondCleanPrice($A46,H46)</f>
-        <v>142.51500173913041</v>
-      </c>
-      <c r="J46" s="10" t="e">
+        <v>133.17500086956525</v>
+      </c>
+      <c r="J46" s="10">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
+        <v>8.6956524114611966E-7</v>
       </c>
       <c r="L46" s="15">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="M46" s="14">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="N46" s="13">
-        <v>0.99841321039277053</v>
+        <v>1.0012530625748683</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
-        <v>IT0004532559</v>
+        <v>IT0001278511</v>
       </c>
       <c r="B47" s="8" t="str">
         <f>_xll.qlBondDescription($A47,Trigger)</f>
-        <v>BTP 2040-09-01 5%</v>
+        <v>BTP 2029-11-01 5.25%</v>
       </c>
       <c r="C47" s="11">
         <f>_xll.qlBondMaturityDate($A47,Trigger)</f>
-        <v>51380</v>
+        <v>47423</v>
       </c>
       <c r="D47" s="8" t="b">
         <f t="shared" si="1"/>
@@ -6017,15 +6019,15 @@
       </c>
       <c r="E47" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004532559_Quote</v>
-      </c>
-      <c r="F47" s="10" t="e">
+        <v>IT0001278511_Quote</v>
+      </c>
+      <c r="F47" s="10">
         <f>_xll.qlQuoteValue(E47,Trigger)</f>
-        <v>#NUM!</v>
+        <v>140.64499999999998</v>
       </c>
       <c r="G47" s="7" t="str">
         <f>_xll.qlBondHelper(,E47,$A47,,,Trigger)</f>
-        <v>obj_00a14#0000</v>
+        <v>obj_007ae#0004</v>
       </c>
       <c r="H47" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A47,$H$1)</f>
@@ -6033,34 +6035,34 @@
       </c>
       <c r="I47" s="10">
         <f>_xll.qlBondCleanPrice($A47,H47)</f>
-        <v>142.40499560439568</v>
-      </c>
-      <c r="J47" s="10" t="e">
+        <v>140.644996923077</v>
+      </c>
+      <c r="J47" s="10">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
+        <v>-3.076922979516894E-6</v>
       </c>
       <c r="L47" s="15">
         <f t="shared" si="5"/>
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M47" s="14">
-        <v>43040</v>
+        <v>43115</v>
       </c>
       <c r="N47" s="13">
-        <v>0.99760259236144722</v>
+        <v>1.0013991538934339</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
-        <v>IT0004923998</v>
+        <v>IT0005024234</v>
       </c>
       <c r="B48" s="8" t="str">
         <f>_xll.qlBondDescription($A48,Trigger)</f>
-        <v>BTP 2044-09-01 4.75%</v>
+        <v>BTP 2030-03-01 3.5%</v>
       </c>
       <c r="C48" s="11">
         <f>_xll.qlBondMaturityDate($A48,Trigger)</f>
-        <v>52841</v>
+        <v>47543</v>
       </c>
       <c r="D48" s="8" t="b">
         <f t="shared" si="1"/>
@@ -6068,15 +6070,15 @@
       </c>
       <c r="E48" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>IT0004923998_Quote</v>
-      </c>
-      <c r="F48" s="10" t="e">
+        <v>IT0005024234_Quote</v>
+      </c>
+      <c r="F48" s="10">
         <f>_xll.qlQuoteValue(E48,Trigger)</f>
-        <v>#NUM!</v>
+        <v>119.715</v>
       </c>
       <c r="G48" s="7" t="str">
         <f>_xll.qlBondHelper(,E48,$A48,,,Trigger)</f>
-        <v>obj_00a2e#0000</v>
+        <v>obj_0080e#0003</v>
       </c>
       <c r="H48" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine($A48,$H$1)</f>
@@ -6084,312 +6086,1143 @@
       </c>
       <c r="I48" s="10">
         <f>_xll.qlBondCleanPrice($A48,H48)</f>
-        <v>140.83499582417579</v>
-      </c>
-      <c r="J48" s="10" t="e">
+        <v>119.71499695652176</v>
+      </c>
+      <c r="J48" s="10">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
+        <v>-3.0434782445354358E-6</v>
       </c>
       <c r="L48" s="15">
         <f t="shared" si="5"/>
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="M48" s="14">
-        <v>43115</v>
+        <v>43132</v>
       </c>
       <c r="N48" s="13">
-        <v>0.99614816781328119</v>
+        <v>1.0010484347398749</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J49" s="5"/>
+      <c r="A49" s="2" t="str">
+        <v>IT0001444378</v>
+      </c>
+      <c r="B49" s="8" t="str">
+        <f>_xll.qlBondDescription($A49,Trigger)</f>
+        <v>BTP 2031-05-01 6%</v>
+      </c>
+      <c r="C49" s="11">
+        <f>_xll.qlBondMaturityDate($A49,Trigger)</f>
+        <v>47969</v>
+      </c>
+      <c r="D49" s="8" t="b">
+        <f t="shared" ref="D49:D70" si="6">NOT(ISERROR(A49))</f>
+        <v>1</v>
+      </c>
+      <c r="E49" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>IT0001444378_Quote</v>
+      </c>
+      <c r="F49" s="10">
+        <f>_xll.qlQuoteValue(E49,Trigger)</f>
+        <v>151.86000000000001</v>
+      </c>
+      <c r="G49" s="7" t="str">
+        <f>_xll.qlBondHelper(,E49,$A49,,,Trigger)</f>
+        <v>obj_00813#0002</v>
+      </c>
+      <c r="H49" s="8" t="b">
+        <f>_xll.qlInstrumentSetPricingEngine($A49,$H$1)</f>
+        <v>1</v>
+      </c>
+      <c r="I49" s="10">
+        <f>_xll.qlBondCleanPrice($A49,H49)</f>
+        <v>151.86000362637554</v>
+      </c>
+      <c r="J49" s="10">
+        <f t="shared" ref="J49:J70" si="7">I49-F49</f>
+        <v>3.6263755305299128E-6</v>
+      </c>
       <c r="L49" s="15">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="M49" s="14">
-        <v>43132</v>
+        <v>43252</v>
       </c>
       <c r="N49" s="13">
-        <v>0.99581966641377961</v>
+        <v>1.0007487976011948</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J50" s="5"/>
+      <c r="A50" s="2" t="str">
+        <v>IT0005094088</v>
+      </c>
+      <c r="B50" s="8" t="str">
+        <f>_xll.qlBondDescription($A50,Trigger)</f>
+        <v>BTP 2032-03-01 1.65%</v>
+      </c>
+      <c r="C50" s="11">
+        <f>_xll.qlBondMaturityDate($A50,Trigger)</f>
+        <v>48274</v>
+      </c>
+      <c r="D50" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E50" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>IT0005094088_Quote</v>
+      </c>
+      <c r="F50" s="10">
+        <f>_xll.qlQuoteValue(E50,Trigger)</f>
+        <v>96.27000000000001</v>
+      </c>
+      <c r="G50" s="7" t="str">
+        <f>_xll.qlBondHelper(,E50,$A50,,,Trigger)</f>
+        <v>obj_00816#0002</v>
+      </c>
+      <c r="H50" s="8" t="b">
+        <f>_xll.qlInstrumentSetPricingEngine($A50,$H$1)</f>
+        <v>1</v>
+      </c>
+      <c r="I50" s="10">
+        <f>_xll.qlBondCleanPrice($A50,H50)</f>
+        <v>96.26999956521739</v>
+      </c>
+      <c r="J50" s="10">
+        <f t="shared" si="7"/>
+        <v>-4.3478262057305983E-7</v>
+      </c>
       <c r="L50" s="15">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="M50" s="14">
-        <v>43252</v>
+        <v>43313</v>
       </c>
       <c r="N50" s="13">
-        <v>0.99331084671006187</v>
+        <v>1.0002918677162591</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J51" s="5"/>
+      <c r="A51" s="2" t="str">
+        <v>IT0003256820</v>
+      </c>
+      <c r="B51" s="8" t="str">
+        <f>_xll.qlBondDescription($A51,Trigger)</f>
+        <v>BTP 2033-02-01 5.75%</v>
+      </c>
+      <c r="C51" s="11">
+        <f>_xll.qlBondMaturityDate($A51,Trigger)</f>
+        <v>48611</v>
+      </c>
+      <c r="D51" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E51" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>IT0003256820_Quote</v>
+      </c>
+      <c r="F51" s="10">
+        <f>_xll.qlQuoteValue(E51,Trigger)</f>
+        <v>151.35</v>
+      </c>
+      <c r="G51" s="7" t="str">
+        <f>_xll.qlBondHelper(,E51,$A51,,,Trigger)</f>
+        <v>obj_00817#0002</v>
+      </c>
+      <c r="H51" s="8" t="b">
+        <f>_xll.qlInstrumentSetPricingEngine($A51,$H$1)</f>
+        <v>1</v>
+      </c>
+      <c r="I51" s="10">
+        <f>_xll.qlBondCleanPrice($A51,H51)</f>
+        <v>151.34999802197868</v>
+      </c>
+      <c r="J51" s="10">
+        <f t="shared" si="7"/>
+        <v>-1.9780213165176974E-6</v>
+      </c>
       <c r="L51" s="15">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="M51" s="14">
-        <v>43313</v>
+        <v>43437</v>
       </c>
       <c r="N51" s="13">
-        <v>0.99258647082032225</v>
+        <v>0.99994967823213254</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J52" s="5"/>
+      <c r="A52" s="2" t="str">
+        <v>IT0003535157</v>
+      </c>
+      <c r="B52" s="8" t="str">
+        <f>_xll.qlBondDescription($A52,Trigger)</f>
+        <v>BTP 2034-08-01 5%</v>
+      </c>
+      <c r="C52" s="11">
+        <f>_xll.qlBondMaturityDate($A52,Trigger)</f>
+        <v>49157</v>
+      </c>
+      <c r="D52" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>IT0003535157_Quote</v>
+      </c>
+      <c r="F52" s="10">
+        <f>_xll.qlQuoteValue(E52,Trigger)</f>
+        <v>142.20499999999998</v>
+      </c>
+      <c r="G52" s="7" t="str">
+        <f>_xll.qlBondHelper(,E52,$A52,,,Trigger)</f>
+        <v>obj_0080f#0002</v>
+      </c>
+      <c r="H52" s="8" t="b">
+        <f>_xll.qlInstrumentSetPricingEngine($A52,$H$1)</f>
+        <v>1</v>
+      </c>
+      <c r="I52" s="10">
+        <f>_xll.qlBondCleanPrice($A52,H52)</f>
+        <v>142.20500175824179</v>
+      </c>
+      <c r="J52" s="10">
+        <f t="shared" si="7"/>
+        <v>1.7582418081474316E-6</v>
+      </c>
       <c r="L52" s="15">
         <f t="shared" si="5"/>
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="M52" s="14">
-        <v>43437</v>
+        <v>43497</v>
       </c>
       <c r="N52" s="13">
-        <v>0.98983866998531855</v>
+        <v>0.99906224676602218</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J53" s="5"/>
+      <c r="A53" s="2" t="str">
+        <v>IT0003934657</v>
+      </c>
+      <c r="B53" s="8" t="str">
+        <f>_xll.qlBondDescription($A53,Trigger)</f>
+        <v>BTP 2037-02-01 4%</v>
+      </c>
+      <c r="C53" s="11">
+        <f>_xll.qlBondMaturityDate($A53,Trigger)</f>
+        <v>50072</v>
+      </c>
+      <c r="D53" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>IT0003934657_Quote</v>
+      </c>
+      <c r="F53" s="10">
+        <f>_xll.qlQuoteValue(E53,Trigger)</f>
+        <v>127.12</v>
+      </c>
+      <c r="G53" s="7" t="str">
+        <f>_xll.qlBondHelper(,E53,$A53,,,Trigger)</f>
+        <v>obj_00810#0002</v>
+      </c>
+      <c r="H53" s="8" t="b">
+        <f>_xll.qlInstrumentSetPricingEngine($A53,$H$1)</f>
+        <v>1</v>
+      </c>
+      <c r="I53" s="10">
+        <f>_xll.qlBondCleanPrice($A53,H53)</f>
+        <v>127.12000340658139</v>
+      </c>
+      <c r="J53" s="10">
+        <f t="shared" si="7"/>
+        <v>3.4065813849792903E-6</v>
+      </c>
       <c r="L53" s="15">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M53" s="14">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="N53" s="13">
-        <v>0.98737766919328029</v>
+        <v>0.99867875407742113</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J54" s="5"/>
+      <c r="A54" s="2" t="str">
+        <v>IT0004286966</v>
+      </c>
+      <c r="B54" s="8" t="str">
+        <f>_xll.qlBondDescription($A54,Trigger)</f>
+        <v>BTP 2039-08-01 5%</v>
+      </c>
+      <c r="C54" s="11">
+        <f>_xll.qlBondMaturityDate($A54,Trigger)</f>
+        <v>50983</v>
+      </c>
+      <c r="D54" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>IT0004286966_Quote</v>
+      </c>
+      <c r="F54" s="10">
+        <f>_xll.qlQuoteValue(E54,Trigger)</f>
+        <v>145.55000000000001</v>
+      </c>
+      <c r="G54" s="7" t="str">
+        <f>_xll.qlBondHelper(,E54,$A54,,,Trigger)</f>
+        <v>obj_00811#0002</v>
+      </c>
+      <c r="H54" s="8" t="b">
+        <f>_xll.qlInstrumentSetPricingEngine($A54,$H$1)</f>
+        <v>1</v>
+      </c>
+      <c r="I54" s="10">
+        <f>_xll.qlBondCleanPrice($A54,H54)</f>
+        <v>145.55000175824176</v>
+      </c>
+      <c r="J54" s="10">
+        <f t="shared" si="7"/>
+        <v>1.7582417513040127E-6</v>
+      </c>
       <c r="L54" s="15">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="M54" s="14">
-        <v>43525</v>
+        <v>43587</v>
       </c>
       <c r="N54" s="13">
-        <v>0.98645053866115884</v>
+        <v>0.9972966372534362</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J55" s="5"/>
+      <c r="A55" s="2" t="str">
+        <v>IT0004532559</v>
+      </c>
+      <c r="B55" s="8" t="str">
+        <f>_xll.qlBondDescription($A55,Trigger)</f>
+        <v>BTP 2040-09-01 5%</v>
+      </c>
+      <c r="C55" s="11">
+        <f>_xll.qlBondMaturityDate($A55,Trigger)</f>
+        <v>51380</v>
+      </c>
+      <c r="D55" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E55" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>IT0004532559_Quote</v>
+      </c>
+      <c r="F55" s="10">
+        <f>_xll.qlQuoteValue(E55,Trigger)</f>
+        <v>145.285</v>
+      </c>
+      <c r="G55" s="7" t="str">
+        <f>_xll.qlBondHelper(,E55,$A55,,,Trigger)</f>
+        <v>obj_00812#0002</v>
+      </c>
+      <c r="H55" s="8" t="b">
+        <f>_xll.qlInstrumentSetPricingEngine($A55,$H$1)</f>
+        <v>1</v>
+      </c>
+      <c r="I55" s="10">
+        <f>_xll.qlBondCleanPrice($A55,H55)</f>
+        <v>145.28499565217402</v>
+      </c>
+      <c r="J55" s="10">
+        <f t="shared" si="7"/>
+        <v>-4.3478259783569229E-6</v>
+      </c>
       <c r="L55" s="15">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="M55" s="14">
-        <v>43710</v>
+        <v>43678</v>
       </c>
       <c r="N55" s="13">
-        <v>0.97993793865033008</v>
+        <v>0.99573630013697989</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J56" s="5"/>
+      <c r="A56" s="2" t="str">
+        <v>IT0004923998</v>
+      </c>
+      <c r="B56" s="8" t="str">
+        <f>_xll.qlBondDescription($A56,Trigger)</f>
+        <v>BTP 2044-09-01 4.75%</v>
+      </c>
+      <c r="C56" s="11">
+        <f>_xll.qlBondMaturityDate($A56,Trigger)</f>
+        <v>52841</v>
+      </c>
+      <c r="D56" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E56" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>IT0004923998_Quote</v>
+      </c>
+      <c r="F56" s="10">
+        <f>_xll.qlQuoteValue(E56,Trigger)</f>
+        <v>143.80500000000001</v>
+      </c>
+      <c r="G56" s="7" t="str">
+        <f>_xll.qlBondHelper(,E56,$A56,,,Trigger)</f>
+        <v>obj_00814#0002</v>
+      </c>
+      <c r="H56" s="8" t="b">
+        <f>_xll.qlInstrumentSetPricingEngine($A56,$H$1)</f>
+        <v>1</v>
+      </c>
+      <c r="I56" s="10">
+        <f>_xll.qlBondCleanPrice($A56,H56)</f>
+        <v>143.80500086956951</v>
+      </c>
+      <c r="J56" s="10">
+        <f t="shared" si="7"/>
+        <v>8.6956950440253422E-7</v>
+      </c>
       <c r="L56" s="15">
         <f t="shared" si="5"/>
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="M56" s="14">
-        <v>43864</v>
+        <v>43710</v>
       </c>
       <c r="N56" s="13">
-        <v>0.97344410042484286</v>
+        <v>0.99449415581755229</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J57" s="5"/>
+      <c r="A57" s="2" t="str">
+        <v>IT0005083057</v>
+      </c>
+      <c r="B57" s="8" t="str">
+        <f>_xll.qlBondDescription($A57,Trigger)</f>
+        <v>BTP 2046-09-01 3.25%</v>
+      </c>
+      <c r="C57" s="11">
+        <f>_xll.qlBondMaturityDate($A57,Trigger)</f>
+        <v>53571</v>
+      </c>
+      <c r="D57" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>IT0005083057_Quote</v>
+      </c>
+      <c r="F57" s="10">
+        <f>_xll.qlQuoteValue(E57,Trigger)</f>
+        <v>113.53</v>
+      </c>
+      <c r="G57" s="7" t="str">
+        <f>_xll.qlBondHelper(,E57,$A57,,,Trigger)</f>
+        <v>obj_00815#0002</v>
+      </c>
+      <c r="H57" s="8" t="b">
+        <f>_xll.qlInstrumentSetPricingEngine($A57,$H$1)</f>
+        <v>1</v>
+      </c>
+      <c r="I57" s="10">
+        <f>_xll.qlBondCleanPrice($A57,H57)</f>
+        <v>113.53000217391306</v>
+      </c>
+      <c r="J57" s="10">
+        <f t="shared" si="7"/>
+        <v>2.173913060232735E-6</v>
+      </c>
       <c r="L57" s="15">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="M57" s="14">
-        <v>43892</v>
+        <v>43801</v>
       </c>
       <c r="N57" s="13">
-        <v>0.97281560700154734</v>
+        <v>0.99362047073735116</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J58" s="5"/>
+      <c r="A58" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B58" s="8" t="e">
+        <f>_xll.qlBondDescription($A58,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C58" s="11" t="e">
+        <f>_xll.qlBondMaturityDate($A58,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D58" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F58" s="10" t="e">
+        <f>_xll.qlQuoteValue(E58,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" s="7" t="e">
+        <f>_xll.qlBondHelper(,E58,$A58,,,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" s="8" t="e">
+        <f>_xll.qlInstrumentSetPricingEngine($A58,$H$1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I58" s="10" t="e">
+        <f>_xll.qlBondCleanPrice($A58,H58)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J58" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L58" s="15">
         <f t="shared" si="5"/>
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="M58" s="14">
-        <v>44075</v>
+        <v>43864</v>
       </c>
       <c r="N58" s="13">
-        <v>0.963105519724611</v>
+        <v>0.99184244538967392</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J59" s="5"/>
+      <c r="A59" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B59" s="8" t="e">
+        <f>_xll.qlBondDescription($A59,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C59" s="11" t="e">
+        <f>_xll.qlBondMaturityDate($A59,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D59" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F59" s="10" t="e">
+        <f>_xll.qlQuoteValue(E59,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" s="7" t="e">
+        <f>_xll.qlBondHelper(,E59,$A59,,,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" s="8" t="e">
+        <f>_xll.qlInstrumentSetPricingEngine($A59,$H$1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I59" s="10" t="e">
+        <f>_xll.qlBondCleanPrice($A59,H59)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J59" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L59" s="15">
         <f t="shared" si="5"/>
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="M59" s="14">
-        <v>44256</v>
+        <v>43892</v>
       </c>
       <c r="N59" s="13">
-        <v>0.95161857643369085</v>
+        <v>0.99103466909919413</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J60" s="5"/>
+      <c r="A60" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B60" s="8" t="e">
+        <f>_xll.qlBondDescription($A60,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C60" s="11" t="e">
+        <f>_xll.qlBondMaturityDate($A60,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D60" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F60" s="10" t="e">
+        <f>_xll.qlQuoteValue(E60,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="7" t="e">
+        <f>_xll.qlBondHelper(,E60,$A60,,,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" s="8" t="e">
+        <f>_xll.qlInstrumentSetPricingEngine($A60,$H$1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I60" s="10" t="e">
+        <f>_xll.qlBondCleanPrice($A60,H60)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J60" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L60" s="15">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="M60" s="14">
-        <v>44319</v>
+        <v>43955</v>
       </c>
       <c r="N60" s="13">
-        <v>0.94703330009394371</v>
+        <v>0.98913636809542382</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B61" s="8" t="e">
+        <f>_xll.qlBondDescription($A61,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C61" s="11" t="e">
+        <f>_xll.qlBondMaturityDate($A61,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D61" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F61" s="10" t="e">
+        <f>_xll.qlQuoteValue(E61,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G61" s="7" t="e">
+        <f>_xll.qlBondHelper(,E61,$A61,,,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="8" t="e">
+        <f>_xll.qlInstrumentSetPricingEngine($A61,$H$1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I61" s="10" t="e">
+        <f>_xll.qlBondCleanPrice($A61,H61)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J61" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L61" s="15">
         <f t="shared" si="5"/>
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="M61" s="14">
-        <v>44410</v>
+        <v>44075</v>
       </c>
       <c r="N61" s="13">
-        <v>0.94039963394739279</v>
+        <v>0.98525978694273997</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B62" s="8" t="e">
+        <f>_xll.qlBondDescription($A62,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C62" s="11" t="e">
+        <f>_xll.qlBondMaturityDate($A62,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D62" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F62" s="10" t="e">
+        <f>_xll.qlQuoteValue(E62,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G62" s="7" t="e">
+        <f>_xll.qlBondHelper(,E62,$A62,,,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H62" s="8" t="e">
+        <f>_xll.qlInstrumentSetPricingEngine($A62,$H$1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I62" s="10" t="e">
+        <f>_xll.qlBondCleanPrice($A62,H62)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J62" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L62" s="15">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="M62" s="14">
-        <v>44440</v>
+        <v>44256</v>
       </c>
       <c r="N62" s="13">
-        <v>0.9377649460148243</v>
+        <v>0.97690471191049633</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B63" s="8" t="e">
+        <f>_xll.qlBondDescription($A63,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C63" s="11" t="e">
+        <f>_xll.qlBondMaturityDate($A63,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D63" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F63" s="10" t="e">
+        <f>_xll.qlQuoteValue(E63,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G63" s="7" t="e">
+        <f>_xll.qlBondHelper(,E63,$A63,,,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H63" s="8" t="e">
+        <f>_xll.qlInstrumentSetPricingEngine($A63,$H$1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I63" s="10" t="e">
+        <f>_xll.qlBondCleanPrice($A63,H63)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J63" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L63" s="15">
         <f t="shared" si="5"/>
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="M63" s="14">
-        <v>44621</v>
+        <v>44319</v>
       </c>
       <c r="N63" s="13">
-        <v>0.92736323082395344</v>
+        <v>0.97331816172171937</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B64" s="8" t="e">
+        <f>_xll.qlBondDescription($A64,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C64" s="11" t="e">
+        <f>_xll.qlBondMaturityDate($A64,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D64" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F64" s="10" t="e">
+        <f>_xll.qlQuoteValue(E64,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G64" s="7" t="e">
+        <f>_xll.qlBondHelper(,E64,$A64,,,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H64" s="8" t="e">
+        <f>_xll.qlInstrumentSetPricingEngine($A64,$H$1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I64" s="10" t="e">
+        <f>_xll.qlBondCleanPrice($A64,H64)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J64" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L64" s="15">
         <f t="shared" si="5"/>
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="M64" s="14">
-        <v>44805</v>
+        <v>44410</v>
       </c>
       <c r="N64" s="13">
-        <v>0.91241805732977765</v>
-      </c>
-    </row>
-    <row r="65" spans="12:14" x14ac:dyDescent="0.2">
+        <v>0.96933637627959301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B65" s="8" t="e">
+        <f>_xll.qlBondDescription($A65,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C65" s="11" t="e">
+        <f>_xll.qlBondMaturityDate($A65,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D65" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F65" s="10" t="e">
+        <f>_xll.qlQuoteValue(E65,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G65" s="7" t="e">
+        <f>_xll.qlBondHelper(,E65,$A65,,,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H65" s="8" t="e">
+        <f>_xll.qlInstrumentSetPricingEngine($A65,$H$1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I65" s="10" t="e">
+        <f>_xll.qlBondCleanPrice($A65,H65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J65" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L65" s="15">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M65" s="14">
-        <v>44866</v>
+        <v>44440</v>
       </c>
       <c r="N65" s="13">
-        <v>0.90614482498806137</v>
-      </c>
-    </row>
-    <row r="66" spans="12:14" x14ac:dyDescent="0.2">
+        <v>0.96715275710537729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B66" s="8" t="e">
+        <f>_xll.qlBondDescription($A66,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C66" s="11" t="e">
+        <f>_xll.qlBondMaturityDate($A66,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D66" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F66" s="10" t="e">
+        <f>_xll.qlQuoteValue(E66,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G66" s="7" t="e">
+        <f>_xll.qlBondHelper(,E66,$A66,,,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H66" s="8" t="e">
+        <f>_xll.qlInstrumentSetPricingEngine($A66,$H$1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I66" s="10" t="e">
+        <f>_xll.qlBondCleanPrice($A66,H66)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J66" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L66" s="15">
         <f t="shared" si="5"/>
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="M66" s="14">
-        <v>45048</v>
+        <v>44545</v>
       </c>
       <c r="N66" s="13">
-        <v>0.89565711712759022</v>
-      </c>
-    </row>
-    <row r="67" spans="12:14" x14ac:dyDescent="0.2">
+        <v>0.96236763568174588</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B67" s="8" t="e">
+        <f>_xll.qlBondDescription($A67,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C67" s="11" t="e">
+        <f>_xll.qlBondMaturityDate($A67,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D67" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="8" t="e">
+        <f t="shared" ref="E67:E70" si="8">$A67&amp;$E$1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F67" s="10" t="e">
+        <f>_xll.qlQuoteValue(E67,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G67" s="7" t="e">
+        <f>_xll.qlBondHelper(,E67,$A67,,,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H67" s="8" t="e">
+        <f>_xll.qlInstrumentSetPricingEngine($A67,$H$1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I67" s="10" t="e">
+        <f>_xll.qlBondCleanPrice($A67,H67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J67" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L67" s="15">
         <f t="shared" si="5"/>
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="M67" s="14">
-        <v>45139</v>
+        <v>44621</v>
       </c>
       <c r="N67" s="13">
-        <v>0.88954265811716859</v>
-      </c>
-    </row>
-    <row r="68" spans="12:14" x14ac:dyDescent="0.2">
+        <v>0.95562028971027246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B68" s="8" t="e">
+        <f>_xll.qlBondDescription($A68,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C68" s="11" t="e">
+        <f>_xll.qlBondMaturityDate($A68,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D68" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="8" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F68" s="10" t="e">
+        <f>_xll.qlQuoteValue(E68,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G68" s="7" t="e">
+        <f>_xll.qlBondHelper(,E68,$A68,,,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H68" s="8" t="e">
+        <f>_xll.qlInstrumentSetPricingEngine($A68,$H$1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I68" s="10" t="e">
+        <f>_xll.qlBondCleanPrice($A68,H68)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J68" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L68" s="15">
         <f t="shared" si="5"/>
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="M68" s="14">
-        <v>45231</v>
+        <v>44670</v>
       </c>
       <c r="N68" s="13">
-        <v>0.87742841541934191</v>
-      </c>
-    </row>
-    <row r="69" spans="12:14" x14ac:dyDescent="0.2">
+        <v>0.9558548156037574</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B69" s="8" t="e">
+        <f>_xll.qlBondDescription($A69,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C69" s="11" t="e">
+        <f>_xll.qlBondMaturityDate($A69,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D69" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="8" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F69" s="10" t="e">
+        <f>_xll.qlQuoteValue(E69,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G69" s="7" t="e">
+        <f>_xll.qlBondHelper(,E69,$A69,,,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H69" s="8" t="e">
+        <f>_xll.qlInstrumentSetPricingEngine($A69,$H$1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I69" s="10" t="e">
+        <f>_xll.qlBondCleanPrice($A69,H69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J69" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L69" s="15">
         <f t="shared" si="5"/>
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M69" s="14">
-        <v>45352</v>
+        <v>44805</v>
       </c>
       <c r="N69" s="13">
-        <v>0.87088771686281119</v>
-      </c>
-    </row>
-    <row r="70" spans="12:14" x14ac:dyDescent="0.2">
+        <v>0.94335505467766156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B70" s="8" t="e">
+        <f>_xll.qlBondDescription($A70,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C70" s="11" t="e">
+        <f>_xll.qlBondMaturityDate($A70,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D70" s="8" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="8" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F70" s="10" t="e">
+        <f>_xll.qlQuoteValue(E70,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G70" s="7" t="e">
+        <f>_xll.qlBondHelper(,E70,$A70,,,Trigger)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H70" s="8" t="e">
+        <f>_xll.qlInstrumentSetPricingEngine($A70,$H$1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I70" s="10" t="e">
+        <f>_xll.qlBondCleanPrice($A70,H70)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J70" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="L70" s="15">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="M70" s="14">
-        <v>45537</v>
+        <v>44866</v>
       </c>
       <c r="N70" s="13">
-        <v>0.86007175203501807</v>
+        <v>0.93851460324884006</v>
       </c>
     </row>
   </sheetData>
